--- a/Bases/ESG_database.xlsx
+++ b/Bases/ESG_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454B5D7A-BE97-4574-A86A-E625F78FB5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70B6F2-83A9-47A5-AB56-23455990784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D09EA0A-FC56-4052-9C0C-3D393E982376}"/>
   </bookViews>
@@ -888,8 +888,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37780,7 +37780,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Bases/ESG_database.xlsx
+++ b/Bases/ESG_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8053D-1212-40DA-83DA-3CBA317D3D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845FA2A-75AB-48F2-9D8E-A02844888AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D09EA0A-FC56-4052-9C0C-3D393E982376}"/>
   </bookViews>
@@ -879,8 +879,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Bases/ESG_database.xlsx
+++ b/Bases/ESG_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845FA2A-75AB-48F2-9D8E-A02844888AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF3724-BC01-40E9-8167-A1FAFD684696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D09EA0A-FC56-4052-9C0C-3D393E982376}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="153">
   <si>
     <t>Country Name</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor force, female (% of total labor force) </t>
   </si>
   <si>
     <t>Indicator Name</t>
@@ -877,15 +874,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6662F-A580-4A64-8F16-AE52E4412049}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R625"/>
+  <dimension ref="A1:Q625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,11 +934,8 @@
       <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -993,11 +987,8 @@
       <c r="Q2" s="2">
         <v>16.910370716760408</v>
       </c>
-      <c r="R2">
-        <v>44.33596504042216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,11 +1040,8 @@
       <c r="Q3" s="2">
         <v>16.881073009163931</v>
       </c>
-      <c r="R3">
-        <v>44.666248906742609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1105,11 +1093,8 @@
       <c r="Q4" s="2">
         <v>16.851775301567454</v>
       </c>
-      <c r="R4">
-        <v>44.836184673419517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,11 +1146,8 @@
       <c r="Q5" s="2">
         <v>16.822477593970977</v>
       </c>
-      <c r="R5">
-        <v>44.93519360268747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1217,11 +1199,8 @@
       <c r="Q6" s="2">
         <v>16.793179886374499</v>
       </c>
-      <c r="R6">
-        <v>45.043643930002141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1273,11 +1252,8 @@
       <c r="Q7" s="2">
         <v>16.763882178778022</v>
       </c>
-      <c r="R7">
-        <v>45.194472820988551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1329,11 +1305,8 @@
       <c r="Q8" s="2">
         <v>16.734584471181545</v>
       </c>
-      <c r="R8">
-        <v>45.087072706588046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1385,11 +1358,8 @@
       <c r="Q9" s="2">
         <v>16.826259943523112</v>
       </c>
-      <c r="R9">
-        <v>45.284895684069589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1441,11 +1411,8 @@
       <c r="Q10" s="2">
         <v>16.917935415864687</v>
       </c>
-      <c r="R10">
-        <v>45.435559773185481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1497,11 +1464,8 @@
       <c r="Q11" s="2">
         <v>17.009610888206254</v>
       </c>
-      <c r="R11">
-        <v>45.556509783696399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1553,11 +1517,8 @@
       <c r="Q12" s="2">
         <v>17.101286360547821</v>
       </c>
-      <c r="R12">
-        <v>45.740389565112629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1609,11 +1570,8 @@
       <c r="Q13" s="2">
         <v>17.192961832889388</v>
       </c>
-      <c r="R13">
-        <v>45.909082313366341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1665,11 +1623,8 @@
       <c r="Q14" s="2">
         <v>17.314738503750057</v>
       </c>
-      <c r="R14">
-        <v>46.161210624568994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1721,11 +1676,8 @@
       <c r="Q15" s="2">
         <v>17.312180767372585</v>
       </c>
-      <c r="R15">
-        <v>46.339868355122725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1777,11 +1729,8 @@
       <c r="Q16" s="2">
         <v>17.310591870532036</v>
       </c>
-      <c r="R16">
-        <v>46.500399587857117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1833,11 +1782,8 @@
       <c r="Q17" s="2">
         <v>17.310591870532036</v>
       </c>
-      <c r="R17">
-        <v>46.641605086784672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,11 +1835,8 @@
       <c r="Q18" s="2">
         <v>45.877561725819341</v>
       </c>
-      <c r="R18">
-        <v>45.113861903940752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1945,11 +1888,8 @@
       <c r="Q19" s="2">
         <v>45.907438095351637</v>
       </c>
-      <c r="R19">
-        <v>45.254609088969872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2001,11 +1941,8 @@
       <c r="Q20" s="2">
         <v>45.937314464883947</v>
       </c>
-      <c r="R20">
-        <v>45.431248903302915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2057,11 +1994,8 @@
       <c r="Q21" s="2">
         <v>45.967190834416243</v>
       </c>
-      <c r="R21">
-        <v>45.494093024060334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2113,11 +2047,8 @@
       <c r="Q22" s="2">
         <v>45.997067203948546</v>
       </c>
-      <c r="R22">
-        <v>45.729986453073543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2169,11 +2100,8 @@
       <c r="Q23" s="2">
         <v>46.02694357348085</v>
       </c>
-      <c r="R23">
-        <v>46.042901997153834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2225,11 +2153,8 @@
       <c r="Q24" s="2">
         <v>46.056819943013153</v>
       </c>
-      <c r="R24">
-        <v>46.140377828611349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2281,11 +2206,8 @@
       <c r="Q25" s="2">
         <v>46.099715065749471</v>
       </c>
-      <c r="R25">
-        <v>46.336183969387989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2337,11 +2259,8 @@
       <c r="Q26" s="2">
         <v>46.142610188485797</v>
       </c>
-      <c r="R26">
-        <v>46.513702740731958</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2393,11 +2312,8 @@
       <c r="Q27" s="2">
         <v>46.185505311222116</v>
       </c>
-      <c r="R27">
-        <v>46.582243968428202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2449,11 +2365,8 @@
       <c r="Q28" s="2">
         <v>46.228400433958441</v>
       </c>
-      <c r="R28">
-        <v>46.705959082888896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2505,11 +2418,8 @@
       <c r="Q29" s="2">
         <v>46.271295556694767</v>
       </c>
-      <c r="R29">
-        <v>46.677885794450098</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2561,11 +2471,8 @@
       <c r="Q30" s="2">
         <v>46.314214523301423</v>
       </c>
-      <c r="R30">
-        <v>46.701614597027344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2617,11 +2524,8 @@
       <c r="Q31" s="2">
         <v>46.357014270556398</v>
       </c>
-      <c r="R31">
-        <v>46.617893606435608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2673,11 +2577,8 @@
       <c r="Q32" s="2">
         <v>46.399814017811366</v>
       </c>
-      <c r="R32">
-        <v>46.428909072455461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2729,11 +2630,8 @@
       <c r="Q33" s="2">
         <v>46.442613765066348</v>
       </c>
-      <c r="R33">
-        <v>46.417745276742586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -2785,11 +2683,8 @@
       <c r="Q34" s="2">
         <v>22.152898788077298</v>
       </c>
-      <c r="R34">
-        <v>43.643294270468807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -2841,11 +2736,8 @@
       <c r="Q35" s="2">
         <v>22.226826072715365</v>
       </c>
-      <c r="R35">
-        <v>43.944260445479692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -2897,11 +2789,8 @@
       <c r="Q36" s="2">
         <v>22.300753357353422</v>
       </c>
-      <c r="R36">
-        <v>44.196817919560317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2953,11 +2842,8 @@
       <c r="Q37" s="2">
         <v>22.374680641991485</v>
       </c>
-      <c r="R37">
-        <v>44.469337055649241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -3009,11 +2895,8 @@
       <c r="Q38" s="2">
         <v>22.448607926629542</v>
       </c>
-      <c r="R38">
-        <v>44.737724406167871</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3065,11 +2948,8 @@
       <c r="Q39" s="2">
         <v>22.522535211267609</v>
       </c>
-      <c r="R39">
-        <v>44.931976973319401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -3121,11 +3001,8 @@
       <c r="Q40" s="2">
         <v>22.596462495905666</v>
       </c>
-      <c r="R40">
-        <v>45.139582255773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -3177,11 +3054,8 @@
       <c r="Q41" s="2">
         <v>22.592728463806093</v>
       </c>
-      <c r="R41">
-        <v>45.247822744059576</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -3233,11 +3107,8 @@
       <c r="Q42" s="2">
         <v>22.588994431706517</v>
       </c>
-      <c r="R42">
-        <v>45.269628705838102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -3289,11 +3160,8 @@
       <c r="Q43" s="2">
         <v>22.585260399606945</v>
       </c>
-      <c r="R43">
-        <v>45.644697637544304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
@@ -3345,11 +3213,8 @@
       <c r="Q44" s="2">
         <v>22.581526367507372</v>
       </c>
-      <c r="R44">
-        <v>45.980844893158782</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -3401,11 +3266,8 @@
       <c r="Q45" s="2">
         <v>22.577792335407796</v>
       </c>
-      <c r="R45">
-        <v>46.040931119383501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -3457,11 +3319,8 @@
       <c r="Q46" s="2">
         <v>22.577792335407796</v>
       </c>
-      <c r="R46">
-        <v>45.93181610675208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -3513,11 +3372,8 @@
       <c r="Q47" s="2">
         <v>22.577792335407796</v>
       </c>
-      <c r="R47">
-        <v>45.838946131824045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -3569,11 +3425,8 @@
       <c r="Q48" s="2">
         <v>22.577792335407796</v>
       </c>
-      <c r="R48">
-        <v>46.210974522923706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -3625,11 +3478,8 @@
       <c r="Q49" s="2">
         <v>22.577792335407796</v>
       </c>
-      <c r="R49">
-        <v>46.225609644524404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -3681,11 +3531,8 @@
       <c r="Q50" s="2">
         <v>62.858137314652694</v>
       </c>
-      <c r="R50">
-        <v>41.953976663606845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -3737,11 +3584,8 @@
       <c r="Q51" s="2">
         <v>62.394199232717654</v>
       </c>
-      <c r="R51">
-        <v>42.441087717665702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -3793,11 +3637,8 @@
       <c r="Q52" s="2">
         <v>61.930261150782606</v>
       </c>
-      <c r="R52">
-        <v>42.494151936960598</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -3849,11 +3690,8 @@
       <c r="Q53" s="2">
         <v>61.466323068847558</v>
       </c>
-      <c r="R53">
-        <v>42.514088444887719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3905,11 +3743,8 @@
       <c r="Q54" s="2">
         <v>61.002384986912517</v>
       </c>
-      <c r="R54">
-        <v>42.456208587449822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -3961,11 +3796,8 @@
       <c r="Q55" s="2">
         <v>60.538446904977469</v>
       </c>
-      <c r="R55">
-        <v>42.699137530061073</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -4017,11 +3849,8 @@
       <c r="Q56" s="2">
         <v>60.074508823042429</v>
       </c>
-      <c r="R56">
-        <v>42.350582574025658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -4073,11 +3902,8 @@
       <c r="Q57" s="2">
         <v>59.893764157557094</v>
       </c>
-      <c r="R57">
-        <v>41.994130687032403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -4129,11 +3955,8 @@
       <c r="Q58" s="2">
         <v>59.713019492071773</v>
       </c>
-      <c r="R58">
-        <v>42.266335890144681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -4185,11 +4008,8 @@
       <c r="Q59" s="2">
         <v>59.532274826586438</v>
       </c>
-      <c r="R59">
-        <v>42.28568542559934</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -4241,11 +4061,8 @@
       <c r="Q60" s="2">
         <v>59.35153016110111</v>
       </c>
-      <c r="R60">
-        <v>42.380381600582069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -4297,11 +4114,8 @@
       <c r="Q61" s="2">
         <v>59.170785495615775</v>
       </c>
-      <c r="R61">
-        <v>42.718121056384135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -4353,11 +4167,8 @@
       <c r="Q62" s="2">
         <v>58.959095889156231</v>
       </c>
-      <c r="R62">
-        <v>42.86628448582919</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -4409,11 +4220,8 @@
       <c r="Q63" s="2">
         <v>58.725353080226448</v>
       </c>
-      <c r="R63">
-        <v>43.380803313004925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -4465,11 +4273,8 @@
       <c r="Q64" s="2">
         <v>58.603203233530266</v>
       </c>
-      <c r="R64">
-        <v>43.578201751126691</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -4521,11 +4326,8 @@
       <c r="Q65" s="2">
         <v>58.456076197454841</v>
       </c>
-      <c r="R65">
-        <v>43.897108314086132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
@@ -4577,11 +4379,8 @@
       <c r="Q66" s="2">
         <v>31.709909909909911</v>
       </c>
-      <c r="R66">
-        <v>46.422504750791994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
@@ -4633,11 +4432,8 @@
       <c r="Q67" s="2">
         <v>32.036036036036037</v>
       </c>
-      <c r="R67">
-        <v>45.976363190708241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -4689,11 +4485,8 @@
       <c r="Q68" s="2">
         <v>32.362162162162164</v>
       </c>
-      <c r="R68">
-        <v>46.384673801045267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
@@ -4745,11 +4538,8 @@
       <c r="Q69" s="2">
         <v>32.688288288288284</v>
       </c>
-      <c r="R69">
-        <v>46.290167226821872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -4801,11 +4591,8 @@
       <c r="Q70" s="2">
         <v>33.014414414414411</v>
       </c>
-      <c r="R70">
-        <v>45.837971911880892</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
@@ -4857,11 +4644,8 @@
       <c r="Q71" s="2">
         <v>33.340540540540545</v>
       </c>
-      <c r="R71">
-        <v>45.790035411357508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -4913,11 +4697,8 @@
       <c r="Q72" s="2">
         <v>33.666666666666664</v>
       </c>
-      <c r="R72">
-        <v>46.198400232301772</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>15</v>
       </c>
@@ -4969,11 +4750,8 @@
       <c r="Q73" s="2">
         <v>33.839639639639643</v>
       </c>
-      <c r="R73">
-        <v>46.509667753580679</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -5025,11 +4803,8 @@
       <c r="Q74" s="2">
         <v>34.012612612612614</v>
       </c>
-      <c r="R74">
-        <v>46.645925303565349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -5081,11 +4856,8 @@
       <c r="Q75" s="2">
         <v>34.185585585585585</v>
       </c>
-      <c r="R75">
-        <v>46.654099961723809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>15</v>
       </c>
@@ -5137,11 +4909,8 @@
       <c r="Q76" s="2">
         <v>34.358558558558563</v>
       </c>
-      <c r="R76">
-        <v>46.522009280910922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>15</v>
       </c>
@@ -5193,11 +4962,8 @@
       <c r="Q77" s="2">
         <v>34.531531531531535</v>
       </c>
-      <c r="R77">
-        <v>46.52813125670194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>15</v>
       </c>
@@ -5249,11 +5015,8 @@
       <c r="Q78" s="2">
         <v>34.603603603603602</v>
       </c>
-      <c r="R78">
-        <v>46.320172332244411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>15</v>
       </c>
@@ -5305,11 +5068,8 @@
       <c r="Q79" s="2">
         <v>34.72072072072072</v>
       </c>
-      <c r="R79">
-        <v>46.401345301496995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>15</v>
       </c>
@@ -5361,11 +5121,8 @@
       <c r="Q80" s="2">
         <v>34.837837837837839</v>
       </c>
-      <c r="R80">
-        <v>46.168819576887174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>15</v>
       </c>
@@ -5417,11 +5174,8 @@
       <c r="Q81" s="2">
         <v>34.954954954954957</v>
       </c>
-      <c r="R81">
-        <v>46.114512161469158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>17</v>
       </c>
@@ -5473,11 +5227,8 @@
       <c r="Q82" s="2">
         <v>35.184095346542172</v>
       </c>
-      <c r="R82">
-        <v>46.448662381350942</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>17</v>
       </c>
@@ -5529,11 +5280,8 @@
       <c r="Q83" s="2">
         <v>35.179239353222499</v>
       </c>
-      <c r="R83">
-        <v>46.419240818015261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
@@ -5585,11 +5333,8 @@
       <c r="Q84" s="2">
         <v>35.174383359902833</v>
       </c>
-      <c r="R84">
-        <v>46.674059339345611</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>17</v>
       </c>
@@ -5641,11 +5386,8 @@
       <c r="Q85" s="2">
         <v>35.169527366583161</v>
       </c>
-      <c r="R85">
-        <v>46.855960387922067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>17</v>
       </c>
@@ -5697,11 +5439,8 @@
       <c r="Q86" s="2">
         <v>35.164671373263495</v>
       </c>
-      <c r="R86">
-        <v>46.800794255418381</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
@@ -5753,11 +5492,8 @@
       <c r="Q87" s="2">
         <v>35.159815379943822</v>
       </c>
-      <c r="R87">
-        <v>47.032047169849641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>17</v>
       </c>
@@ -5809,11 +5545,8 @@
       <c r="Q88" s="2">
         <v>35.154959386624157</v>
       </c>
-      <c r="R88">
-        <v>47.134204491359519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -5865,11 +5598,8 @@
       <c r="Q89" s="2">
         <v>35.150779118904829</v>
       </c>
-      <c r="R89">
-        <v>47.092992876452001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>17</v>
       </c>
@@ -5921,11 +5651,8 @@
       <c r="Q90" s="2">
         <v>35.146598851185509</v>
       </c>
-      <c r="R90">
-        <v>47.226463442711108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>17</v>
       </c>
@@ -5977,11 +5704,8 @@
       <c r="Q91" s="2">
         <v>35.142418583466181</v>
       </c>
-      <c r="R91">
-        <v>47.31362747295821</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
@@ -6033,11 +5757,8 @@
       <c r="Q92" s="2">
         <v>35.138238315746854</v>
       </c>
-      <c r="R92">
-        <v>47.189915713779598</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>17</v>
       </c>
@@ -6089,11 +5810,8 @@
       <c r="Q93" s="2">
         <v>35.134058048027534</v>
       </c>
-      <c r="R93">
-        <v>47.053094141007612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
@@ -6145,11 +5863,8 @@
       <c r="Q94" s="2">
         <v>35.130042764239981</v>
       </c>
-      <c r="R94">
-        <v>47.173072707270322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -6201,11 +5916,8 @@
       <c r="Q95" s="2">
         <v>35.126298742377081</v>
       </c>
-      <c r="R95">
-        <v>47.27206711573271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>17</v>
       </c>
@@ -6257,11 +5969,8 @@
       <c r="Q96" s="2">
         <v>35.122555732685548</v>
       </c>
-      <c r="R96">
-        <v>47.363360901334168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>17</v>
       </c>
@@ -6313,11 +6022,8 @@
       <c r="Q97" s="2">
         <v>35.118811710822648</v>
       </c>
-      <c r="R97">
-        <v>47.240316101498415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
@@ -6369,11 +6075,8 @@
       <c r="Q98" s="2">
         <v>21.399848696461824</v>
       </c>
-      <c r="R98">
-        <v>36.622024290041423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>19</v>
       </c>
@@ -6425,11 +6128,8 @@
       <c r="Q99" s="2">
         <v>21.5199657186389</v>
       </c>
-      <c r="R99">
-        <v>37.127936476557608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>19</v>
       </c>
@@ -6481,11 +6181,8 @@
       <c r="Q100" s="2">
         <v>21.640082740815981</v>
       </c>
-      <c r="R100">
-        <v>37.378647317562063</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>19</v>
       </c>
@@ -6537,11 +6234,8 @@
       <c r="Q101" s="2">
         <v>21.760199762993057</v>
       </c>
-      <c r="R101">
-        <v>37.94014591704704</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>19</v>
       </c>
@@ -6593,11 +6287,8 @@
       <c r="Q102" s="2">
         <v>21.880316785170134</v>
       </c>
-      <c r="R102">
-        <v>38.985957045109593</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -6649,11 +6340,8 @@
       <c r="Q103" s="2">
         <v>22.000433807347211</v>
       </c>
-      <c r="R103">
-        <v>39.432853858694486</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>19</v>
       </c>
@@ -6705,11 +6393,8 @@
       <c r="Q104" s="2">
         <v>22.120550829524287</v>
       </c>
-      <c r="R104">
-        <v>39.806028657992243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>19</v>
       </c>
@@ -6761,11 +6446,8 @@
       <c r="Q105" s="2">
         <v>22.350897240562041</v>
       </c>
-      <c r="R105">
-        <v>40.575460410416127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>19</v>
       </c>
@@ -6817,11 +6499,8 @@
       <c r="Q106" s="2">
         <v>22.581243651599795</v>
       </c>
-      <c r="R106">
-        <v>40.799538076955677</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>19</v>
       </c>
@@ -6873,11 +6552,8 @@
       <c r="Q107" s="2">
         <v>22.811590062637546</v>
       </c>
-      <c r="R107">
-        <v>41.070326612586534</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -6929,11 +6605,8 @@
       <c r="Q108" s="2">
         <v>23.0419364736753</v>
       </c>
-      <c r="R108">
-        <v>41.393287371559481</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>19</v>
       </c>
@@ -6985,11 +6658,8 @@
       <c r="Q109" s="2">
         <v>23.272282884713054</v>
       </c>
-      <c r="R109">
-        <v>41.315680035481144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -7041,11 +6711,8 @@
       <c r="Q110" s="2">
         <v>23.416162283599839</v>
       </c>
-      <c r="R110">
-        <v>41.581567777897149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>19</v>
       </c>
@@ -7097,11 +6764,8 @@
       <c r="Q111" s="2">
         <v>23.578617682040438</v>
       </c>
-      <c r="R111">
-        <v>41.876700617203852</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>19</v>
       </c>
@@ -7153,11 +6817,8 @@
       <c r="Q112" s="2">
         <v>23.741073080481033</v>
       </c>
-      <c r="R112">
-        <v>42.224385554853292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>19</v>
       </c>
@@ -7209,11 +6870,8 @@
       <c r="Q113" s="2">
         <v>23.903528478921633</v>
       </c>
-      <c r="R113">
-        <v>42.442935622568399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>21</v>
       </c>
@@ -7265,11 +6923,8 @@
       <c r="Q114" s="2">
         <v>19.421299196807333</v>
       </c>
-      <c r="R114">
-        <v>44.745464247362413</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>21</v>
       </c>
@@ -7321,11 +6976,8 @@
       <c r="Q115" s="2">
         <v>19.667236347234091</v>
       </c>
-      <c r="R115">
-        <v>44.634333098470982</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>21</v>
       </c>
@@ -7377,11 +7029,8 @@
       <c r="Q116" s="2">
         <v>19.913171666666667</v>
       </c>
-      <c r="R116">
-        <v>44.523490868065416</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>21</v>
       </c>
@@ -7433,11 +7082,8 @@
       <c r="Q117" s="2">
         <v>20.159107395833335</v>
       </c>
-      <c r="R117">
-        <v>44.416618638510592</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>21</v>
       </c>
@@ -7489,11 +7135,8 @@
       <c r="Q118" s="2">
         <v>20.405043124999999</v>
       </c>
-      <c r="R118">
-        <v>44.3052600421357</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>21</v>
       </c>
@@ -7545,11 +7188,8 @@
       <c r="Q119" s="2">
         <v>20.650977778594907</v>
       </c>
-      <c r="R119">
-        <v>44.198070122157127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>21</v>
       </c>
@@ -7601,11 +7241,8 @@
       <c r="Q120" s="2">
         <v>20.896913059600092</v>
       </c>
-      <c r="R120">
-        <v>44.079056138678993</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>21</v>
       </c>
@@ -7657,11 +7294,8 @@
       <c r="Q121" s="2">
         <v>21.098659897000633</v>
       </c>
-      <c r="R121">
-        <v>44.038855757539551</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>21</v>
       </c>
@@ -7713,11 +7347,8 @@
       <c r="Q122" s="2">
         <v>21.300407169753495</v>
       </c>
-      <c r="R122">
-        <v>44.003027505550094</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>21</v>
       </c>
@@ -7769,11 +7400,8 @@
       <c r="Q123" s="2">
         <v>21.502153546583372</v>
       </c>
-      <c r="R123">
-        <v>43.978405030897463</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>21</v>
       </c>
@@ -7825,11 +7453,8 @@
       <c r="Q124" s="2">
         <v>21.70388950682251</v>
       </c>
-      <c r="R124">
-        <v>43.957773700004935</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>21</v>
       </c>
@@ -7881,11 +7506,8 @@
       <c r="Q125" s="2">
         <v>21.905634156073674</v>
       </c>
-      <c r="R125">
-        <v>43.920695069452634</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>21</v>
       </c>
@@ -7937,11 +7559,8 @@
       <c r="Q126" s="2">
         <v>22.131211939820272</v>
       </c>
-      <c r="R126">
-        <v>43.86878708108565</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>21</v>
       </c>
@@ -7993,11 +7612,8 @@
       <c r="Q127" s="2">
         <v>22.327003007121618</v>
       </c>
-      <c r="R127">
-        <v>43.799729246239103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>21</v>
       </c>
@@ -8049,11 +7665,8 @@
       <c r="Q128" s="2">
         <v>22.522786401672441</v>
       </c>
-      <c r="R128">
-        <v>43.718829927978639</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>21</v>
       </c>
@@ -8105,11 +7718,8 @@
       <c r="Q129" s="2">
         <v>22.718574680248604</v>
       </c>
-      <c r="R129">
-        <v>43.634355292719093</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>23</v>
       </c>
@@ -8161,11 +7771,8 @@
       <c r="Q130" s="2">
         <v>54.271439456973944</v>
       </c>
-      <c r="R130">
-        <v>41.410485067272433</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>23</v>
       </c>
@@ -8217,11 +7824,8 @@
       <c r="Q131" s="2">
         <v>54.102601269980291</v>
       </c>
-      <c r="R131">
-        <v>41.08881384083017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>23</v>
       </c>
@@ -8273,11 +7877,8 @@
       <c r="Q132" s="2">
         <v>53.933763082986644</v>
       </c>
-      <c r="R132">
-        <v>40.879934776137624</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -8329,11 +7930,8 @@
       <c r="Q133" s="2">
         <v>53.764924895992991</v>
       </c>
-      <c r="R133">
-        <v>40.684800775153391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>23</v>
       </c>
@@ -8385,11 +7983,8 @@
       <c r="Q134" s="2">
         <v>53.596086708999344</v>
       </c>
-      <c r="R134">
-        <v>40.77697511446479</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>23</v>
       </c>
@@ -8441,11 +8036,8 @@
       <c r="Q135" s="2">
         <v>53.427248522005698</v>
       </c>
-      <c r="R135">
-        <v>41.797530115853782</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>23</v>
       </c>
@@ -8497,11 +8089,8 @@
       <c r="Q136" s="2">
         <v>53.258410335012044</v>
       </c>
-      <c r="R136">
-        <v>42.297663453980135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>23</v>
       </c>
@@ -8553,11 +8142,8 @@
       <c r="Q137" s="2">
         <v>53.140498357784104</v>
       </c>
-      <c r="R137">
-        <v>42.476505079711607</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>23</v>
       </c>
@@ -8609,11 +8195,8 @@
       <c r="Q138" s="2">
         <v>53.022679260222048</v>
       </c>
-      <c r="R138">
-        <v>42.958064945150355</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>23</v>
       </c>
@@ -8665,11 +8248,8 @@
       <c r="Q139" s="2">
         <v>52.904720739847377</v>
       </c>
-      <c r="R139">
-        <v>43.098604614016423</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>23</v>
       </c>
@@ -8721,11 +8301,8 @@
       <c r="Q140" s="2">
         <v>52.78680865934632</v>
       </c>
-      <c r="R140">
-        <v>43.052584426990101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>23</v>
       </c>
@@ -8777,11 +8354,8 @@
       <c r="Q141" s="2">
         <v>52.668896578845271</v>
       </c>
-      <c r="R141">
-        <v>43.256697753713354</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>23</v>
       </c>
@@ -8833,11 +8407,8 @@
       <c r="Q142" s="2">
         <v>52.515474066541771</v>
       </c>
-      <c r="R142">
-        <v>43.208468555197591</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>23</v>
       </c>
@@ -8889,11 +8460,8 @@
       <c r="Q143" s="2">
         <v>52.323032470359074</v>
       </c>
-      <c r="R143">
-        <v>43.168207819996269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>23</v>
       </c>
@@ -8945,11 +8513,8 @@
       <c r="Q144" s="2">
         <v>52.14843880008759</v>
       </c>
-      <c r="R144">
-        <v>42.941180102779441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>23</v>
       </c>
@@ -9001,11 +8566,8 @@
       <c r="Q145" s="2">
         <v>51.973899715349233</v>
       </c>
-      <c r="R145">
-        <v>42.677435187388042</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>25</v>
       </c>
@@ -9057,11 +8619,8 @@
       <c r="Q146" s="2">
         <v>33.54033219221504</v>
       </c>
-      <c r="R146">
-        <v>44.362027357573126</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>25</v>
       </c>
@@ -9113,11 +8672,8 @@
       <c r="Q147" s="2">
         <v>33.565804488398634</v>
       </c>
-      <c r="R147">
-        <v>44.156486910363128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>25</v>
       </c>
@@ -9169,11 +8725,8 @@
       <c r="Q148" s="2">
         <v>33.591276784582227</v>
       </c>
-      <c r="R148">
-        <v>44.098920552235782</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>25</v>
       </c>
@@ -9225,11 +8778,8 @@
       <c r="Q149" s="2">
         <v>33.616749080765814</v>
       </c>
-      <c r="R149">
-        <v>43.707705167598171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>25</v>
       </c>
@@ -9281,11 +8831,8 @@
       <c r="Q150" s="2">
         <v>33.642221376949408</v>
       </c>
-      <c r="R150">
-        <v>43.417398318725908</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>25</v>
       </c>
@@ -9337,11 +8884,8 @@
       <c r="Q151" s="2">
         <v>33.667693673133002</v>
       </c>
-      <c r="R151">
-        <v>43.396435600712302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>25</v>
       </c>
@@ -9393,11 +8937,8 @@
       <c r="Q152" s="2">
         <v>33.693165969316595</v>
       </c>
-      <c r="R152">
-        <v>43.276335257435747</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
@@ -9449,11 +8990,8 @@
       <c r="Q153" s="2">
         <v>33.72108533029035</v>
       </c>
-      <c r="R153">
-        <v>43.5145567209833</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>25</v>
       </c>
@@ -9505,11 +9043,8 @@
       <c r="Q154" s="2">
         <v>33.749004691264105</v>
       </c>
-      <c r="R154">
-        <v>43.745253778855414</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>25</v>
       </c>
@@ -9561,11 +9096,8 @@
       <c r="Q155" s="2">
         <v>33.776924052237852</v>
       </c>
-      <c r="R155">
-        <v>44.033270625913232</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -9617,11 +9149,8 @@
       <c r="Q156" s="2">
         <v>33.804843413211614</v>
       </c>
-      <c r="R156">
-        <v>43.954037262181316</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>25</v>
       </c>
@@ -9673,11 +9202,8 @@
       <c r="Q157" s="2">
         <v>33.832762774185369</v>
       </c>
-      <c r="R157">
-        <v>44.208165745373975</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>25</v>
       </c>
@@ -9729,11 +9255,8 @@
       <c r="Q158" s="2">
         <v>33.851274248763787</v>
       </c>
-      <c r="R158">
-        <v>44.367926804372438</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>25</v>
       </c>
@@ -9785,11 +9308,8 @@
       <c r="Q159" s="2">
         <v>33.874223405604162</v>
       </c>
-      <c r="R159">
-        <v>44.524855887642268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>25</v>
       </c>
@@ -9841,11 +9361,8 @@
       <c r="Q160" s="2">
         <v>33.897172562444524</v>
       </c>
-      <c r="R160">
-        <v>44.701310833434349</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
@@ -9897,11 +9414,8 @@
       <c r="Q161" s="2">
         <v>33.920104516239633</v>
       </c>
-      <c r="R161">
-        <v>44.678398597990345</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>27</v>
       </c>
@@ -9953,11 +9467,8 @@
       <c r="Q162" s="2">
         <v>13.456570363466916</v>
       </c>
-      <c r="R162">
-        <v>46.541815924852195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>27</v>
       </c>
@@ -10009,11 +9520,8 @@
       <c r="Q163" s="2">
         <v>13.491262814538677</v>
       </c>
-      <c r="R163">
-        <v>46.721982575109635</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>27</v>
       </c>
@@ -10065,11 +9573,8 @@
       <c r="Q164" s="2">
         <v>13.525955265610436</v>
       </c>
-      <c r="R164">
-        <v>46.921980570362678</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>27</v>
       </c>
@@ -10121,11 +9626,8 @@
       <c r="Q165" s="2">
         <v>13.560647716682201</v>
       </c>
-      <c r="R165">
-        <v>46.945354406310017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>27</v>
       </c>
@@ -10177,11 +9679,8 @@
       <c r="Q166" s="2">
         <v>13.59534016775396</v>
       </c>
-      <c r="R166">
-        <v>46.78907464482262</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>27</v>
       </c>
@@ -10233,11 +9732,8 @@
       <c r="Q167" s="2">
         <v>13.630032618825721</v>
       </c>
-      <c r="R167">
-        <v>47.017137453876757</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>27</v>
       </c>
@@ -10289,11 +9785,8 @@
       <c r="Q168" s="2">
         <v>13.664725069897484</v>
       </c>
-      <c r="R168">
-        <v>47.016346935598264</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>27</v>
       </c>
@@ -10345,11 +9838,8 @@
       <c r="Q169" s="2">
         <v>13.842684063373719</v>
       </c>
-      <c r="R169">
-        <v>47.112132962990934</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>27</v>
       </c>
@@ -10401,11 +9891,8 @@
       <c r="Q170" s="2">
         <v>14.020643056849952</v>
       </c>
-      <c r="R170">
-        <v>47.321948761416756</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>27</v>
       </c>
@@ -10457,11 +9944,8 @@
       <c r="Q171" s="2">
         <v>14.198602050326189</v>
       </c>
-      <c r="R171">
-        <v>47.509076339488075</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>27</v>
       </c>
@@ -10513,11 +9997,8 @@
       <c r="Q172" s="2">
         <v>14.376561043802424</v>
       </c>
-      <c r="R172">
-        <v>47.147013840841332</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>27</v>
       </c>
@@ -10569,11 +10050,8 @@
       <c r="Q173" s="2">
         <v>14.554520037278657</v>
       </c>
-      <c r="R173">
-        <v>46.872109382356363</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>27</v>
       </c>
@@ -10625,11 +10103,8 @@
       <c r="Q174" s="2">
         <v>14.554054054054053</v>
       </c>
-      <c r="R174">
-        <v>47.31083673425556</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>27</v>
       </c>
@@ -10681,11 +10156,8 @@
       <c r="Q175" s="2">
         <v>14.575955265610437</v>
       </c>
-      <c r="R175">
-        <v>47.276468326918383</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>27</v>
       </c>
@@ -10737,11 +10209,8 @@
       <c r="Q176" s="2">
         <v>14.598322460391424</v>
       </c>
-      <c r="R176">
-        <v>47.16399684556972</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>27</v>
       </c>
@@ -10793,11 +10262,8 @@
       <c r="Q177" s="2">
         <v>14.62022367194781</v>
       </c>
-      <c r="R177">
-        <v>47.078478681862919</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>29</v>
       </c>
@@ -10849,11 +10315,8 @@
       <c r="Q178" s="2">
         <v>6.169254580857756E-2</v>
       </c>
-      <c r="R178">
-        <v>21.427796931205428</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>29</v>
       </c>
@@ -10905,11 +10368,8 @@
       <c r="Q179" s="2">
         <v>6.2334614808527637E-2</v>
       </c>
-      <c r="R179">
-        <v>21.734348192370888</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>29</v>
       </c>
@@ -10961,11 +10421,8 @@
       <c r="Q180" s="2">
         <v>6.2976683808477707E-2</v>
       </c>
-      <c r="R180">
-        <v>22.108447590002815</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>29</v>
       </c>
@@ -11017,11 +10474,8 @@
       <c r="Q181" s="2">
         <v>6.3618752808427784E-2</v>
       </c>
-      <c r="R181">
-        <v>23.637416425402513</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>29</v>
       </c>
@@ -11073,11 +10527,8 @@
       <c r="Q182" s="2">
         <v>6.4260821808377847E-2</v>
       </c>
-      <c r="R182">
-        <v>22.380033300464749</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>29</v>
       </c>
@@ -11129,11 +10580,8 @@
       <c r="Q183" s="2">
         <v>6.4902890808327923E-2</v>
       </c>
-      <c r="R183">
-        <v>23.279824411967905</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>29</v>
       </c>
@@ -11185,11 +10633,8 @@
       <c r="Q184" s="2">
         <v>6.5544959808277986E-2</v>
       </c>
-      <c r="R184">
-        <v>22.980542430782716</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>29</v>
       </c>
@@ -11241,11 +10686,8 @@
       <c r="Q185" s="2">
         <v>6.2105946377752255E-2</v>
       </c>
-      <c r="R185">
-        <v>22.475793361309865</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>29</v>
       </c>
@@ -11297,11 +10739,8 @@
       <c r="Q186" s="2">
         <v>5.8666932947226531E-2</v>
       </c>
-      <c r="R186">
-        <v>22.758645782295421</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>29</v>
       </c>
@@ -11353,11 +10792,8 @@
       <c r="Q187" s="2">
         <v>5.522791951670078E-2</v>
       </c>
-      <c r="R187">
-        <v>23.406087230419097</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>29</v>
       </c>
@@ -11409,11 +10845,8 @@
       <c r="Q188" s="2">
         <v>5.1788906086175042E-2</v>
       </c>
-      <c r="R188">
-        <v>23.720089792470599</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>29</v>
       </c>
@@ -11465,11 +10898,8 @@
       <c r="Q189" s="2">
         <v>4.8349892655649311E-2</v>
       </c>
-      <c r="R189">
-        <v>23.401424211982842</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>29</v>
       </c>
@@ -11521,11 +10951,8 @@
       <c r="Q190" s="2">
         <v>4.4914873433521393E-2</v>
       </c>
-      <c r="R190">
-        <v>23.838082283558524</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -11577,11 +11004,8 @@
       <c r="Q191" s="2">
         <v>4.4914873433521393E-2</v>
       </c>
-      <c r="R191">
-        <v>23.500443169221725</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>29</v>
       </c>
@@ -11633,11 +11057,8 @@
       <c r="Q192" s="2">
         <v>4.4914873433521393E-2</v>
       </c>
-      <c r="R192">
-        <v>20.561235362983059</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>29</v>
       </c>
@@ -11689,11 +11110,8 @@
       <c r="Q193" s="2">
         <v>4.4914873433521393E-2</v>
       </c>
-      <c r="R193">
-        <v>20.574030468393076</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>31</v>
       </c>
@@ -11745,11 +11163,8 @@
       <c r="Q194" s="2">
         <v>66.13687416826852</v>
       </c>
-      <c r="R194">
-        <v>47.920775852595057</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>31</v>
       </c>
@@ -11801,11 +11216,8 @@
       <c r="Q195" s="2">
         <v>66.076652373207153</v>
       </c>
-      <c r="R195">
-        <v>48.112120157007794</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>31</v>
       </c>
@@ -11857,11 +11269,8 @@
       <c r="Q196" s="2">
         <v>65.959862900366389</v>
       </c>
-      <c r="R196">
-        <v>48.137446022458263</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>31</v>
       </c>
@@ -11913,11 +11322,8 @@
       <c r="Q197" s="2">
         <v>65.903587258436275</v>
       </c>
-      <c r="R197">
-        <v>48.204859092848423</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>31</v>
       </c>
@@ -11969,11 +11375,8 @@
       <c r="Q198" s="2">
         <v>65.843413509839849</v>
       </c>
-      <c r="R198">
-        <v>47.983640502995684</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>31</v>
       </c>
@@ -12025,11 +11428,8 @@
       <c r="Q199" s="2">
         <v>65.783239761243422</v>
       </c>
-      <c r="R199">
-        <v>48.45227432184172</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>31</v>
       </c>
@@ -12081,11 +11481,8 @@
       <c r="Q200" s="2">
         <v>65.723066012646996</v>
       </c>
-      <c r="R200">
-        <v>48.056565722921718</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>31</v>
       </c>
@@ -12137,11 +11534,8 @@
       <c r="Q201" s="2">
         <v>65.821759943265761</v>
       </c>
-      <c r="R201">
-        <v>47.85457573632538</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>31</v>
       </c>
@@ -12193,11 +11587,8 @@
       <c r="Q202" s="2">
         <v>65.920453873884526</v>
       </c>
-      <c r="R202">
-        <v>48.062621279541077</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>31</v>
       </c>
@@ -12249,11 +11640,8 @@
       <c r="Q203" s="2">
         <v>66.019147804503291</v>
       </c>
-      <c r="R203">
-        <v>48.144412859383557</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>31</v>
       </c>
@@ -12305,11 +11693,8 @@
       <c r="Q204" s="2">
         <v>66.117841735122028</v>
       </c>
-      <c r="R204">
-        <v>48.268334320609867</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>31</v>
       </c>
@@ -12361,11 +11746,8 @@
       <c r="Q205" s="2">
         <v>66.21144879833119</v>
       </c>
-      <c r="R205">
-        <v>48.288838674757486</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>31</v>
       </c>
@@ -12417,11 +11799,8 @@
       <c r="Q206" s="2">
         <v>66.210666272713851</v>
       </c>
-      <c r="R206">
-        <v>48.044809092734887</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>31</v>
       </c>
@@ -12473,11 +11852,8 @@
       <c r="Q207" s="2">
         <v>66.210666272713851</v>
       </c>
-      <c r="R207">
-        <v>47.964549637852208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>31</v>
       </c>
@@ -12529,11 +11905,8 @@
       <c r="Q208" s="2">
         <v>66.210666272713851</v>
       </c>
-      <c r="R208">
-        <v>48.014781351578492</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>31</v>
       </c>
@@ -12585,11 +11958,8 @@
       <c r="Q209" s="2">
         <v>66.208710039591097</v>
       </c>
-      <c r="R209">
-        <v>47.999497991967871</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>33</v>
       </c>
@@ -12641,11 +12011,8 @@
       <c r="Q210" s="2">
         <v>28.666495473394924</v>
       </c>
-      <c r="R210">
-        <v>46.276052250166714</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>33</v>
       </c>
@@ -12697,11 +12064,8 @@
       <c r="Q211" s="2">
         <v>28.872473760988697</v>
       </c>
-      <c r="R211">
-        <v>46.594717001162934</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>33</v>
       </c>
@@ -12753,11 +12117,8 @@
       <c r="Q212" s="2">
         <v>29.078452048582466</v>
       </c>
-      <c r="R212">
-        <v>46.742725052263609</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>33</v>
       </c>
@@ -12809,11 +12170,8 @@
       <c r="Q213" s="2">
         <v>29.284430336176236</v>
       </c>
-      <c r="R213">
-        <v>46.9837796509482</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>33</v>
       </c>
@@ -12865,11 +12223,8 @@
       <c r="Q214" s="2">
         <v>29.490408623770005</v>
       </c>
-      <c r="R214">
-        <v>47.07789039506973</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>33</v>
       </c>
@@ -12921,11 +12276,8 @@
       <c r="Q215" s="2">
         <v>29.696386911363774</v>
       </c>
-      <c r="R215">
-        <v>47.205040240007826</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>33</v>
       </c>
@@ -12977,11 +12329,8 @@
       <c r="Q216" s="2">
         <v>29.902365198957543</v>
       </c>
-      <c r="R216">
-        <v>47.251743775931729</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>33</v>
       </c>
@@ -13033,11 +12382,8 @@
       <c r="Q217" s="2">
         <v>30.054253697501494</v>
       </c>
-      <c r="R217">
-        <v>47.350762311909669</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>33</v>
       </c>
@@ -13089,11 +12435,8 @@
       <c r="Q218" s="2">
         <v>30.206142196045437</v>
       </c>
-      <c r="R218">
-        <v>47.375501460660878</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>33</v>
       </c>
@@ -13145,11 +12488,8 @@
       <c r="Q219" s="2">
         <v>30.358030694589385</v>
       </c>
-      <c r="R219">
-        <v>47.552707351762393</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>33</v>
       </c>
@@ -13201,11 +12541,8 @@
       <c r="Q220" s="2">
         <v>30.509919193133328</v>
       </c>
-      <c r="R220">
-        <v>47.694843502667041</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>33</v>
       </c>
@@ -13257,11 +12594,8 @@
       <c r="Q221" s="2">
         <v>30.661807691677279</v>
       </c>
-      <c r="R221">
-        <v>47.716802762492236</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>33</v>
       </c>
@@ -13313,11 +12647,8 @@
       <c r="Q222" s="2">
         <v>30.813696190221222</v>
       </c>
-      <c r="R222">
-        <v>47.836133062057598</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>33</v>
       </c>
@@ -13369,11 +12700,8 @@
       <c r="Q223" s="2">
         <v>30.965584688765169</v>
       </c>
-      <c r="R223">
-        <v>47.797698348988988</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>33</v>
       </c>
@@ -13425,11 +12753,8 @@
       <c r="Q224" s="2">
         <v>31.11747318730912</v>
       </c>
-      <c r="R224">
-        <v>47.932255036854244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>33</v>
       </c>
@@ -13481,11 +12806,8 @@
       <c r="Q225" s="2">
         <v>31.26936168585306</v>
       </c>
-      <c r="R225">
-        <v>48.085749361240701</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>35</v>
       </c>
@@ -13537,11 +12859,8 @@
       <c r="Q226" s="2">
         <v>31.861083881809272</v>
       </c>
-      <c r="R226">
-        <v>44.59215046301496</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>35</v>
       </c>
@@ -13593,11 +12912,8 @@
       <c r="Q227" s="2">
         <v>31.872917191744378</v>
       </c>
-      <c r="R227">
-        <v>44.682583349222668</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>35</v>
       </c>
@@ -13649,11 +12965,8 @@
       <c r="Q228" s="2">
         <v>31.887426491178942</v>
       </c>
-      <c r="R228">
-        <v>45.04065860280479</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>35</v>
       </c>
@@ -13705,11 +13018,8 @@
       <c r="Q229" s="2">
         <v>31.902828339400731</v>
       </c>
-      <c r="R229">
-        <v>45.199350852491371</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>35</v>
       </c>
@@ -13761,11 +13071,8 @@
       <c r="Q230" s="2">
         <v>31.917336394948336</v>
       </c>
-      <c r="R230">
-        <v>45.244945420814787</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>35</v>
       </c>
@@ -13817,11 +13124,8 @@
       <c r="Q231" s="2">
         <v>31.931843637992831</v>
       </c>
-      <c r="R231">
-        <v>45.459086323576074</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>35</v>
       </c>
@@ -13873,11 +13177,8 @@
       <c r="Q232" s="2">
         <v>31.94635006860247</v>
       </c>
-      <c r="R232">
-        <v>45.579977294083093</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>35</v>
       </c>
@@ -13929,11 +13230,8 @@
       <c r="Q233" s="2">
         <v>31.951055608444868</v>
       </c>
-      <c r="R233">
-        <v>45.849520907496832</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>35</v>
       </c>
@@ -13985,11 +13283,8 @@
       <c r="Q234" s="2">
         <v>31.95397149816614</v>
       </c>
-      <c r="R234">
-        <v>45.868763212674544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>35</v>
       </c>
@@ -14041,11 +13336,8 @@
       <c r="Q235" s="2">
         <v>31.944366709576315</v>
       </c>
-      <c r="R235">
-        <v>46.087164533928352</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>35</v>
       </c>
@@ -14097,11 +13389,8 @@
       <c r="Q236" s="2">
         <v>31.946387598634509</v>
       </c>
-      <c r="R236">
-        <v>46.171707573614974</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>35</v>
       </c>
@@ -14153,11 +13442,8 @@
       <c r="Q237" s="2">
         <v>31.949301922162221</v>
       </c>
-      <c r="R237">
-        <v>46.271655822735603</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>35</v>
       </c>
@@ -14209,11 +13495,8 @@
       <c r="Q238" s="2">
         <v>31.93411264612115</v>
       </c>
-      <c r="R238">
-        <v>46.362639921376072</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>35</v>
       </c>
@@ -14265,11 +13548,8 @@
       <c r="Q239" s="2">
         <v>31.93411264612115</v>
       </c>
-      <c r="R239">
-        <v>46.40783099558405</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>35</v>
       </c>
@@ -14321,11 +13601,8 @@
       <c r="Q240" s="2">
         <v>31.93411264612115</v>
       </c>
-      <c r="R240">
-        <v>46.31661768890222</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>35</v>
       </c>
@@ -14377,11 +13654,8 @@
       <c r="Q241" s="2">
         <v>31.93411264612115</v>
       </c>
-      <c r="R241">
-        <v>46.294361637652273</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>37</v>
       </c>
@@ -14433,11 +13707,8 @@
       <c r="Q242" s="2">
         <v>28.196870263716278</v>
       </c>
-      <c r="R242">
-        <v>40.165438675823331</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>37</v>
       </c>
@@ -14489,11 +13760,8 @@
       <c r="Q243" s="2">
         <v>28.425403910275836</v>
       </c>
-      <c r="R243">
-        <v>40.416496738471217</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>37</v>
       </c>
@@ -14545,11 +13813,8 @@
       <c r="Q244" s="2">
         <v>28.653937556835409</v>
       </c>
-      <c r="R244">
-        <v>40.705294202344291</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>37</v>
       </c>
@@ -14601,11 +13866,8 @@
       <c r="Q245" s="2">
         <v>28.882471961200363</v>
       </c>
-      <c r="R245">
-        <v>40.873378272224492</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>37</v>
       </c>
@@ -14657,11 +13919,8 @@
       <c r="Q246" s="2">
         <v>29.111005607759928</v>
       </c>
-      <c r="R246">
-        <v>41.037757297422779</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>37</v>
       </c>
@@ -14713,11 +13972,8 @@
       <c r="Q247" s="2">
         <v>29.339540012124885</v>
       </c>
-      <c r="R247">
-        <v>41.794016996956039</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>37</v>
       </c>
@@ -14769,11 +14025,8 @@
       <c r="Q248" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R248">
-        <v>42.327383143500931</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>37</v>
       </c>
@@ -14825,11 +14078,8 @@
       <c r="Q249" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R249">
-        <v>42.651223926684366</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>37</v>
       </c>
@@ -14881,11 +14131,8 @@
       <c r="Q250" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R250">
-        <v>43.121756740549152</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>37</v>
       </c>
@@ -14937,11 +14184,8 @@
       <c r="Q251" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R251">
-        <v>43.1695546552087</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>37</v>
       </c>
@@ -14993,11 +14237,8 @@
       <c r="Q252" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R252">
-        <v>43.575466325461989</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>37</v>
       </c>
@@ -15049,11 +14290,8 @@
       <c r="Q253" s="2">
         <v>29.568073658684451</v>
       </c>
-      <c r="R253">
-        <v>44.081092373233318</v>
-      </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>37</v>
       </c>
@@ -15105,11 +14343,8 @@
       <c r="Q254" s="2">
         <v>29.568050924522581</v>
       </c>
-      <c r="R254">
-        <v>44.217188951301893</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>37</v>
       </c>
@@ -15161,11 +14396,8 @@
       <c r="Q255" s="2">
         <v>29.568050924522581</v>
       </c>
-      <c r="R255">
-        <v>44.021632304840296</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>37</v>
       </c>
@@ -15217,11 +14449,8 @@
       <c r="Q256" s="2">
         <v>29.568050924522581</v>
       </c>
-      <c r="R256">
-        <v>43.730366903556131</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>37</v>
       </c>
@@ -15273,11 +14502,8 @@
       <c r="Q257" s="2">
         <v>29.568050924522581</v>
       </c>
-      <c r="R257">
-        <v>43.753302152443531</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>39</v>
       </c>
@@ -15329,11 +14555,8 @@
       <c r="Q258" s="2">
         <v>21.189487262173493</v>
       </c>
-      <c r="R258">
-        <v>45.286671208938387</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>39</v>
       </c>
@@ -15385,11 +14608,8 @@
       <c r="Q259" s="2">
         <v>21.324089003547243</v>
       </c>
-      <c r="R259">
-        <v>45.567738277720984</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>39</v>
       </c>
@@ -15441,11 +14661,8 @@
       <c r="Q260" s="2">
         <v>21.45869074492099</v>
       </c>
-      <c r="R260">
-        <v>45.502939995837174</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>39</v>
       </c>
@@ -15497,11 +14714,8 @@
       <c r="Q261" s="2">
         <v>21.593292486294743</v>
       </c>
-      <c r="R261">
-        <v>45.347235746663848</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>39</v>
       </c>
@@ -15553,11 +14767,8 @@
       <c r="Q262" s="2">
         <v>21.727894227668493</v>
       </c>
-      <c r="R262">
-        <v>45.447625451889301</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>39</v>
       </c>
@@ -15609,11 +14820,8 @@
       <c r="Q263" s="2">
         <v>21.862495969042246</v>
       </c>
-      <c r="R263">
-        <v>45.584903817183964</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>39</v>
       </c>
@@ -15665,11 +14873,8 @@
       <c r="Q264" s="2">
         <v>21.997097710415996</v>
       </c>
-      <c r="R264">
-        <v>46.150314507097775</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>39</v>
       </c>
@@ -15721,11 +14926,8 @@
       <c r="Q265" s="2">
         <v>22.028119961302803</v>
       </c>
-      <c r="R265">
-        <v>46.030023281943173</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>39</v>
       </c>
@@ -15777,11 +14979,8 @@
       <c r="Q266" s="2">
         <v>22.059142212189613</v>
       </c>
-      <c r="R266">
-        <v>46.206324257573023</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>39</v>
       </c>
@@ -15833,11 +15032,8 @@
       <c r="Q267" s="2">
         <v>22.090164463076427</v>
       </c>
-      <c r="R267">
-        <v>45.863745521919256</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>39</v>
       </c>
@@ -15889,11 +15085,8 @@
       <c r="Q268" s="2">
         <v>22.12118671396324</v>
       </c>
-      <c r="R268">
-        <v>45.861029659449223</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>39</v>
       </c>
@@ -15945,11 +15138,8 @@
       <c r="Q269" s="2">
         <v>22.15220896485005</v>
       </c>
-      <c r="R269">
-        <v>45.795501553988935</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>39</v>
       </c>
@@ -16001,11 +15191,8 @@
       <c r="Q270" s="2">
         <v>22.129743093625713</v>
       </c>
-      <c r="R270">
-        <v>45.669943323273309</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>39</v>
       </c>
@@ -16057,11 +15244,8 @@
       <c r="Q271" s="2">
         <v>22.11404923143072</v>
       </c>
-      <c r="R271">
-        <v>45.529971472709448</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>39</v>
       </c>
@@ -16113,11 +15297,8 @@
       <c r="Q272" s="2">
         <v>22.099537783510698</v>
       </c>
-      <c r="R272">
-        <v>45.453732842062024</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>39</v>
       </c>
@@ -16169,11 +15350,8 @@
       <c r="Q273" s="2">
         <v>22.083951413522517</v>
       </c>
-      <c r="R273">
-        <v>45.230596492764334</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>41</v>
       </c>
@@ -16225,11 +15403,8 @@
       <c r="Q274" s="2">
         <v>20.793305062574909</v>
       </c>
-      <c r="R274">
-        <v>26.260994627199597</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>41</v>
       </c>
@@ -16281,11 +15456,8 @@
       <c r="Q275" s="2">
         <v>20.851256061278995</v>
       </c>
-      <c r="R275">
-        <v>26.427295256577864</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>41</v>
       </c>
@@ -16337,11 +15509,8 @@
       <c r="Q276" s="2">
         <v>20.909207059983085</v>
       </c>
-      <c r="R276">
-        <v>25.742750969806472</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>41</v>
       </c>
@@ -16393,11 +15562,8 @@
       <c r="Q277" s="2">
         <v>20.967158058687176</v>
       </c>
-      <c r="R277">
-        <v>25.061000804433785</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>41</v>
       </c>
@@ -16449,11 +15615,8 @@
       <c r="Q278" s="2">
         <v>21.025109057391262</v>
       </c>
-      <c r="R278">
-        <v>24.376226704103189</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>41</v>
       </c>
@@ -16505,11 +15668,8 @@
       <c r="Q279" s="2">
         <v>21.083060056095352</v>
       </c>
-      <c r="R279">
-        <v>23.703967940832609</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>41</v>
       </c>
@@ -16561,11 +15721,8 @@
       <c r="Q280" s="2">
         <v>21.141011054799439</v>
       </c>
-      <c r="R280">
-        <v>23.032537421212485</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>41</v>
       </c>
@@ -16617,11 +15774,8 @@
       <c r="Q281" s="2">
         <v>21.222051191569875</v>
       </c>
-      <c r="R281">
-        <v>22.117977473709484</v>
-      </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>41</v>
       </c>
@@ -16673,11 +15827,8 @@
       <c r="Q282" s="2">
         <v>21.303091328340322</v>
       </c>
-      <c r="R282">
-        <v>21.226767224381955</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>41</v>
       </c>
@@ -16729,11 +15880,8 @@
       <c r="Q283" s="2">
         <v>21.384131465110759</v>
       </c>
-      <c r="R283">
-        <v>21.018796083834971</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>41</v>
       </c>
@@ -16785,11 +15933,8 @@
       <c r="Q284" s="2">
         <v>21.465171601881202</v>
       </c>
-      <c r="R284">
-        <v>20.825475824335342</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>41</v>
       </c>
@@ -16841,11 +15986,8 @@
       <c r="Q285" s="2">
         <v>21.546211738651643</v>
       </c>
-      <c r="R285">
-        <v>20.652122545795358</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>41</v>
       </c>
@@ -16897,11 +16039,8 @@
       <c r="Q286" s="2">
         <v>21.627251875422083</v>
       </c>
-      <c r="R286">
-        <v>20.490067478439638</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>41</v>
       </c>
@@ -16953,11 +16092,8 @@
       <c r="Q287" s="2">
         <v>21.708292012192526</v>
       </c>
-      <c r="R287">
-        <v>20.34339284291616</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>41</v>
       </c>
@@ -17009,11 +16145,8 @@
       <c r="Q288" s="2">
         <v>21.789332148962963</v>
       </c>
-      <c r="R288">
-        <v>20.209208135800445</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>41</v>
       </c>
@@ -17065,11 +16198,8 @@
       <c r="Q289" s="2">
         <v>21.87037228573341</v>
       </c>
-      <c r="R289">
-        <v>20.31709151032209</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>43</v>
       </c>
@@ -17121,11 +16251,8 @@
       <c r="Q290" s="2">
         <v>52.661102185846673</v>
       </c>
-      <c r="R290">
-        <v>35.937984942963624</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>43</v>
       </c>
@@ -17177,11 +16304,8 @@
       <c r="Q291" s="2">
         <v>52.576284845598742</v>
       </c>
-      <c r="R291">
-        <v>35.718989750542953</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>43</v>
       </c>
@@ -17233,11 +16357,8 @@
       <c r="Q292" s="2">
         <v>52.491467505350798</v>
       </c>
-      <c r="R292">
-        <v>35.61697445411334</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>43</v>
       </c>
@@ -17289,11 +16410,8 @@
       <c r="Q293" s="2">
         <v>52.406650165102853</v>
       </c>
-      <c r="R293">
-        <v>37.433885584831991</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>43</v>
       </c>
@@ -17345,11 +16463,8 @@
       <c r="Q294" s="2">
         <v>52.321832824854923</v>
       </c>
-      <c r="R294">
-        <v>37.80270480136511</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>43</v>
       </c>
@@ -17401,11 +16516,8 @@
       <c r="Q295" s="2">
         <v>52.237015484606971</v>
       </c>
-      <c r="R295">
-        <v>37.879946448350914</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>43</v>
       </c>
@@ -17457,11 +16569,8 @@
       <c r="Q296" s="2">
         <v>52.152198144359033</v>
       </c>
-      <c r="R296">
-        <v>38.145510685700565</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>43</v>
       </c>
@@ -17513,11 +16622,8 @@
       <c r="Q297" s="2">
         <v>51.667481278749094</v>
       </c>
-      <c r="R297">
-        <v>37.99995569173629</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>43</v>
       </c>
@@ -17569,11 +16675,8 @@
       <c r="Q298" s="2">
         <v>51.182764413139147</v>
       </c>
-      <c r="R298">
-        <v>38.105559526899427</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>43</v>
       </c>
@@ -17625,11 +16728,8 @@
       <c r="Q299" s="2">
         <v>50.698047547529214</v>
       </c>
-      <c r="R299">
-        <v>37.900009945875148</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>43</v>
       </c>
@@ -17681,11 +16781,8 @@
       <c r="Q300" s="2">
         <v>50.213304405025617</v>
       </c>
-      <c r="R300">
-        <v>37.920512324230081</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>43</v>
       </c>
@@ -17737,11 +16834,8 @@
       <c r="Q301" s="2">
         <v>49.659747698031957</v>
       </c>
-      <c r="R301">
-        <v>38.061651262390484</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>43</v>
       </c>
@@ -17793,11 +16887,8 @@
       <c r="Q302" s="2">
         <v>49.787205133832927</v>
       </c>
-      <c r="R302">
-        <v>38.344074638194535</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>43</v>
       </c>
@@ -17849,11 +16940,8 @@
       <c r="Q303" s="2">
         <v>49.013365887250757</v>
       </c>
-      <c r="R303">
-        <v>38.796021582504018</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>43</v>
       </c>
@@ -17905,11 +16993,8 @@
       <c r="Q304" s="2">
         <v>48.696390382156842</v>
       </c>
-      <c r="R304">
-        <v>39.235047401269568</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>43</v>
       </c>
@@ -17961,11 +17046,8 @@
       <c r="Q305" s="2">
         <v>48.380488696579235</v>
       </c>
-      <c r="R305">
-        <v>39.523044279495721</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>45</v>
       </c>
@@ -18017,11 +17099,8 @@
       <c r="Q306" s="2">
         <v>9.4816163915765515</v>
       </c>
-      <c r="R306">
-        <v>41.579141019758687</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>45</v>
       </c>
@@ -18073,11 +17152,8 @@
       <c r="Q307" s="2">
         <v>9.6097040409789418</v>
       </c>
-      <c r="R307">
-        <v>42.256723251459576</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>45</v>
       </c>
@@ -18129,11 +17205,8 @@
       <c r="Q308" s="2">
         <v>9.7377916903813304</v>
       </c>
-      <c r="R308">
-        <v>42.435648611029428</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>45</v>
       </c>
@@ -18185,11 +17258,8 @@
       <c r="Q309" s="2">
         <v>9.8658793397837226</v>
       </c>
-      <c r="R309">
-        <v>43.24223303077315</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>45</v>
       </c>
@@ -18241,11 +17311,8 @@
       <c r="Q310" s="2">
         <v>9.9939669891861129</v>
       </c>
-      <c r="R310">
-        <v>43.597609916301082</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>45</v>
       </c>
@@ -18297,11 +17364,8 @@
       <c r="Q311" s="2">
         <v>10.122054638588503</v>
       </c>
-      <c r="R311">
-        <v>44.325358221949763</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>45</v>
       </c>
@@ -18353,11 +17417,8 @@
       <c r="Q312" s="2">
         <v>10.250142287990894</v>
       </c>
-      <c r="R312">
-        <v>44.797195348859709</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>45</v>
       </c>
@@ -18409,11 +17470,8 @@
       <c r="Q313" s="2">
         <v>10.347723392145705</v>
       </c>
-      <c r="R313">
-        <v>45.073676473329726</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>45</v>
       </c>
@@ -18465,11 +17523,8 @@
       <c r="Q314" s="2">
         <v>10.445304496300514</v>
       </c>
-      <c r="R314">
-        <v>45.202362037424315</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>45</v>
       </c>
@@ -18521,11 +17576,8 @@
       <c r="Q315" s="2">
         <v>10.542885600455321</v>
       </c>
-      <c r="R315">
-        <v>45.422318071301348</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>45</v>
       </c>
@@ -18577,11 +17629,8 @@
       <c r="Q316" s="2">
         <v>10.640466704610132</v>
       </c>
-      <c r="R316">
-        <v>45.308204104566144</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>45</v>
       </c>
@@ -18633,11 +17682,8 @@
       <c r="Q317" s="2">
         <v>10.738047808764941</v>
       </c>
-      <c r="R317">
-        <v>45.191249745958103</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>45</v>
       </c>
@@ -18689,11 +17735,8 @@
       <c r="Q318" s="2">
         <v>10.8473249857712</v>
       </c>
-      <c r="R318">
-        <v>45.501699775645982</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>45</v>
       </c>
@@ -18745,11 +17788,8 @@
       <c r="Q319" s="2">
         <v>10.956459874786567</v>
       </c>
-      <c r="R319">
-        <v>45.672815846669359</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>45</v>
       </c>
@@ -18801,11 +17841,8 @@
       <c r="Q320" s="2">
         <v>11.013375071143995</v>
       </c>
-      <c r="R320">
-        <v>45.799654414680582</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>45</v>
       </c>
@@ -18857,11 +17894,8 @@
       <c r="Q321" s="2">
         <v>11.070290267501424</v>
       </c>
-      <c r="R321">
-        <v>45.807713392499963</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>47</v>
       </c>
@@ -18913,11 +17947,8 @@
       <c r="Q322" s="2">
         <v>28.57878829009266</v>
       </c>
-      <c r="R322">
-        <v>40.039771618510954</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>47</v>
       </c>
@@ -18969,11 +18000,8 @@
       <c r="Q323" s="2">
         <v>28.796880845104926</v>
       </c>
-      <c r="R323">
-        <v>40.088778745162138</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>47</v>
       </c>
@@ -19025,11 +18053,8 @@
       <c r="Q324" s="2">
         <v>29.014973400117189</v>
       </c>
-      <c r="R324">
-        <v>40.306286207688402</v>
-      </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>47</v>
       </c>
@@ -19081,11 +18106,8 @@
       <c r="Q325" s="2">
         <v>29.233065955129454</v>
       </c>
-      <c r="R325">
-        <v>40.371710020324912</v>
-      </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>47</v>
       </c>
@@ -19137,11 +18159,8 @@
       <c r="Q326" s="2">
         <v>29.451158510141717</v>
       </c>
-      <c r="R326">
-        <v>40.895036158715158</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>47</v>
       </c>
@@ -19193,11 +18212,8 @@
       <c r="Q327" s="2">
         <v>29.669251065153983</v>
       </c>
-      <c r="R327">
-        <v>40.988799234944302</v>
-      </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>47</v>
       </c>
@@ -19249,11 +18265,8 @@
       <c r="Q328" s="2">
         <v>29.887343620166256</v>
       </c>
-      <c r="R328">
-        <v>41.16585990381472</v>
-      </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>47</v>
       </c>
@@ -19305,11 +18318,8 @@
       <c r="Q329" s="2">
         <v>30.065475106680921</v>
       </c>
-      <c r="R329">
-        <v>41.457146484891403</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>47</v>
       </c>
@@ -19361,11 +18371,8 @@
       <c r="Q330" s="2">
         <v>30.243606593195594</v>
       </c>
-      <c r="R330">
-        <v>42.036502564763417</v>
-      </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>47</v>
       </c>
@@ -19417,11 +18424,8 @@
       <c r="Q331" s="2">
         <v>30.421738079710263</v>
       </c>
-      <c r="R331">
-        <v>42.23482901259807</v>
-      </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>47</v>
       </c>
@@ -19473,11 +18477,8 @@
       <c r="Q332" s="2">
         <v>30.599869566224935</v>
       </c>
-      <c r="R332">
-        <v>42.44087622641878</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>47</v>
       </c>
@@ -19529,11 +18530,8 @@
       <c r="Q333" s="2">
         <v>30.778001052739608</v>
       </c>
-      <c r="R333">
-        <v>42.130763185727915</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>47</v>
       </c>
@@ -19585,11 +18583,8 @@
       <c r="Q334" s="2">
         <v>30.956139160258083</v>
       </c>
-      <c r="R334">
-        <v>42.324906961865885</v>
-      </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>47</v>
       </c>
@@ -19641,11 +18636,8 @@
       <c r="Q335" s="2">
         <v>31.134277267776568</v>
       </c>
-      <c r="R335">
-        <v>42.527638508295794</v>
-      </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>47</v>
       </c>
@@ -19697,11 +18689,8 @@
       <c r="Q336" s="2">
         <v>31.31241537529505</v>
       </c>
-      <c r="R336">
-        <v>42.571354695799648</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>47</v>
       </c>
@@ -19753,11 +18742,8 @@
       <c r="Q337" s="2">
         <v>31.490657732695947</v>
       </c>
-      <c r="R337">
-        <v>42.692509969497223</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>49</v>
       </c>
@@ -19809,11 +18795,8 @@
       <c r="Q338" s="2">
         <v>65.920457251726603</v>
       </c>
-      <c r="R338">
-        <v>40.853986928860806</v>
-      </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>49</v>
       </c>
@@ -19865,11 +18848,8 @@
       <c r="Q339" s="2">
         <v>65.944272445820431</v>
       </c>
-      <c r="R339">
-        <v>40.996101608694993</v>
-      </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>49</v>
       </c>
@@ -19921,11 +18901,8 @@
       <c r="Q340" s="2">
         <v>65.966342082980518</v>
       </c>
-      <c r="R340">
-        <v>41.124592657788952</v>
-      </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>49</v>
       </c>
@@ -19977,11 +18954,8 @@
       <c r="Q341" s="2">
         <v>65.988410552218667</v>
       </c>
-      <c r="R341">
-        <v>41.118039172744204</v>
-      </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>49</v>
       </c>
@@ -20033,11 +19007,8 @@
       <c r="Q342" s="2">
         <v>66.010477853627563</v>
       </c>
-      <c r="R342">
-        <v>41.265837239503789</v>
-      </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>49</v>
       </c>
@@ -20089,11 +19060,8 @@
       <c r="Q343" s="2">
         <v>66.03306812860005</v>
       </c>
-      <c r="R343">
-        <v>41.594208590547247</v>
-      </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>49</v>
       </c>
@@ -20145,11 +19113,8 @@
       <c r="Q344" s="2">
         <v>66.056356660933986</v>
       </c>
-      <c r="R344">
-        <v>41.730863716360297</v>
-      </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>49</v>
       </c>
@@ -20201,11 +19166,8 @@
       <c r="Q345" s="2">
         <v>66.043841198026215</v>
       </c>
-      <c r="R345">
-        <v>41.764742856531107</v>
-      </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>49</v>
       </c>
@@ -20257,11 +19219,8 @@
       <c r="Q346" s="2">
         <v>66.031326066250401</v>
       </c>
-      <c r="R346">
-        <v>41.939435470245698</v>
-      </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>49</v>
       </c>
@@ -20313,11 +19272,8 @@
       <c r="Q347" s="2">
         <v>66.019335277091358</v>
       </c>
-      <c r="R347">
-        <v>42.35348001312034</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>49</v>
       </c>
@@ -20369,11 +19325,8 @@
       <c r="Q348" s="2">
         <v>66.00769389515348</v>
       </c>
-      <c r="R348">
-        <v>42.590014618886464</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>49</v>
       </c>
@@ -20425,11 +19378,8 @@
       <c r="Q349" s="2">
         <v>65.994481058070591</v>
       </c>
-      <c r="R349">
-        <v>42.801874395819048</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>49</v>
       </c>
@@ -20481,11 +19431,8 @@
       <c r="Q350" s="2">
         <v>65.984072810011369</v>
       </c>
-      <c r="R350">
-        <v>43.111362477870081</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>49</v>
       </c>
@@ -20537,11 +19484,8 @@
       <c r="Q351" s="2">
         <v>65.970844246897897</v>
       </c>
-      <c r="R351">
-        <v>43.503173237344136</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>49</v>
       </c>
@@ -20593,11 +19537,8 @@
       <c r="Q352" s="2">
         <v>65.97014609470493</v>
       </c>
-      <c r="R352">
-        <v>43.937160990695403</v>
-      </c>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>49</v>
       </c>
@@ -20649,11 +19590,8 @@
       <c r="Q353" s="2">
         <v>65.97014609470493</v>
       </c>
-      <c r="R353">
-        <v>44.255572382591041</v>
-      </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>51</v>
       </c>
@@ -20705,11 +19643,8 @@
       <c r="Q354" s="2">
         <v>64.649668741216615</v>
       </c>
-      <c r="R354">
-        <v>40.719284164514313</v>
-      </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>51</v>
       </c>
@@ -20761,11 +19696,8 @@
       <c r="Q355" s="2">
         <v>64.540893125940784</v>
       </c>
-      <c r="R355">
-        <v>40.924295646433727</v>
-      </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>51</v>
       </c>
@@ -20817,11 +19749,8 @@
       <c r="Q356" s="2">
         <v>64.43218298555378</v>
       </c>
-      <c r="R356">
-        <v>41.154127234601404</v>
-      </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>51</v>
       </c>
@@ -20873,11 +19802,8 @@
       <c r="Q357" s="2">
         <v>64.317087845968715</v>
       </c>
-      <c r="R357">
-        <v>41.112346682614195</v>
-      </c>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>51</v>
       </c>
@@ -20929,11 +19855,8 @@
       <c r="Q358" s="2">
         <v>64.15706701392368</v>
       </c>
-      <c r="R358">
-        <v>41.154692642376958</v>
-      </c>
-    </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>51</v>
       </c>
@@ -20985,11 +19908,8 @@
       <c r="Q359" s="2">
         <v>64.023023023023015</v>
       </c>
-      <c r="R359">
-        <v>40.84174002720026</v>
-      </c>
-    </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>51</v>
       </c>
@@ -21041,11 +19961,8 @@
       <c r="Q360" s="2">
         <v>63.85084474657603</v>
       </c>
-      <c r="R360">
-        <v>40.97277437595028</v>
-      </c>
-    </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>51</v>
       </c>
@@ -21097,11 +20014,8 @@
       <c r="Q361" s="2">
         <v>63.750874737578719</v>
       </c>
-      <c r="R361">
-        <v>41.011095681200793</v>
-      </c>
-    </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>51</v>
       </c>
@@ -21153,11 +20067,8 @@
       <c r="Q362" s="2">
         <v>63.574638042935597</v>
       </c>
-      <c r="R362">
-        <v>41.071856819343147</v>
-      </c>
-    </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>51</v>
       </c>
@@ -21209,11 +20120,8 @@
       <c r="Q363" s="2">
         <v>63.401352402609056</v>
       </c>
-      <c r="R363">
-        <v>41.132259869054778</v>
-      </c>
-    </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>51</v>
       </c>
@@ -21265,11 +20173,8 @@
       <c r="Q364" s="2">
         <v>63.292780215396895</v>
       </c>
-      <c r="R364">
-        <v>41.357117415531064</v>
-      </c>
-    </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>51</v>
       </c>
@@ -21321,11 +20226,8 @@
       <c r="Q365" s="2">
         <v>63.183608355351716</v>
       </c>
-      <c r="R365">
-        <v>41.84106954431234</v>
-      </c>
-    </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>51</v>
       </c>
@@ -21377,11 +20279,8 @@
       <c r="Q366" s="2">
         <v>63.036306919542753</v>
       </c>
-      <c r="R366">
-        <v>41.936143218608926</v>
-      </c>
-    </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>51</v>
       </c>
@@ -21433,11 +20332,8 @@
       <c r="Q367" s="2">
         <v>62.943403746512551</v>
       </c>
-      <c r="R367">
-        <v>42.143102274929205</v>
-      </c>
-    </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>51</v>
       </c>
@@ -21489,11 +20385,8 @@
       <c r="Q368" s="2">
         <v>62.837501245392048</v>
       </c>
-      <c r="R368">
-        <v>42.32771351955293</v>
-      </c>
-    </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>51</v>
       </c>
@@ -21545,11 +20438,8 @@
       <c r="Q369" s="2">
         <v>62.719123505976093</v>
       </c>
-      <c r="R369">
-        <v>42.612490988612294</v>
-      </c>
-    </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>53</v>
       </c>
@@ -21601,11 +20491,8 @@
       <c r="Q370" s="2">
         <v>34.517829544181886</v>
       </c>
-      <c r="R370">
-        <v>34.9595331973401</v>
-      </c>
-    </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>53</v>
       </c>
@@ -21657,11 +20544,8 @@
       <c r="Q371" s="2">
         <v>34.444623748969136</v>
       </c>
-      <c r="R371">
-        <v>35.43718880608521</v>
-      </c>
-    </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>53</v>
       </c>
@@ -21713,11 +20597,8 @@
       <c r="Q372" s="2">
         <v>34.371417953756399</v>
       </c>
-      <c r="R372">
-        <v>36.021405936991101</v>
-      </c>
-    </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>53</v>
       </c>
@@ -21769,11 +20650,8 @@
       <c r="Q373" s="2">
         <v>34.298212158543663</v>
       </c>
-      <c r="R373">
-        <v>36.309000319784992</v>
-      </c>
-    </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>53</v>
       </c>
@@ -21825,11 +20703,8 @@
       <c r="Q374" s="2">
         <v>34.225006363330927</v>
       </c>
-      <c r="R374">
-        <v>36.351631730306941</v>
-      </c>
-    </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>53</v>
       </c>
@@ -21881,11 +20756,8 @@
       <c r="Q375" s="2">
         <v>34.151800568118183</v>
       </c>
-      <c r="R375">
-        <v>36.841304658720183</v>
-      </c>
-    </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>53</v>
       </c>
@@ -21937,11 +20809,8 @@
       <c r="Q376" s="2">
         <v>34.078594772905447</v>
       </c>
-      <c r="R376">
-        <v>36.81753462205171</v>
-      </c>
-    </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>53</v>
       </c>
@@ -21993,11 +20862,8 @@
       <c r="Q377" s="2">
         <v>34.016244311182156</v>
       </c>
-      <c r="R377">
-        <v>37.077514774239226</v>
-      </c>
-    </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>53</v>
       </c>
@@ -22049,11 +20915,8 @@
       <c r="Q378" s="2">
         <v>33.953893849458865</v>
       </c>
-      <c r="R378">
-        <v>37.564677356127049</v>
-      </c>
-    </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>53</v>
       </c>
@@ -22105,11 +20968,8 @@
       <c r="Q379" s="2">
         <v>33.891543387735567</v>
       </c>
-      <c r="R379">
-        <v>37.704092951183029</v>
-      </c>
-    </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>53</v>
       </c>
@@ -22161,11 +21021,8 @@
       <c r="Q380" s="2">
         <v>33.82927903277124</v>
       </c>
-      <c r="R380">
-        <v>37.24375157822071</v>
-      </c>
-    </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>53</v>
       </c>
@@ -22217,11 +21074,8 @@
       <c r="Q381" s="2">
         <v>33.766928412344896</v>
       </c>
-      <c r="R381">
-        <v>37.479733237803558</v>
-      </c>
-    </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>53</v>
       </c>
@@ -22273,11 +21127,8 @@
       <c r="Q382" s="2">
         <v>33.701889914094814</v>
       </c>
-      <c r="R382">
-        <v>37.573261417548508</v>
-      </c>
-    </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>53</v>
       </c>
@@ -22329,11 +21180,8 @@
       <c r="Q383" s="2">
         <v>33.636846325167042</v>
       </c>
-      <c r="R383">
-        <v>37.409098579442897</v>
-      </c>
-    </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>53</v>
       </c>
@@ -22385,11 +21233,8 @@
       <c r="Q384" s="2">
         <v>33.571802736239263</v>
       </c>
-      <c r="R384">
-        <v>37.69979125012474</v>
-      </c>
-    </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>53</v>
       </c>
@@ -22441,11 +21286,8 @@
       <c r="Q385" s="2">
         <v>33.506764237989181</v>
       </c>
-      <c r="R385">
-        <v>38.488739942218267</v>
-      </c>
-    </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>55</v>
       </c>
@@ -22497,11 +21339,8 @@
       <c r="Q386" s="2">
         <v>8.7910426197929201</v>
       </c>
-      <c r="R386">
-        <v>44.346890363142968</v>
-      </c>
-    </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>55</v>
       </c>
@@ -22553,11 +21392,8 @@
       <c r="Q387" s="2">
         <v>8.82258064516129</v>
       </c>
-      <c r="R387">
-        <v>44.309476225915503</v>
-      </c>
-    </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>55</v>
       </c>
@@ -22609,11 +21445,8 @@
       <c r="Q388" s="2">
         <v>8.8562349542609518</v>
       </c>
-      <c r="R388">
-        <v>44.596557377846182</v>
-      </c>
-    </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>55</v>
       </c>
@@ -22665,11 +21498,8 @@
       <c r="Q389" s="2">
         <v>8.8898892633606152</v>
       </c>
-      <c r="R389">
-        <v>44.90971706824687</v>
-      </c>
-    </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>55</v>
       </c>
@@ -22721,11 +21551,8 @@
       <c r="Q390" s="2">
         <v>8.9235435724602787</v>
       </c>
-      <c r="R390">
-        <v>45.102767634682031</v>
-      </c>
-    </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>55</v>
       </c>
@@ -22777,11 +21604,8 @@
       <c r="Q391" s="2">
         <v>8.9571978815599422</v>
       </c>
-      <c r="R391">
-        <v>45.331572485915721</v>
-      </c>
-    </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>55</v>
       </c>
@@ -22833,11 +21657,8 @@
       <c r="Q392" s="2">
         <v>8.9908521906596057</v>
       </c>
-      <c r="R392">
-        <v>45.664194156649387</v>
-      </c>
-    </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>55</v>
       </c>
@@ -22889,11 +21710,8 @@
       <c r="Q393" s="2">
         <v>8.9492055849783334</v>
       </c>
-      <c r="R393">
-        <v>45.91000261029042</v>
-      </c>
-    </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>55</v>
       </c>
@@ -22945,11 +21763,8 @@
       <c r="Q394" s="2">
         <v>8.9075589792970629</v>
       </c>
-      <c r="R394">
-        <v>45.994387943843726</v>
-      </c>
-    </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>55</v>
       </c>
@@ -23001,11 +21816,8 @@
       <c r="Q395" s="2">
         <v>8.8659123736157923</v>
       </c>
-      <c r="R395">
-        <v>45.976220094309603</v>
-      </c>
-    </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>55</v>
       </c>
@@ -23057,11 +21869,8 @@
       <c r="Q396" s="2">
         <v>8.82426576793452</v>
       </c>
-      <c r="R396">
-        <v>45.736287046888698</v>
-      </c>
-    </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>55</v>
       </c>
@@ -23113,11 +21922,8 @@
       <c r="Q397" s="2">
         <v>8.7826191622532495</v>
       </c>
-      <c r="R397">
-        <v>45.983061373549738</v>
-      </c>
-    </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>55</v>
       </c>
@@ -23169,11 +21975,8 @@
       <c r="Q398" s="2">
         <v>8.8050072219547424</v>
       </c>
-      <c r="R398">
-        <v>46.073030560447023</v>
-      </c>
-    </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>55</v>
       </c>
@@ -23225,11 +22028,8 @@
       <c r="Q399" s="2">
         <v>8.8276360134809817</v>
       </c>
-      <c r="R399">
-        <v>46.183860135604874</v>
-      </c>
-    </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>55</v>
       </c>
@@ -23281,11 +22081,8 @@
       <c r="Q400" s="2">
         <v>8.8500240731824746</v>
       </c>
-      <c r="R400">
-        <v>46.19242828647787</v>
-      </c>
-    </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>55</v>
       </c>
@@ -23337,11 +22134,8 @@
       <c r="Q401" s="2">
         <v>8.8726528647087139</v>
       </c>
-      <c r="R401">
-        <v>46.361621896792968</v>
-      </c>
-    </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>57</v>
       </c>
@@ -23393,11 +22187,8 @@
       <c r="Q402" s="2">
         <v>23.738146666666669</v>
       </c>
-      <c r="R402">
-        <v>38.059886982622018</v>
-      </c>
-    </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>57</v>
       </c>
@@ -23449,11 +22240,8 @@
       <c r="Q403" s="2">
         <v>23.581633333333333</v>
       </c>
-      <c r="R403">
-        <v>38.63145537839857</v>
-      </c>
-    </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>57</v>
       </c>
@@ -23505,11 +22293,8 @@
       <c r="Q404" s="2">
         <v>23.42512</v>
       </c>
-      <c r="R404">
-        <v>38.878491688040455</v>
-      </c>
-    </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>57</v>
       </c>
@@ -23561,11 +22346,8 @@
       <c r="Q405" s="2">
         <v>23.26860666666667</v>
       </c>
-      <c r="R405">
-        <v>38.929299907325571</v>
-      </c>
-    </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>57</v>
       </c>
@@ -23617,11 +22399,8 @@
       <c r="Q406" s="2">
         <v>23.112093333333334</v>
       </c>
-      <c r="R406">
-        <v>38.496407444119633</v>
-      </c>
-    </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>57</v>
       </c>
@@ -23673,11 +22452,8 @@
       <c r="Q407" s="2">
         <v>22.955580000000001</v>
       </c>
-      <c r="R407">
-        <v>38.849907066287393</v>
-      </c>
-    </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>57</v>
       </c>
@@ -23729,11 +22505,8 @@
       <c r="Q408" s="2">
         <v>22.799066666666668</v>
       </c>
-      <c r="R408">
-        <v>39.034386277894022</v>
-      </c>
-    </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>57</v>
       </c>
@@ -23785,11 +22558,8 @@
       <c r="Q409" s="2">
         <v>22.915353333333332</v>
       </c>
-      <c r="R409">
-        <v>39.203768479096013</v>
-      </c>
-    </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>57</v>
       </c>
@@ -23841,11 +22611,8 @@
       <c r="Q410" s="2">
         <v>23.031639999999999</v>
       </c>
-      <c r="R410">
-        <v>39.171760231313229</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>57</v>
       </c>
@@ -23897,11 +22664,8 @@
       <c r="Q411" s="2">
         <v>23.147926666666667</v>
       </c>
-      <c r="R411">
-        <v>39.31955444829385</v>
-      </c>
-    </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>57</v>
       </c>
@@ -23953,11 +22717,8 @@
       <c r="Q412" s="2">
         <v>23.264213333333334</v>
       </c>
-      <c r="R412">
-        <v>39.545253828246722</v>
-      </c>
-    </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>57</v>
       </c>
@@ -24009,11 +22770,8 @@
       <c r="Q413" s="2">
         <v>23.380499999999998</v>
       </c>
-      <c r="R413">
-        <v>39.731590996650141</v>
-      </c>
-    </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>57</v>
       </c>
@@ -24065,11 +22823,8 @@
       <c r="Q414" s="2">
         <v>23.4968</v>
       </c>
-      <c r="R414">
-        <v>39.326867809205325</v>
-      </c>
-    </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>57</v>
       </c>
@@ -24121,11 +22876,8 @@
       <c r="Q415" s="2">
         <v>23.613099999999999</v>
       </c>
-      <c r="R415">
-        <v>38.218814164785101</v>
-      </c>
-    </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>57</v>
       </c>
@@ -24177,11 +22929,8 @@
       <c r="Q416" s="2">
         <v>23.729366666666667</v>
       </c>
-      <c r="R416">
-        <v>38.757233703854013</v>
-      </c>
-    </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>57</v>
       </c>
@@ -24233,11 +22982,8 @@
       <c r="Q417" s="2">
         <v>23.845666666666666</v>
       </c>
-      <c r="R417">
-        <v>39.357104110520382</v>
-      </c>
-    </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="418" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>59</v>
       </c>
@@ -24289,11 +23035,8 @@
       <c r="Q418" s="2">
         <v>29.316575522082573</v>
       </c>
-      <c r="R418">
-        <v>45.388099949278732</v>
-      </c>
-    </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>59</v>
       </c>
@@ -24345,11 +23088,8 @@
       <c r="Q419" s="2">
         <v>29.402923022802135</v>
       </c>
-      <c r="R419">
-        <v>45.254740057341564</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>59</v>
       </c>
@@ -24401,11 +23141,8 @@
       <c r="Q420" s="2">
         <v>29.490213636945118</v>
       </c>
-      <c r="R420">
-        <v>44.949517220616627</v>
-      </c>
-    </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>59</v>
       </c>
@@ -24457,11 +23194,8 @@
       <c r="Q421" s="2">
         <v>29.576563899194063</v>
       </c>
-      <c r="R421">
-        <v>44.849734660900197</v>
-      </c>
-    </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>59</v>
       </c>
@@ -24513,11 +23247,8 @@
       <c r="Q422" s="2">
         <v>29.662914161443009</v>
       </c>
-      <c r="R422">
-        <v>44.741516169804541</v>
-      </c>
-    </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>59</v>
       </c>
@@ -24569,11 +23300,8 @@
       <c r="Q423" s="2">
         <v>29.749264423691951</v>
       </c>
-      <c r="R423">
-        <v>44.794392491393118</v>
-      </c>
-    </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>59</v>
       </c>
@@ -24625,11 +23353,8 @@
       <c r="Q424" s="2">
         <v>29.835614685940897</v>
       </c>
-      <c r="R424">
-        <v>45.044115536932345</v>
-      </c>
-    </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>59</v>
       </c>
@@ -24681,11 +23406,8 @@
       <c r="Q425" s="2">
         <v>29.893821159012411</v>
       </c>
-      <c r="R425">
-        <v>44.966352236415723</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>59</v>
       </c>
@@ -24737,11 +23459,8 @@
       <c r="Q426" s="2">
         <v>29.952027632083915</v>
       </c>
-      <c r="R426">
-        <v>45.010639053679697</v>
-      </c>
-    </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>59</v>
       </c>
@@ -24793,11 +23512,8 @@
       <c r="Q427" s="2">
         <v>30.01023410515543</v>
       </c>
-      <c r="R427">
-        <v>44.883540659946483</v>
-      </c>
-    </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>59</v>
       </c>
@@ -24849,11 +23565,8 @@
       <c r="Q428" s="2">
         <v>30.068440578226941</v>
       </c>
-      <c r="R428">
-        <v>44.881972492605435</v>
-      </c>
-    </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>59</v>
       </c>
@@ -24905,11 +23618,8 @@
       <c r="Q429" s="2">
         <v>30.126647051298448</v>
       </c>
-      <c r="R429">
-        <v>44.805773169173222</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>59</v>
       </c>
@@ -24961,11 +23671,8 @@
       <c r="Q430" s="2">
         <v>30.174619419214533</v>
       </c>
-      <c r="R430">
-        <v>44.642559237012804</v>
-      </c>
-    </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>59</v>
       </c>
@@ -25017,11 +23724,8 @@
       <c r="Q431" s="2">
         <v>30.212997313547397</v>
       </c>
-      <c r="R431">
-        <v>44.54107517498062</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>59</v>
       </c>
@@ -25073,11 +23777,8 @@
       <c r="Q432" s="2">
         <v>30.250407752086733</v>
       </c>
-      <c r="R432">
-        <v>44.636091680371074</v>
-      </c>
-    </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>59</v>
       </c>
@@ -25129,11 +23830,8 @@
       <c r="Q433" s="2">
         <v>30.288784419073206</v>
       </c>
-      <c r="R433">
-        <v>44.458023136314992</v>
-      </c>
-    </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>61</v>
       </c>
@@ -25185,11 +23883,8 @@
       <c r="Q434" s="2">
         <v>35.490664350846721</v>
       </c>
-      <c r="R434">
-        <v>45.983262539247335</v>
-      </c>
-    </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="435" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>61</v>
       </c>
@@ -25241,11 +23936,8 @@
       <c r="Q435" s="2">
         <v>35.470735150396351</v>
       </c>
-      <c r="R435">
-        <v>46.556164472133261</v>
-      </c>
-    </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>61</v>
       </c>
@@ -25297,11 +23989,8 @@
       <c r="Q436" s="2">
         <v>35.439244217613201</v>
       </c>
-      <c r="R436">
-        <v>46.709678072407449</v>
-      </c>
-    </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>61</v>
       </c>
@@ -25353,11 +24042,8 @@
       <c r="Q437" s="2">
         <v>35.407753284830058</v>
       </c>
-      <c r="R437">
-        <v>47.090758942784333</v>
-      </c>
-    </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>61</v>
       </c>
@@ -25409,11 +24095,8 @@
       <c r="Q438" s="2">
         <v>35.376262352046908</v>
       </c>
-      <c r="R438">
-        <v>47.247910902673546</v>
-      </c>
-    </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="439" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>61</v>
       </c>
@@ -25465,11 +24148,8 @@
       <c r="Q439" s="2">
         <v>35.298774536384343</v>
       </c>
-      <c r="R439">
-        <v>47.766802377241405</v>
-      </c>
-    </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>61</v>
       </c>
@@ -25521,11 +24201,8 @@
       <c r="Q440" s="2">
         <v>35.267324585185989</v>
       </c>
-      <c r="R440">
-        <v>48.186965210797098</v>
-      </c>
-    </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>61</v>
       </c>
@@ -25577,11 +24254,8 @@
       <c r="Q441" s="2">
         <v>35.39746231428262</v>
       </c>
-      <c r="R441">
-        <v>47.776056661924343</v>
-      </c>
-    </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="442" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>61</v>
       </c>
@@ -25633,11 +24307,8 @@
       <c r="Q442" s="2">
         <v>35.527600043379245</v>
       </c>
-      <c r="R442">
-        <v>48.210479939603907</v>
-      </c>
-    </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>61</v>
       </c>
@@ -25689,11 +24360,8 @@
       <c r="Q443" s="2">
         <v>35.651860879672796</v>
       </c>
-      <c r="R443">
-        <v>48.517438084680279</v>
-      </c>
-    </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>61</v>
       </c>
@@ -25745,11 +24413,8 @@
       <c r="Q444" s="2">
         <v>35.781821967002656</v>
       </c>
-      <c r="R444">
-        <v>48.666028484644613</v>
-      </c>
-    </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>61</v>
       </c>
@@ -25801,11 +24466,8 @@
       <c r="Q445" s="2">
         <v>35.9119376832463</v>
       </c>
-      <c r="R445">
-        <v>48.851486704865458</v>
-      </c>
-    </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>61</v>
       </c>
@@ -25857,11 +24519,8 @@
       <c r="Q446" s="2">
         <v>35.9119376832463</v>
       </c>
-      <c r="R446">
-        <v>48.778101719616167</v>
-      </c>
-    </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>61</v>
       </c>
@@ -25913,11 +24572,8 @@
       <c r="Q447" s="2">
         <v>35.9119376832463</v>
       </c>
-      <c r="R447">
-        <v>48.89332581101646</v>
-      </c>
-    </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>61</v>
       </c>
@@ -25969,11 +24625,8 @@
       <c r="Q448" s="2">
         <v>35.9119376832463</v>
       </c>
-      <c r="R448">
-        <v>49.122975535193738</v>
-      </c>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>61</v>
       </c>
@@ -26025,11 +24678,8 @@
       <c r="Q449" s="2">
         <v>35.910224438902745</v>
       </c>
-      <c r="R449">
-        <v>49.219501154624368</v>
-      </c>
-    </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>63</v>
       </c>
@@ -26081,11 +24731,8 @@
       <c r="Q450" s="2">
         <v>26.954150761357443</v>
       </c>
-      <c r="R450">
-        <v>45.133093390092711</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>63</v>
       </c>
@@ -26137,11 +24784,8 @@
       <c r="Q451" s="2">
         <v>27.016653383111706</v>
       </c>
-      <c r="R451">
-        <v>44.808009732899222</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>63</v>
       </c>
@@ -26193,11 +24837,8 @@
       <c r="Q452" s="2">
         <v>27.079156004865972</v>
       </c>
-      <c r="R452">
-        <v>44.921216931054175</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>63</v>
       </c>
@@ -26249,11 +24890,8 @@
       <c r="Q453" s="2">
         <v>27.141658626620245</v>
       </c>
-      <c r="R453">
-        <v>44.765845387000589</v>
-      </c>
-    </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>63</v>
       </c>
@@ -26305,11 +24943,8 @@
       <c r="Q454" s="2">
         <v>27.204161248374515</v>
       </c>
-      <c r="R454">
-        <v>44.401791782666706</v>
-      </c>
-    </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>63</v>
       </c>
@@ -26361,11 +24996,8 @@
       <c r="Q455" s="2">
         <v>27.266663870128781</v>
       </c>
-      <c r="R455">
-        <v>44.320661559104991</v>
-      </c>
-    </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>63</v>
       </c>
@@ -26417,11 +25049,8 @@
       <c r="Q456" s="2">
         <v>27.329166491883051</v>
       </c>
-      <c r="R456">
-        <v>43.800379193843241</v>
-      </c>
-    </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>63</v>
       </c>
@@ -26473,11 +25102,8 @@
       <c r="Q457" s="2">
         <v>27.652972020638451</v>
       </c>
-      <c r="R457">
-        <v>44.276336551251745</v>
-      </c>
-    </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>63</v>
       </c>
@@ -26529,11 +25155,8 @@
       <c r="Q458" s="2">
         <v>27.976777549393852</v>
       </c>
-      <c r="R458">
-        <v>43.993121873350951</v>
-      </c>
-    </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>63</v>
       </c>
@@ -26585,11 +25208,8 @@
       <c r="Q459" s="2">
         <v>28.299395973154361</v>
       </c>
-      <c r="R459">
-        <v>43.812416074024384</v>
-      </c>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="460" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>63</v>
       </c>
@@ -26641,11 +25261,8 @@
       <c r="Q460" s="2">
         <v>28.623187919463088</v>
       </c>
-      <c r="R460">
-        <v>43.670847870704037</v>
-      </c>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>63</v>
       </c>
@@ -26697,11 +25314,8 @@
       <c r="Q461" s="2">
         <v>28.946979865771809</v>
       </c>
-      <c r="R461">
-        <v>43.000675634606097</v>
-      </c>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>63</v>
       </c>
@@ -26753,11 +25367,8 @@
       <c r="Q462" s="2">
         <v>29.064807046979869</v>
       </c>
-      <c r="R462">
-        <v>42.886346021381264</v>
-      </c>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>63</v>
       </c>
@@ -26809,11 +25420,8 @@
       <c r="Q463" s="2">
         <v>29.064807046979869</v>
       </c>
-      <c r="R463">
-        <v>43.275007939690624</v>
-      </c>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>63</v>
       </c>
@@ -26865,11 +25473,8 @@
       <c r="Q464" s="2">
         <v>29.064807046979869</v>
       </c>
-      <c r="R464">
-        <v>43.087079244501219</v>
-      </c>
-    </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="465" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>63</v>
       </c>
@@ -26921,11 +25526,8 @@
       <c r="Q465" s="2">
         <v>29.064807046979869</v>
       </c>
-      <c r="R465">
-        <v>42.903439683047054</v>
-      </c>
-    </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="466" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>65</v>
       </c>
@@ -26977,11 +25579,8 @@
       <c r="Q466" s="2">
         <v>47.467770951864054</v>
       </c>
-      <c r="R466">
-        <v>49.04176096513936</v>
-      </c>
-    </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="467" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>65</v>
       </c>
@@ -27033,11 +25632,8 @@
       <c r="Q467" s="2">
         <v>47.502085009919156</v>
       </c>
-      <c r="R467">
-        <v>49.186390189361354</v>
-      </c>
-    </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="468" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>65</v>
       </c>
@@ -27089,11 +25685,8 @@
       <c r="Q468" s="2">
         <v>47.536399067974251</v>
       </c>
-      <c r="R468">
-        <v>49.336301507304363</v>
-      </c>
-    </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>65</v>
       </c>
@@ -27145,11 +25738,8 @@
       <c r="Q469" s="2">
         <v>47.570713126029347</v>
       </c>
-      <c r="R469">
-        <v>49.230589152550046</v>
-      </c>
-    </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="470" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>65</v>
       </c>
@@ -27201,11 +25791,8 @@
       <c r="Q470" s="2">
         <v>47.605027184084449</v>
       </c>
-      <c r="R470">
-        <v>48.849623389431954</v>
-      </c>
-    </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>65</v>
       </c>
@@ -27257,11 +25844,8 @@
       <c r="Q471" s="2">
         <v>47.639341242139544</v>
       </c>
-      <c r="R471">
-        <v>48.976008349177526</v>
-      </c>
-    </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>65</v>
       </c>
@@ -27313,11 +25897,8 @@
       <c r="Q472" s="2">
         <v>47.673627418010611</v>
       </c>
-      <c r="R472">
-        <v>48.750961837665677</v>
-      </c>
-    </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="473" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>65</v>
       </c>
@@ -27369,11 +25950,8 @@
       <c r="Q473" s="2">
         <v>47.671227874197655</v>
       </c>
-      <c r="R473">
-        <v>48.804890613588064</v>
-      </c>
-    </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="474" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>65</v>
       </c>
@@ -27425,11 +26003,8 @@
       <c r="Q474" s="2">
         <v>47.668828330384692</v>
       </c>
-      <c r="R474">
-        <v>48.789794074825501</v>
-      </c>
-    </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="475" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>65</v>
       </c>
@@ -27481,11 +26056,8 @@
       <c r="Q475" s="2">
         <v>47.666428786571721</v>
       </c>
-      <c r="R475">
-        <v>48.628562033563639</v>
-      </c>
-    </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>65</v>
       </c>
@@ -27537,11 +26109,8 @@
       <c r="Q476" s="2">
         <v>47.664029242758765</v>
       </c>
-      <c r="R476">
-        <v>48.565115900508616</v>
-      </c>
-    </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>65</v>
       </c>
@@ -27593,11 +26162,8 @@
       <c r="Q477" s="2">
         <v>47.661629698945795</v>
       </c>
-      <c r="R477">
-        <v>48.439890898718943</v>
-      </c>
-    </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="478" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>65</v>
       </c>
@@ -27649,11 +26215,8 @@
       <c r="Q478" s="2">
         <v>47.672775284020297</v>
       </c>
-      <c r="R478">
-        <v>48.463726848713435</v>
-      </c>
-    </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="479" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>65</v>
       </c>
@@ -27705,11 +26268,8 @@
       <c r="Q479" s="2">
         <v>47.683920869094784</v>
       </c>
-      <c r="R479">
-        <v>48.457527486858716</v>
-      </c>
-    </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="480" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>65</v>
       </c>
@@ -27761,11 +26321,8 @@
       <c r="Q480" s="2">
         <v>47.683920869094784</v>
       </c>
-      <c r="R480">
-        <v>48.578388992159496</v>
-      </c>
-    </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>65</v>
       </c>
@@ -27817,11 +26374,8 @@
       <c r="Q481" s="2">
         <v>47.683920869094784</v>
       </c>
-      <c r="R481">
-        <v>48.602873600939638</v>
-      </c>
-    </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="482" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>67</v>
       </c>
@@ -27873,11 +26427,8 @@
       <c r="Q482" s="2">
         <v>61.10508140108535</v>
       </c>
-      <c r="R482">
-        <v>46.11760817789353</v>
-      </c>
-    </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="483" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>67</v>
       </c>
@@ -27929,11 +26480,8 @@
       <c r="Q483" s="2">
         <v>61.174148988653187</v>
       </c>
-      <c r="R483">
-        <v>45.931499159980532</v>
-      </c>
-    </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="484" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>67</v>
       </c>
@@ -27985,11 +26533,8 @@
       <c r="Q484" s="2">
         <v>61.243216576221016</v>
       </c>
-      <c r="R484">
-        <v>46.119424374864124</v>
-      </c>
-    </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>67</v>
       </c>
@@ -28041,11 +26586,8 @@
       <c r="Q485" s="2">
         <v>61.312284163788846</v>
       </c>
-      <c r="R485">
-        <v>45.807203251344788</v>
-      </c>
-    </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="486" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>67</v>
       </c>
@@ -28097,11 +26639,8 @@
       <c r="Q486" s="2">
         <v>61.381351751356682</v>
       </c>
-      <c r="R486">
-        <v>45.988654116525446</v>
-      </c>
-    </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>67</v>
       </c>
@@ -28153,11 +26692,8 @@
       <c r="Q487" s="2">
         <v>61.450419338924512</v>
       </c>
-      <c r="R487">
-        <v>45.797518087298165</v>
-      </c>
-    </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="488" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>67</v>
       </c>
@@ -28209,11 +26745,8 @@
       <c r="Q488" s="2">
         <v>61.519486926492348</v>
       </c>
-      <c r="R488">
-        <v>45.539018677039074</v>
-      </c>
-    </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="489" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>67</v>
       </c>
@@ -28265,11 +26798,8 @@
       <c r="Q489" s="2">
         <v>61.52935372471633</v>
       </c>
-      <c r="R489">
-        <v>45.678623728906345</v>
-      </c>
-    </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="490" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>67</v>
       </c>
@@ -28321,11 +26851,8 @@
       <c r="Q490" s="2">
         <v>61.539220522940305</v>
       </c>
-      <c r="R490">
-        <v>45.878035119439502</v>
-      </c>
-    </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="491" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>67</v>
       </c>
@@ -28377,11 +26904,8 @@
       <c r="Q491" s="2">
         <v>60.343409915356702</v>
       </c>
-      <c r="R491">
-        <v>45.62477170189451</v>
-      </c>
-    </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="492" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>67</v>
       </c>
@@ -28433,11 +26957,8 @@
       <c r="Q492" s="2">
         <v>60.353083434099155</v>
       </c>
-      <c r="R492">
-        <v>45.890527429084237</v>
-      </c>
-    </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>67</v>
       </c>
@@ -28489,11 +27010,8 @@
       <c r="Q493" s="2">
         <v>60.3627569528416</v>
       </c>
-      <c r="R493">
-        <v>45.867371265884643</v>
-      </c>
-    </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>67</v>
       </c>
@@ -28545,11 +27063,8 @@
       <c r="Q494" s="2">
         <v>60.264570737605808</v>
       </c>
-      <c r="R494">
-        <v>46.430807231437868</v>
-      </c>
-    </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="495" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>67</v>
       </c>
@@ -28601,11 +27116,8 @@
       <c r="Q495" s="2">
         <v>60.73876953125</v>
       </c>
-      <c r="R495">
-        <v>46.440781072954948</v>
-      </c>
-    </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="496" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>67</v>
       </c>
@@ -28657,11 +27169,8 @@
       <c r="Q496" s="2">
         <v>60.639648437500007</v>
       </c>
-      <c r="R496">
-        <v>46.202698795180723</v>
-      </c>
-    </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>67</v>
       </c>
@@ -28713,11 +27222,8 @@
       <c r="Q497" s="2">
         <v>60.540039062499993</v>
       </c>
-      <c r="R497">
-        <v>46.436543700765576</v>
-      </c>
-    </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="498" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>69</v>
       </c>
@@ -28769,11 +27275,8 @@
       <c r="Q498" s="2">
         <v>14.463649115323726</v>
       </c>
-      <c r="R498">
-        <v>43.163362314716409</v>
-      </c>
-    </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>69</v>
       </c>
@@ -28825,11 +27328,8 @@
       <c r="Q499" s="2">
         <v>14.43379077836747</v>
       </c>
-      <c r="R499">
-        <v>43.480993904816934</v>
-      </c>
-    </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>69</v>
       </c>
@@ -28881,11 +27381,8 @@
       <c r="Q500" s="2">
         <v>14.403932441411216</v>
       </c>
-      <c r="R500">
-        <v>43.725209398695945</v>
-      </c>
-    </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>69</v>
       </c>
@@ -28937,11 +27434,8 @@
       <c r="Q501" s="2">
         <v>14.374074104454962</v>
       </c>
-      <c r="R501">
-        <v>43.90417237828035</v>
-      </c>
-    </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="502" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>69</v>
       </c>
@@ -28993,11 +27487,8 @@
       <c r="Q502" s="2">
         <v>14.344215767498708</v>
       </c>
-      <c r="R502">
-        <v>44.012610235076039</v>
-      </c>
-    </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="503" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>69</v>
       </c>
@@ -29049,11 +27540,8 @@
       <c r="Q503" s="2">
         <v>14.314357430542454</v>
       </c>
-      <c r="R503">
-        <v>43.910348081416387</v>
-      </c>
-    </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>69</v>
       </c>
@@ -29105,11 +27593,8 @@
       <c r="Q504" s="2">
         <v>14.2844990935862</v>
       </c>
-      <c r="R504">
-        <v>43.746454324290752</v>
-      </c>
-    </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="505" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>69</v>
       </c>
@@ -29161,11 +27646,8 @@
       <c r="Q505" s="2">
         <v>14.254640756629943</v>
       </c>
-      <c r="R505">
-        <v>44.246608045302985</v>
-      </c>
-    </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="506" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>69</v>
       </c>
@@ -29217,11 +27699,8 @@
       <c r="Q506" s="2">
         <v>14.224782419673693</v>
       </c>
-      <c r="R506">
-        <v>44.180140857936685</v>
-      </c>
-    </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="507" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>69</v>
       </c>
@@ -29273,11 +27752,8 @@
       <c r="Q507" s="2">
         <v>14.194924082717437</v>
       </c>
-      <c r="R507">
-        <v>44.635606329154712</v>
-      </c>
-    </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="508" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>69</v>
       </c>
@@ -29329,11 +27805,8 @@
       <c r="Q508" s="2">
         <v>14.165065745761185</v>
       </c>
-      <c r="R508">
-        <v>44.682614151774601</v>
-      </c>
-    </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="509" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>69</v>
       </c>
@@ -29385,11 +27858,8 @@
       <c r="Q509" s="2">
         <v>14.135207408804929</v>
       </c>
-      <c r="R509">
-        <v>44.842045634206976</v>
-      </c>
-    </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="510" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>69</v>
       </c>
@@ -29441,11 +27911,8 @@
       <c r="Q510" s="2">
         <v>14.105349071848671</v>
       </c>
-      <c r="R510">
-        <v>44.820170626350183</v>
-      </c>
-    </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>69</v>
       </c>
@@ -29497,11 +27964,8 @@
       <c r="Q511" s="2">
         <v>14.075490734892421</v>
       </c>
-      <c r="R511">
-        <v>45.155216794076807</v>
-      </c>
-    </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="512" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>69</v>
       </c>
@@ -29553,11 +28017,8 @@
       <c r="Q512" s="2">
         <v>14.045632397936163</v>
       </c>
-      <c r="R512">
-        <v>45.281075466389261</v>
-      </c>
-    </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="513" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>69</v>
       </c>
@@ -29609,11 +28070,8 @@
       <c r="Q513" s="2">
         <v>14.015774060979913</v>
       </c>
-      <c r="R513">
-        <v>45.308557717576157</v>
-      </c>
-    </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="514" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>71</v>
       </c>
@@ -29665,11 +28123,8 @@
       <c r="Q514" s="2">
         <v>34.973373963630607</v>
       </c>
-      <c r="R514">
-        <v>41.007479773187278</v>
-      </c>
-    </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="515" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>71</v>
       </c>
@@ -29721,11 +28176,8 @@
       <c r="Q515" s="2">
         <v>35.260571462492827</v>
       </c>
-      <c r="R515">
-        <v>41.395400516795867</v>
-      </c>
-    </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="516" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>71</v>
       </c>
@@ -29777,11 +28229,8 @@
       <c r="Q516" s="2">
         <v>35.547768961355047</v>
       </c>
-      <c r="R516">
-        <v>42.005699373501713</v>
-      </c>
-    </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="517" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>71</v>
       </c>
@@ -29833,11 +28282,8 @@
       <c r="Q517" s="2">
         <v>35.834966460217274</v>
       </c>
-      <c r="R517">
-        <v>42.446273630995954</v>
-      </c>
-    </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="518" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>71</v>
       </c>
@@ -29889,11 +28335,8 @@
       <c r="Q518" s="2">
         <v>36.122163959079487</v>
       </c>
-      <c r="R518">
-        <v>43.077107916027025</v>
-      </c>
-    </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="519" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>71</v>
       </c>
@@ -29945,11 +28388,8 @@
       <c r="Q519" s="2">
         <v>36.409361457941706</v>
       </c>
-      <c r="R519">
-        <v>43.902068605491237</v>
-      </c>
-    </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="520" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>71</v>
       </c>
@@ -30001,11 +28441,8 @@
       <c r="Q520" s="2">
         <v>36.679865506329115</v>
       </c>
-      <c r="R520">
-        <v>44.436044353950841</v>
-      </c>
-    </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="521" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>71</v>
       </c>
@@ -30057,11 +28494,8 @@
       <c r="Q521" s="2">
         <v>36.682175632911395</v>
       </c>
-      <c r="R521">
-        <v>45.008078886346929</v>
-      </c>
-    </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="522" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>71</v>
       </c>
@@ -30113,11 +28547,8 @@
       <c r="Q522" s="2">
         <v>36.659833181800209</v>
       </c>
-      <c r="R522">
-        <v>45.533931740045283</v>
-      </c>
-    </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="523" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>71</v>
       </c>
@@ -30169,11 +28600,8 @@
       <c r="Q523" s="2">
         <v>36.662141755939444</v>
       </c>
-      <c r="R523">
-        <v>45.866223123900177</v>
-      </c>
-    </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="524" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>71</v>
       </c>
@@ -30225,11 +28653,8 @@
       <c r="Q524" s="2">
         <v>36.664450330078665</v>
       </c>
-      <c r="R524">
-        <v>46.034469981054961</v>
-      </c>
-    </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="525" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>71</v>
       </c>
@@ -30281,11 +28706,8 @@
       <c r="Q525" s="2">
         <v>36.667918501593121</v>
       </c>
-      <c r="R525">
-        <v>46.161517433321194</v>
-      </c>
-    </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="526" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>71</v>
       </c>
@@ -30337,11 +28759,8 @@
       <c r="Q526" s="2">
         <v>36.675146016780815</v>
       </c>
-      <c r="R526">
-        <v>46.343516810446282</v>
-      </c>
-    </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="527" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>71</v>
       </c>
@@ -30393,11 +28812,8 @@
       <c r="Q527" s="2">
         <v>36.68315408673952</v>
       </c>
-      <c r="R527">
-        <v>46.283932409992055</v>
-      </c>
-    </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="528" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>71</v>
       </c>
@@ -30449,11 +28865,8 @@
       <c r="Q528" s="2">
         <v>36.690033731285958</v>
       </c>
-      <c r="R528">
-        <v>46.209120709953886</v>
-      </c>
-    </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="529" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>71</v>
       </c>
@@ -30505,11 +28918,8 @@
       <c r="Q529" s="2">
         <v>36.698838600745667</v>
       </c>
-      <c r="R529">
-        <v>46.373609455579363</v>
-      </c>
-    </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="530" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>73</v>
       </c>
@@ -30561,11 +28971,8 @@
       <c r="Q530" s="2">
         <v>62.864854241799726</v>
       </c>
-      <c r="R530">
-        <v>47.606591619605226</v>
-      </c>
-    </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="531" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>73</v>
       </c>
@@ -30617,11 +29024,8 @@
       <c r="Q531" s="2">
         <v>62.844738918865318</v>
       </c>
-      <c r="R531">
-        <v>47.500742718954939</v>
-      </c>
-    </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="532" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>73</v>
       </c>
@@ -30673,11 +29077,8 @@
       <c r="Q532" s="2">
         <v>62.824623595930909</v>
       </c>
-      <c r="R532">
-        <v>47.459668744155614</v>
-      </c>
-    </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="533" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>73</v>
       </c>
@@ -30729,11 +29130,8 @@
       <c r="Q533" s="2">
         <v>62.804508272996493</v>
       </c>
-      <c r="R533">
-        <v>47.520572080008286</v>
-      </c>
-    </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="534" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>73</v>
       </c>
@@ -30785,11 +29183,8 @@
       <c r="Q534" s="2">
         <v>62.784392950062085</v>
       </c>
-      <c r="R534">
-        <v>47.433677414844475</v>
-      </c>
-    </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="535" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>73</v>
       </c>
@@ -30841,11 +29236,8 @@
       <c r="Q535" s="2">
         <v>62.764277627127676</v>
       </c>
-      <c r="R535">
-        <v>47.394636741258125</v>
-      </c>
-    </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="536" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>73</v>
       </c>
@@ -30897,11 +29289,8 @@
       <c r="Q536" s="2">
         <v>62.74416230419326</v>
       </c>
-      <c r="R536">
-        <v>47.145217732932984</v>
-      </c>
-    </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="537" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>73</v>
       </c>
@@ -30953,11 +29342,8 @@
       <c r="Q537" s="2">
         <v>62.702590636795478</v>
       </c>
-      <c r="R537">
-        <v>47.327256633947876</v>
-      </c>
-    </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="538" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>73</v>
       </c>
@@ -31009,11 +29395,8 @@
       <c r="Q538" s="2">
         <v>62.661018969397688</v>
       </c>
-      <c r="R538">
-        <v>47.443086150698598</v>
-      </c>
-    </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="539" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>73</v>
       </c>
@@ -31065,11 +29448,8 @@
       <c r="Q539" s="2">
         <v>53.017942065467537</v>
       </c>
-      <c r="R539">
-        <v>47.465623721372218</v>
-      </c>
-    </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>73</v>
       </c>
@@ -31121,11 +29501,8 @@
       <c r="Q540" s="2">
         <v>52.982744625237331</v>
       </c>
-      <c r="R540">
-        <v>47.521441095090431</v>
-      </c>
-    </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>73</v>
       </c>
@@ -31177,11 +29554,8 @@
       <c r="Q541" s="2">
         <v>52.947369841295469</v>
       </c>
-      <c r="R541">
-        <v>47.703007786969792</v>
-      </c>
-    </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="542" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>73</v>
       </c>
@@ -31233,11 +29607,8 @@
       <c r="Q542" s="2">
         <v>52.947369841295469</v>
       </c>
-      <c r="R542">
-        <v>47.656285401710285</v>
-      </c>
-    </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>73</v>
       </c>
@@ -31289,11 +29660,8 @@
       <c r="Q543" s="2">
         <v>52.947369841295469</v>
       </c>
-      <c r="R543">
-        <v>47.649311547159343</v>
-      </c>
-    </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="544" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>73</v>
       </c>
@@ -31345,11 +29713,8 @@
       <c r="Q544" s="2">
         <v>52.947369841295469</v>
       </c>
-      <c r="R544">
-        <v>47.70287114948389</v>
-      </c>
-    </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>73</v>
       </c>
@@ -31401,11 +29766,8 @@
       <c r="Q545" s="2">
         <v>52.906145141410107</v>
       </c>
-      <c r="R545">
-        <v>47.678229631305172</v>
-      </c>
-    </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>75</v>
       </c>
@@ -31457,11 +29819,8 @@
       <c r="Q546" s="2">
         <v>29.343569871639623</v>
       </c>
-      <c r="R546">
-        <v>45.412314288909194</v>
-      </c>
-    </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>75</v>
       </c>
@@ -31513,11 +29872,8 @@
       <c r="Q547" s="2">
         <v>29.436909663356747</v>
       </c>
-      <c r="R547">
-        <v>45.716559483103403</v>
-      </c>
-    </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>75</v>
       </c>
@@ -31569,11 +29925,8 @@
       <c r="Q548" s="2">
         <v>29.530249455073871</v>
       </c>
-      <c r="R548">
-        <v>45.73353090279474</v>
-      </c>
-    </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>75</v>
       </c>
@@ -31625,11 +29978,8 @@
       <c r="Q549" s="2">
         <v>29.623589246790988</v>
       </c>
-      <c r="R549">
-        <v>45.62046650374262</v>
-      </c>
-    </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>75</v>
       </c>
@@ -31681,11 +30031,8 @@
       <c r="Q550" s="2">
         <v>29.716929038508113</v>
       </c>
-      <c r="R550">
-        <v>46.212699575199444</v>
-      </c>
-    </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>75</v>
       </c>
@@ -31737,11 +30084,8 @@
       <c r="Q551" s="2">
         <v>29.810268830225233</v>
       </c>
-      <c r="R551">
-        <v>46.265764687056361</v>
-      </c>
-    </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>75</v>
       </c>
@@ -31793,11 +30137,8 @@
       <c r="Q552" s="2">
         <v>29.903608621942357</v>
       </c>
-      <c r="R552">
-        <v>45.794571252452023</v>
-      </c>
-    </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>75</v>
       </c>
@@ -31849,11 +30190,8 @@
       <c r="Q553" s="2">
         <v>29.986873334947926</v>
       </c>
-      <c r="R553">
-        <v>45.886626206710588</v>
-      </c>
-    </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>75</v>
       </c>
@@ -31905,11 +30243,8 @@
       <c r="Q554" s="2">
         <v>30.070138047953499</v>
       </c>
-      <c r="R554">
-        <v>46.031032714120464</v>
-      </c>
-    </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>75</v>
       </c>
@@ -31961,11 +30296,8 @@
       <c r="Q555" s="2">
         <v>30.153402760959075</v>
       </c>
-      <c r="R555">
-        <v>46.199476014947194</v>
-      </c>
-    </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>75</v>
       </c>
@@ -32017,11 +30349,8 @@
       <c r="Q556" s="2">
         <v>30.236667473964641</v>
       </c>
-      <c r="R556">
-        <v>46.435511171721416</v>
-      </c>
-    </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>75</v>
       </c>
@@ -32073,11 +30402,8 @@
       <c r="Q557" s="2">
         <v>30.319645806203336</v>
       </c>
-      <c r="R557">
-        <v>46.49932432221884</v>
-      </c>
-    </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>75</v>
       </c>
@@ -32129,11 +30455,8 @@
       <c r="Q558" s="2">
         <v>30.402958170169864</v>
       </c>
-      <c r="R558">
-        <v>46.58895797358349</v>
-      </c>
-    </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>75</v>
       </c>
@@ -32185,11 +30508,8 @@
       <c r="Q559" s="2">
         <v>30.486270534136395</v>
       </c>
-      <c r="R559">
-        <v>46.479676541800615</v>
-      </c>
-    </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>75</v>
       </c>
@@ -32241,11 +30561,8 @@
       <c r="Q560" s="2">
         <v>30.569582898102926</v>
       </c>
-      <c r="R560">
-        <v>46.676421809749272</v>
-      </c>
-    </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>75</v>
       </c>
@@ -32297,11 +30614,8 @@
       <c r="Q561" s="2">
         <v>30.652895262069457</v>
       </c>
-      <c r="R561">
-        <v>46.851478839099578</v>
-      </c>
-    </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>77</v>
       </c>
@@ -32353,11 +30667,8 @@
       <c r="Q562" s="2">
         <v>37.862488306828809</v>
       </c>
-      <c r="R562">
-        <v>45.513859562893998</v>
-      </c>
-    </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>77</v>
       </c>
@@ -32409,11 +30720,8 @@
       <c r="Q563" s="2">
         <v>38.071990957280946</v>
       </c>
-      <c r="R563">
-        <v>45.741742422637898</v>
-      </c>
-    </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>77</v>
       </c>
@@ -32465,11 +30773,8 @@
       <c r="Q564" s="2">
         <v>38.281493607733083</v>
       </c>
-      <c r="R564">
-        <v>45.520616181273319</v>
-      </c>
-    </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>77</v>
       </c>
@@ -32521,11 +30826,8 @@
       <c r="Q565" s="2">
         <v>38.49099625818522</v>
       </c>
-      <c r="R565">
-        <v>45.723074794449381</v>
-      </c>
-    </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>77</v>
       </c>
@@ -32577,11 +30879,8 @@
       <c r="Q566" s="2">
         <v>38.700498908637357</v>
       </c>
-      <c r="R566">
-        <v>45.856402919415999</v>
-      </c>
-    </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>77</v>
       </c>
@@ -32633,11 +30932,8 @@
       <c r="Q567" s="2">
         <v>38.910001559089494</v>
       </c>
-      <c r="R567">
-        <v>45.8184690942063</v>
-      </c>
-    </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>77</v>
       </c>
@@ -32689,11 +30985,8 @@
       <c r="Q568" s="2">
         <v>39.119504209541631</v>
       </c>
-      <c r="R568">
-        <v>45.902149143050927</v>
-      </c>
-    </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>77</v>
       </c>
@@ -32745,11 +31038,8 @@
       <c r="Q569" s="2">
         <v>39.114826941066418</v>
       </c>
-      <c r="R569">
-        <v>46.466362649012375</v>
-      </c>
-    </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>77</v>
       </c>
@@ -32801,11 +31091,8 @@
       <c r="Q570" s="2">
         <v>39.110149672591213</v>
       </c>
-      <c r="R570">
-        <v>46.232197075237131</v>
-      </c>
-    </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>77</v>
       </c>
@@ -32857,11 +31144,8 @@
       <c r="Q571" s="2">
         <v>39.105472404115993</v>
       </c>
-      <c r="R571">
-        <v>45.635612760100919</v>
-      </c>
-    </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>77</v>
       </c>
@@ -32913,11 +31197,8 @@
       <c r="Q572" s="2">
         <v>39.100795135640787</v>
       </c>
-      <c r="R572">
-        <v>45.570682470888364</v>
-      </c>
-    </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>77</v>
       </c>
@@ -32969,11 +31250,8 @@
       <c r="Q573" s="2">
         <v>39.096117867165574</v>
       </c>
-      <c r="R573">
-        <v>45.651365714416535</v>
-      </c>
-    </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="574" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>77</v>
       </c>
@@ -33025,11 +31303,8 @@
       <c r="Q574" s="2">
         <v>39.010367945120052</v>
       </c>
-      <c r="R574">
-        <v>45.644186665794891</v>
-      </c>
-    </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="575" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>77</v>
       </c>
@@ -33081,11 +31356,8 @@
       <c r="Q575" s="2">
         <v>38.940208917991889</v>
       </c>
-      <c r="R575">
-        <v>45.572223699685743</v>
-      </c>
-    </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="576" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>77</v>
       </c>
@@ -33137,11 +31409,8 @@
       <c r="Q576" s="2">
         <v>38.870049890863733</v>
       </c>
-      <c r="R576">
-        <v>45.592435286486435</v>
-      </c>
-    </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="577" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>77</v>
       </c>
@@ -33193,11 +31462,8 @@
       <c r="Q577" s="2">
         <v>38.799890863735584</v>
       </c>
-      <c r="R577">
-        <v>45.682567948028044</v>
-      </c>
-    </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="578" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>79</v>
       </c>
@@ -33249,11 +31515,8 @@
       <c r="Q578" s="2">
         <v>15.781956755861156</v>
       </c>
-      <c r="R578">
-        <v>48.663309916045051</v>
-      </c>
-    </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="579" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>79</v>
       </c>
@@ -33305,11 +31568,8 @@
       <c r="Q579" s="2">
         <v>15.788252837378842</v>
       </c>
-      <c r="R579">
-        <v>48.018065360259051</v>
-      </c>
-    </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>79</v>
       </c>
@@ -33361,11 +31621,8 @@
       <c r="Q580" s="2">
         <v>15.794548918896528</v>
       </c>
-      <c r="R580">
-        <v>48.06899900336164</v>
-      </c>
-    </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="581" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>79</v>
       </c>
@@ -33417,11 +31674,8 @@
       <c r="Q581" s="2">
         <v>15.800845000414215</v>
       </c>
-      <c r="R581">
-        <v>48.126802440892888</v>
-      </c>
-    </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>79</v>
       </c>
@@ -33473,11 +31727,8 @@
       <c r="Q582" s="2">
         <v>15.807141081931903</v>
       </c>
-      <c r="R582">
-        <v>48.186227907643278</v>
-      </c>
-    </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="583" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>79</v>
       </c>
@@ -33529,11 +31780,8 @@
       <c r="Q583" s="2">
         <v>15.813437163449592</v>
       </c>
-      <c r="R583">
-        <v>48.230295914535702</v>
-      </c>
-    </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="584" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>79</v>
       </c>
@@ -33585,11 +31833,8 @@
       <c r="Q584" s="2">
         <v>15.819733244967276</v>
       </c>
-      <c r="R584">
-        <v>48.171472183373886</v>
-      </c>
-    </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="585" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>79</v>
       </c>
@@ -33641,11 +31886,8 @@
       <c r="Q585" s="2">
         <v>15.855852870516113</v>
       </c>
-      <c r="R585">
-        <v>47.812367099114553</v>
-      </c>
-    </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="586" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>79</v>
       </c>
@@ -33697,11 +31939,8 @@
       <c r="Q586" s="2">
         <v>15.891972496064948</v>
       </c>
-      <c r="R586">
-        <v>47.306797438761258</v>
-      </c>
-    </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="587" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>79</v>
       </c>
@@ -33753,11 +31992,8 @@
       <c r="Q587" s="2">
         <v>15.928092121613785</v>
       </c>
-      <c r="R587">
-        <v>47.618511707482355</v>
-      </c>
-    </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>79</v>
       </c>
@@ -33809,11 +32045,8 @@
       <c r="Q588" s="2">
         <v>15.96421174716262</v>
       </c>
-      <c r="R588">
-        <v>47.336018000026733</v>
-      </c>
-    </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="589" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>79</v>
       </c>
@@ -33865,11 +32098,8 @@
       <c r="Q589" s="2">
         <v>16.000331372711457</v>
       </c>
-      <c r="R589">
-        <v>47.370499474158599</v>
-      </c>
-    </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>79</v>
       </c>
@@ -33921,11 +32151,8 @@
       <c r="Q590" s="2">
         <v>16.011929417612457</v>
       </c>
-      <c r="R590">
-        <v>47.274871565290141</v>
-      </c>
-    </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="591" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>79</v>
       </c>
@@ -33977,11 +32204,8 @@
       <c r="Q591" s="2">
         <v>16.023527462513464</v>
       </c>
-      <c r="R591">
-        <v>47.24486547442369</v>
-      </c>
-    </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>79</v>
       </c>
@@ -34033,11 +32257,8 @@
       <c r="Q592" s="2">
         <v>16.035125507414463</v>
       </c>
-      <c r="R592">
-        <v>47.269114143929471</v>
-      </c>
-    </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="593" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>79</v>
       </c>
@@ -34089,11 +32310,8 @@
       <c r="Q593" s="2">
         <v>16.04506668875818</v>
       </c>
-      <c r="R593">
-        <v>47.298924451081284</v>
-      </c>
-    </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="594" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>81</v>
       </c>
@@ -34145,11 +32363,8 @@
       <c r="Q594" s="2">
         <v>12.298345716514101</v>
       </c>
-      <c r="R594">
-        <v>45.650543115554981</v>
-      </c>
-    </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="595" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>81</v>
       </c>
@@ -34201,11 +32416,8 @@
       <c r="Q595" s="2">
         <v>12.341447395427117</v>
       </c>
-      <c r="R595">
-        <v>45.675598597973014</v>
-      </c>
-    </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="596" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>81</v>
       </c>
@@ -34257,11 +32469,8 @@
       <c r="Q596" s="2">
         <v>12.384549074340134</v>
       </c>
-      <c r="R596">
-        <v>45.7303545381858</v>
-      </c>
-    </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="597" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>81</v>
       </c>
@@ -34313,11 +32522,8 @@
       <c r="Q597" s="2">
         <v>12.42765075325315</v>
       </c>
-      <c r="R597">
-        <v>45.64791868040146</v>
-      </c>
-    </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="598" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>81</v>
       </c>
@@ -34369,11 +32575,8 @@
       <c r="Q598" s="2">
         <v>12.470752432166167</v>
       </c>
-      <c r="R598">
-        <v>45.683853930306014</v>
-      </c>
-    </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="599" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>81</v>
       </c>
@@ -34425,11 +32628,8 @@
       <c r="Q599" s="2">
         <v>12.513854111079183</v>
       </c>
-      <c r="R599">
-        <v>45.955227280112126</v>
-      </c>
-    </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="600" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>81</v>
       </c>
@@ -34481,11 +32681,8 @@
       <c r="Q600" s="2">
         <v>12.5569557899922</v>
       </c>
-      <c r="R600">
-        <v>46.027554421064643</v>
-      </c>
-    </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="601" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>81</v>
       </c>
@@ -34537,11 +32734,8 @@
       <c r="Q601" s="2">
         <v>12.635770288576001</v>
       </c>
-      <c r="R601">
-        <v>46.115971086974035</v>
-      </c>
-    </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="602" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>81</v>
       </c>
@@ -34593,11 +32787,8 @@
       <c r="Q602" s="2">
         <v>12.714584787159804</v>
       </c>
-      <c r="R602">
-        <v>46.123485280389779</v>
-      </c>
-    </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="603" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>81</v>
       </c>
@@ -34649,11 +32840,8 @@
       <c r="Q603" s="2">
         <v>12.793399285743606</v>
       </c>
-      <c r="R603">
-        <v>46.273256979601548</v>
-      </c>
-    </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="604" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>81</v>
       </c>
@@ -34705,11 +32893,8 @@
       <c r="Q604" s="2">
         <v>12.87221378432741</v>
       </c>
-      <c r="R604">
-        <v>46.410637714498058</v>
-      </c>
-    </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="605" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>81</v>
       </c>
@@ -34761,11 +32946,8 @@
       <c r="Q605" s="2">
         <v>12.951028282911212</v>
       </c>
-      <c r="R605">
-        <v>46.457147627149091</v>
-      </c>
-    </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="606" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>81</v>
       </c>
@@ -34817,11 +32999,8 @@
       <c r="Q606" s="2">
         <v>12.967447970116169</v>
       </c>
-      <c r="R606">
-        <v>46.535904373545712</v>
-      </c>
-    </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="607" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>81</v>
       </c>
@@ -34873,11 +33052,8 @@
       <c r="Q607" s="2">
         <v>12.987972579122367</v>
       </c>
-      <c r="R607">
-        <v>46.761521810737072</v>
-      </c>
-    </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="608" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>81</v>
       </c>
@@ -34929,11 +33105,8 @@
       <c r="Q608" s="2">
         <v>13.024916875333526</v>
       </c>
-      <c r="R608">
-        <v>46.808932062295582</v>
-      </c>
-    </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>81</v>
       </c>
@@ -34985,11 +33158,8 @@
       <c r="Q609" s="2">
         <v>13.061861171544681</v>
       </c>
-      <c r="R609">
-        <v>47.041817331390952</v>
-      </c>
-    </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>83</v>
       </c>
@@ -35041,11 +33211,8 @@
       <c r="Q610" s="2">
         <v>8.5910793326523667</v>
       </c>
-      <c r="R610">
-        <v>43.539210719913243</v>
-      </c>
-    </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>83</v>
       </c>
@@ -35097,11 +33264,8 @@
       <c r="Q611" s="2">
         <v>8.7966746112813539</v>
       </c>
-      <c r="R611">
-        <v>44.07472643231872</v>
-      </c>
-    </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>83</v>
       </c>
@@ -35153,11 +33317,8 @@
       <c r="Q612" s="2">
         <v>9.0022698899103393</v>
       </c>
-      <c r="R612">
-        <v>43.608464459315876</v>
-      </c>
-    </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>83</v>
       </c>
@@ -35209,11 +33370,8 @@
       <c r="Q613" s="2">
         <v>9.2078651685393247</v>
       </c>
-      <c r="R613">
-        <v>43.813031457918491</v>
-      </c>
-    </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>83</v>
       </c>
@@ -35265,11 +33423,8 @@
       <c r="Q614" s="2">
         <v>9.4134604471683119</v>
       </c>
-      <c r="R614">
-        <v>44.464763601283657</v>
-      </c>
-    </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>83</v>
       </c>
@@ -35321,11 +33476,8 @@
       <c r="Q615" s="2">
         <v>9.6190557257972991</v>
       </c>
-      <c r="R615">
-        <v>44.493946708548393</v>
-      </c>
-    </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>83</v>
       </c>
@@ -35377,11 +33529,8 @@
       <c r="Q616" s="2">
         <v>9.8246510044262845</v>
       </c>
-      <c r="R616">
-        <v>44.467085106619209</v>
-      </c>
-    </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>83</v>
       </c>
@@ -35433,11 +33582,8 @@
       <c r="Q617" s="2">
         <v>10.038815117466802</v>
       </c>
-      <c r="R617">
-        <v>44.716825396825399</v>
-      </c>
-    </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>83</v>
       </c>
@@ -35489,11 +33635,8 @@
       <c r="Q618" s="2">
         <v>10.25297923050732</v>
       </c>
-      <c r="R618">
-        <v>44.870742088063544</v>
-      </c>
-    </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>83</v>
       </c>
@@ -35545,11 +33688,8 @@
       <c r="Q619" s="2">
         <v>10.467143343547839</v>
       </c>
-      <c r="R619">
-        <v>44.551258105859617</v>
-      </c>
-    </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>83</v>
       </c>
@@ -35601,11 +33741,8 @@
       <c r="Q620" s="2">
         <v>10.681307456588355</v>
       </c>
-      <c r="R620">
-        <v>44.990624132260869</v>
-      </c>
-    </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>83</v>
       </c>
@@ -35657,11 +33794,8 @@
       <c r="Q621" s="2">
         <v>10.895471569628873</v>
       </c>
-      <c r="R621">
-        <v>45.069227739570394</v>
-      </c>
-    </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>83</v>
       </c>
@@ -35713,11 +33847,8 @@
       <c r="Q622" s="2">
         <v>11.04868913857678</v>
       </c>
-      <c r="R622">
-        <v>45.411290469967923</v>
-      </c>
-    </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>83</v>
       </c>
@@ -35769,11 +33900,8 @@
       <c r="Q623" s="2">
         <v>11.167858358869594</v>
       </c>
-      <c r="R623">
-        <v>45.450894925608772</v>
-      </c>
-    </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>83</v>
       </c>
@@ -35825,11 +33953,8 @@
       <c r="Q624" s="2">
         <v>11.287027579162411</v>
       </c>
-      <c r="R624">
-        <v>45.492454612524199</v>
-      </c>
-    </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>83</v>
       </c>
@@ -35880,9 +34005,6 @@
       </c>
       <c r="Q625" s="2">
         <v>11.406196799455227</v>
-      </c>
-      <c r="R625">
-        <v>45.501686839018269</v>
       </c>
     </row>
   </sheetData>
@@ -35896,7 +34018,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35906,109 +34028,109 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>106</v>
-      </c>
-      <c r="L1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -36016,31 +34138,31 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
         <v>125</v>
       </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>126</v>
       </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -36048,74 +34170,74 @@
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
         <v>129</v>
       </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
         <v>130</v>
       </c>
-      <c r="I6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>131</v>
       </c>
-      <c r="K6" t="s">
-        <v>132</v>
-      </c>
       <c r="L6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
         <v>133</v>
       </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -36123,39 +34245,39 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -36163,31 +34285,31 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
         <v>141</v>
       </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>142</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>143</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>144</v>
-      </c>
-      <c r="L11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -36195,10 +34317,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -36206,10 +34328,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -36217,10 +34339,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -36228,27 +34350,27 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
         <v>116</v>
-      </c>
-      <c r="L15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Bases/ESG_database.xlsx
+++ b/Bases/ESG_database.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF3724-BC01-40E9-8167-A1FAFD684696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48294A-2853-4249-809E-CD6D4229838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D09EA0A-FC56-4052-9C0C-3D393E982376}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -874,10 +875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6662F-A580-4A64-8F16-AE52E4412049}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q625"/>
+  <dimension ref="A1:Q593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31465,10 +31466,10 @@
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C578" s="2">
         <v>2004</v>
@@ -31477,104 +31478,104 @@
         <v>100</v>
       </c>
       <c r="E578" s="4">
-        <v>-0.93339079999999996</v>
+        <v>1.933308</v>
       </c>
       <c r="F578" s="4">
-        <v>-0.60282579999999997</v>
+        <v>1.889605</v>
       </c>
       <c r="G578" s="4">
-        <v>68.185365853658539</v>
+        <v>78.746341463414637</v>
       </c>
       <c r="H578" s="4">
-        <v>15.2</v>
+        <v>6.1</v>
       </c>
       <c r="I578" s="4">
-        <v>-0.47191959999999999</v>
+        <v>0.1425719</v>
       </c>
       <c r="J578" s="4">
-        <v>-0.40020699999999998</v>
+        <v>1.736755</v>
       </c>
       <c r="K578" s="4">
-        <v>-0.75717679999999998</v>
+        <v>1.62652</v>
       </c>
       <c r="L578" s="4">
-        <v>-0.67105139999999996</v>
+        <v>1.5974459999999999</v>
       </c>
       <c r="M578" s="5">
-        <v>29.089736299999998</v>
+        <v>99.691281939999996</v>
       </c>
       <c r="N578" s="5">
-        <v>94.931084023776336</v>
+        <v>99.125701838251217</v>
       </c>
       <c r="O578" s="5">
-        <v>6.5731145140000002</v>
+        <v>9.5738615899999999</v>
       </c>
       <c r="P578" s="5">
-        <v>6.76056990885861</v>
+        <v>3.6132310265816798</v>
       </c>
       <c r="Q578" s="2">
-        <v>15.781956755861156</v>
+        <v>12.298345716514101</v>
       </c>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C579" s="2">
         <v>2005</v>
       </c>
       <c r="D579" s="4">
-        <v>99.885561701316007</v>
+        <v>100</v>
       </c>
       <c r="E579" s="4">
-        <v>-0.72189820000000005</v>
+        <v>1.901079</v>
       </c>
       <c r="F579" s="4">
-        <v>-0.63971409999999995</v>
+        <v>1.7665960000000001</v>
       </c>
       <c r="G579" s="4">
-        <v>67.95682926829268</v>
+        <v>79.048780487804891</v>
       </c>
       <c r="H579" s="4">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="I579" s="4">
-        <v>-0.28602650000000002</v>
+        <v>0.1267411</v>
       </c>
       <c r="J579" s="4">
-        <v>-0.53540639999999995</v>
+        <v>1.614293</v>
       </c>
       <c r="K579" s="4">
-        <v>-0.77888480000000004</v>
+        <v>1.5694729999999999</v>
       </c>
       <c r="L579" s="4">
-        <v>-0.28532479999999999</v>
+        <v>1.443956</v>
       </c>
       <c r="M579" s="5">
-        <v>64.005364819999997</v>
+        <v>108.5982533</v>
       </c>
       <c r="N579" s="5">
-        <v>95.168734663128461</v>
+        <v>99.124444841654224</v>
       </c>
       <c r="O579" s="5">
-        <v>6.6775732659999996</v>
+        <v>9.453414145</v>
       </c>
       <c r="P579" s="5">
-        <v>7.0014257199885899</v>
+        <v>4.28316318081289</v>
       </c>
       <c r="Q579" s="2">
-        <v>15.788252837378842</v>
+        <v>12.341447395427117</v>
       </c>
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C580" s="2">
         <v>2006</v>
@@ -31583,104 +31584,104 @@
         <v>100</v>
       </c>
       <c r="E580" s="4">
-        <v>-0.75081779999999998</v>
+        <v>1.792327</v>
       </c>
       <c r="F580" s="4">
-        <v>-0.49100559999999999</v>
+        <v>1.6709940000000001</v>
       </c>
       <c r="G580" s="4">
-        <v>68.077560975609771</v>
+        <v>79.248780487804893</v>
       </c>
       <c r="H580" s="4">
-        <v>13.9</v>
+        <v>5.9</v>
       </c>
       <c r="I580" s="4">
-        <v>-3.5826700000000003E-2</v>
+        <v>0.66918010000000006</v>
       </c>
       <c r="J580" s="4">
-        <v>-0.52309649999999996</v>
+        <v>1.839874</v>
       </c>
       <c r="K580" s="4">
-        <v>-0.79570689999999999</v>
+        <v>1.785749</v>
       </c>
       <c r="L580" s="4">
-        <v>4.9641299999999999E-2</v>
+        <v>1.3787739999999999</v>
       </c>
       <c r="M580" s="5">
-        <v>105.2767922</v>
+        <v>115.2192759</v>
       </c>
       <c r="N580" s="5">
-        <v>95.404037892058909</v>
+        <v>99.123196674071522</v>
       </c>
       <c r="O580" s="5">
-        <v>7.1377762349999996</v>
+        <v>9.3311138919999994</v>
       </c>
       <c r="P580" s="5">
-        <v>7.01385005099187</v>
+        <v>4.6021740825776298</v>
       </c>
       <c r="Q580" s="2">
-        <v>15.794548918896528</v>
+        <v>12.384549074340134</v>
       </c>
     </row>
     <row r="581" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C581" s="2">
         <v>2007</v>
       </c>
       <c r="D581" s="4">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E581" s="4">
-        <v>-0.79742159999999995</v>
+        <v>1.742208</v>
       </c>
       <c r="F581" s="4">
-        <v>-0.66667560000000003</v>
+        <v>1.648174</v>
       </c>
       <c r="G581" s="4">
-        <v>68.222195121951231</v>
+        <v>79.448780487804882</v>
       </c>
       <c r="H581" s="4">
-        <v>13.4</v>
+        <v>5.8</v>
       </c>
       <c r="I581" s="4">
-        <v>0.17313210000000001</v>
+        <v>0.57539130000000005</v>
       </c>
       <c r="J581" s="4">
-        <v>-0.43219229999999997</v>
+        <v>1.866609</v>
       </c>
       <c r="K581" s="4">
-        <v>-0.72696349999999998</v>
+        <v>1.7374270000000001</v>
       </c>
       <c r="L581" s="4">
-        <v>6.4118400000000006E-2</v>
+        <v>1.335596</v>
       </c>
       <c r="M581" s="5">
-        <v>119.08760669999999</v>
+        <v>120.14647359999999</v>
       </c>
       <c r="N581" s="5">
-        <v>95.637923878190065</v>
+        <v>99.121970806122135</v>
       </c>
       <c r="O581" s="5">
-        <v>7.2545402670000003</v>
+        <v>9.1001343099999996</v>
       </c>
       <c r="P581" s="5">
-        <v>5.4491375892979903</v>
+        <v>5.0106815275172503</v>
       </c>
       <c r="Q581" s="2">
-        <v>15.800845000414215</v>
+        <v>12.42765075325315</v>
       </c>
     </row>
     <row r="582" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C582" s="2">
         <v>2008</v>
@@ -31689,51 +31690,51 @@
         <v>100</v>
       </c>
       <c r="E582" s="4">
-        <v>-0.83849620000000002</v>
+        <v>1.6824870000000001</v>
       </c>
       <c r="F582" s="4">
-        <v>-0.7180725</v>
+        <v>1.643775</v>
       </c>
       <c r="G582" s="4">
-        <v>68.251463414634159</v>
+        <v>79.600000000000009</v>
       </c>
       <c r="H582" s="4">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
       <c r="I582" s="4">
-        <v>4.2411400000000002E-2</v>
+        <v>0.49469350000000001</v>
       </c>
       <c r="J582" s="4">
-        <v>-0.53354089999999998</v>
+        <v>1.7851710000000001</v>
       </c>
       <c r="K582" s="4">
-        <v>-0.68134260000000002</v>
+        <v>1.708199</v>
       </c>
       <c r="L582" s="4">
-        <v>9.0666099999999999E-2</v>
+        <v>1.3210230000000001</v>
       </c>
       <c r="M582" s="5">
-        <v>120.558086</v>
+        <v>120.59026470000001</v>
       </c>
       <c r="N582" s="5">
-        <v>95.870444681268168</v>
+        <v>99.120753704241835</v>
       </c>
       <c r="O582" s="5">
-        <v>7.0524212610000001</v>
+        <v>8.7667877710000006</v>
       </c>
       <c r="P582" s="5">
-        <v>6.4355455864889803</v>
+        <v>5.6770153083749699</v>
       </c>
       <c r="Q582" s="2">
-        <v>15.807141081931903</v>
+        <v>12.470752432166167</v>
       </c>
     </row>
     <row r="583" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C583" s="2">
         <v>2009</v>
@@ -31742,51 +31743,51 @@
         <v>100</v>
       </c>
       <c r="E583" s="4">
-        <v>-1.0393939999999999</v>
+        <v>1.632727</v>
       </c>
       <c r="F583" s="4">
-        <v>-0.83384130000000001</v>
+        <v>1.512003</v>
       </c>
       <c r="G583" s="4">
-        <v>69.19</v>
+        <v>80.051219512195118</v>
       </c>
       <c r="H583" s="4">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
       <c r="I583" s="4">
-        <v>-0.3018807</v>
+        <v>0.1215835</v>
       </c>
       <c r="J583" s="4">
-        <v>-0.57034899999999999</v>
+        <v>1.584341</v>
       </c>
       <c r="K583" s="4">
-        <v>-0.75878080000000003</v>
+        <v>1.738985</v>
       </c>
       <c r="L583" s="4">
-        <v>5.9044800000000001E-2</v>
+        <v>1.303301</v>
       </c>
       <c r="M583" s="5">
-        <v>119.4564211</v>
+        <v>121.7296478</v>
       </c>
       <c r="N583" s="5">
-        <v>96.101549358831264</v>
+        <v>99.119552541874839</v>
       </c>
       <c r="O583" s="5">
-        <v>6.0319223209999997</v>
+        <v>7.8672940679999996</v>
       </c>
       <c r="P583" s="5">
-        <v>7.3249496367743498</v>
+        <v>6.7667848723149699</v>
       </c>
       <c r="Q583" s="2">
-        <v>15.813437163449592</v>
+        <v>12.513854111079183</v>
       </c>
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C584" s="2">
         <v>2010</v>
@@ -31795,51 +31796,51 @@
         <v>100</v>
       </c>
       <c r="E584" s="4">
-        <v>-1.0270539999999999</v>
+        <v>1.604827</v>
       </c>
       <c r="F584" s="4">
-        <v>-0.78470899999999999</v>
+        <v>1.568379</v>
       </c>
       <c r="G584" s="4">
-        <v>70.265365853658551</v>
+        <v>80.402439024390247</v>
       </c>
       <c r="H584" s="4">
-        <v>11.7</v>
+        <v>5.2</v>
       </c>
       <c r="I584" s="4">
-        <v>1.31317E-2</v>
+        <v>0.41181820000000002</v>
       </c>
       <c r="J584" s="4">
-        <v>-0.51590539999999996</v>
+        <v>1.7329779999999999</v>
       </c>
       <c r="K584" s="4">
-        <v>-0.80763949999999995</v>
+        <v>1.764103</v>
       </c>
       <c r="L584" s="4">
-        <v>-8.4004200000000001E-2</v>
+        <v>1.2899940000000001</v>
       </c>
       <c r="M584" s="5">
-        <v>117.7678197</v>
+        <v>120.91090320000001</v>
       </c>
       <c r="N584" s="5">
-        <v>96.327999294196786</v>
+        <v>99.118363018020887</v>
       </c>
       <c r="O584" s="5">
-        <v>6.4220458159999998</v>
+        <v>8.0684478730000002</v>
       </c>
       <c r="P584" s="5">
-        <v>7.4363660733463899</v>
+        <v>6.9094873186040804</v>
       </c>
       <c r="Q584" s="2">
-        <v>15.819733244967276</v>
+        <v>12.5569557899922</v>
       </c>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C585" s="2">
         <v>2011</v>
@@ -31848,104 +31849,104 @@
         <v>100</v>
       </c>
       <c r="E585" s="4">
-        <v>-1.049992</v>
+        <v>1.6160909999999999</v>
       </c>
       <c r="F585" s="4">
-        <v>-0.82412799999999997</v>
+        <v>1.5589010000000001</v>
       </c>
       <c r="G585" s="4">
-        <v>70.80926829268293</v>
+        <v>80.951219512195124</v>
       </c>
       <c r="H585" s="4">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="I585" s="4">
-        <v>-7.0431499999999994E-2</v>
+        <v>0.35170760000000001</v>
       </c>
       <c r="J585" s="4">
-        <v>-0.60298960000000001</v>
+        <v>1.6555059999999999</v>
       </c>
       <c r="K585" s="4">
-        <v>-0.81879570000000002</v>
+        <v>1.6506909999999999</v>
       </c>
       <c r="L585" s="4">
-        <v>-0.13244059999999999</v>
+        <v>1.297412</v>
       </c>
       <c r="M585" s="5">
-        <v>121.9416066</v>
+        <v>120.52481280000001</v>
       </c>
       <c r="N585" s="5">
-        <v>96.553898469748248</v>
+        <v>99.117186666722034</v>
       </c>
       <c r="O585" s="5">
-        <v>6.7503910779999998</v>
+        <v>7.3381617260000001</v>
       </c>
       <c r="P585" s="5">
-        <v>6.0318150917743001</v>
+        <v>9.6452969801726596</v>
       </c>
       <c r="Q585" s="2">
-        <v>15.855852870516113</v>
+        <v>12.635770288576001</v>
       </c>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C586" s="2">
         <v>2012</v>
       </c>
       <c r="D586" s="4">
-        <v>99.867491166077698</v>
+        <v>100</v>
       </c>
       <c r="E586" s="4">
-        <v>-1.077377</v>
+        <v>1.674153</v>
       </c>
       <c r="F586" s="4">
-        <v>-0.58306250000000004</v>
+        <v>1.547542</v>
       </c>
       <c r="G586" s="4">
-        <v>70.944146341463423</v>
+        <v>80.904878048780489</v>
       </c>
       <c r="H586" s="4">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="I586" s="4">
-        <v>-9.2274900000000007E-2</v>
+        <v>0.40227069999999998</v>
       </c>
       <c r="J586" s="4">
-        <v>-0.59547360000000005</v>
+        <v>1.645116</v>
       </c>
       <c r="K586" s="4">
-        <v>-0.78289710000000001</v>
+        <v>1.7186760000000001</v>
       </c>
       <c r="L586" s="4">
-        <v>-0.27954299999999999</v>
+        <v>1.3391329999999999</v>
       </c>
       <c r="M586" s="5">
-        <v>130.85902060000001</v>
+        <v>121.3932216</v>
       </c>
       <c r="N586" s="5">
-        <v>96.779287393158739</v>
+        <v>99.116020725638109</v>
       </c>
       <c r="O586" s="5">
-        <v>6.6870375759999998</v>
+        <v>7.5597961260000002</v>
       </c>
       <c r="P586" s="5">
-        <v>5.94386885066542</v>
+        <v>11.429222215746</v>
       </c>
       <c r="Q586" s="2">
-        <v>15.891972496064948</v>
+        <v>12.714584787159804</v>
       </c>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C587" s="2">
         <v>2013</v>
@@ -31954,51 +31955,51 @@
         <v>100</v>
       </c>
       <c r="E587" s="4">
-        <v>-1.131518</v>
+        <v>1.6991350000000001</v>
       </c>
       <c r="F587" s="4">
-        <v>-0.64575050000000001</v>
+        <v>1.4954510000000001</v>
       </c>
       <c r="G587" s="4">
-        <v>71.159512195121962</v>
+        <v>81.004878048780498</v>
       </c>
       <c r="H587" s="4">
-        <v>10.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="I587" s="4">
-        <v>-0.777285</v>
+        <v>0.48620140000000001</v>
       </c>
       <c r="J587" s="4">
-        <v>-0.62402150000000001</v>
+        <v>1.7706200000000001</v>
       </c>
       <c r="K587" s="4">
-        <v>-0.80447570000000002</v>
+        <v>1.7050380000000001</v>
       </c>
       <c r="L587" s="4">
-        <v>-0.31539660000000003</v>
+        <v>1.329037</v>
       </c>
       <c r="M587" s="5">
-        <v>138.44112430000001</v>
+        <v>121.0666567</v>
       </c>
       <c r="N587" s="5">
-        <v>97.004161981499891</v>
+        <v>99.114856028831539</v>
       </c>
       <c r="O587" s="5">
-        <v>6.5646709430000003</v>
+        <v>7.3541327870000002</v>
       </c>
       <c r="P587" s="5">
-        <v>8.1987839912254294</v>
+        <v>14.973648779665499</v>
       </c>
       <c r="Q587" s="2">
-        <v>15.928092121613785</v>
+        <v>12.793399285743606</v>
       </c>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C588" s="2">
         <v>2014</v>
@@ -32007,51 +32008,51 @@
         <v>100</v>
       </c>
       <c r="E588" s="4">
-        <v>-0.99419769999999996</v>
+        <v>1.738478</v>
       </c>
       <c r="F588" s="4">
-        <v>-0.41341860000000002</v>
+        <v>1.62673</v>
       </c>
       <c r="G588" s="4">
-        <v>71.186585365853674</v>
+        <v>81.304878048780495</v>
       </c>
       <c r="H588" s="4">
-        <v>9.8000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="I588" s="4">
-        <v>-2.0208330000000001</v>
+        <v>0.41534759999999998</v>
       </c>
       <c r="J588" s="4">
-        <v>-0.62881790000000004</v>
+        <v>1.8257859999999999</v>
       </c>
       <c r="K588" s="4">
-        <v>-0.7909716</v>
+        <v>1.8895709999999999</v>
       </c>
       <c r="L588" s="4">
-        <v>-0.14223169999999999</v>
+        <v>1.27579</v>
       </c>
       <c r="M588" s="5">
-        <v>144.27884739999999</v>
+        <v>119.92820209999999</v>
       </c>
       <c r="N588" s="5">
-        <v>97.228518198962135</v>
+        <v>99.113703108504552</v>
       </c>
       <c r="O588" s="5">
-        <v>5.7098929109999998</v>
+        <v>6.7110573799999997</v>
       </c>
       <c r="P588" s="5">
-        <v>5.8751941645914396</v>
+        <v>19.248247061800299</v>
       </c>
       <c r="Q588" s="2">
-        <v>15.96421174716262</v>
+        <v>12.87221378432741</v>
       </c>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C589" s="2">
         <v>2015</v>
@@ -32060,51 +32061,51 @@
         <v>100</v>
       </c>
       <c r="E589" s="4">
-        <v>-0.97991600000000001</v>
+        <v>1.876371</v>
       </c>
       <c r="F589" s="4">
-        <v>-0.52358340000000003</v>
+        <v>1.7437450000000001</v>
       </c>
       <c r="G589" s="4">
-        <v>71.189512195121964</v>
+        <v>80.956097560975621</v>
       </c>
       <c r="H589" s="4">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="I589" s="4">
-        <v>-1.9618</v>
+        <v>0.51774790000000004</v>
       </c>
       <c r="J589" s="4">
-        <v>-0.59470109999999998</v>
+        <v>1.845658</v>
       </c>
       <c r="K589" s="4">
-        <v>-0.81355049999999995</v>
+        <v>1.8130599999999999</v>
       </c>
       <c r="L589" s="4">
-        <v>-8.6799200000000007E-2</v>
+        <v>1.2978369999999999</v>
       </c>
       <c r="M589" s="5">
-        <v>142.00303790000001</v>
+        <v>120.3319425</v>
       </c>
       <c r="N589" s="5">
-        <v>97.39925365830247</v>
+        <v>99.11256190019084</v>
       </c>
       <c r="O589" s="5">
-        <v>4.98445904</v>
+        <v>6.4149804279999998</v>
       </c>
       <c r="P589" s="5">
-        <v>4.6262382801525899</v>
+        <v>24.6241382761634</v>
       </c>
       <c r="Q589" s="2">
-        <v>16.000331372711457</v>
+        <v>12.951028282911212</v>
       </c>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C590" s="2">
         <v>2016</v>
@@ -32113,51 +32114,51 @@
         <v>100</v>
       </c>
       <c r="E590" s="4">
-        <v>-0.81410020000000005</v>
+        <v>1.8989769999999999</v>
       </c>
       <c r="F590" s="4">
-        <v>-0.57227859999999997</v>
+        <v>1.601618</v>
       </c>
       <c r="G590" s="4">
-        <v>71.476341463414641</v>
+        <v>81.156097560975624</v>
       </c>
       <c r="H590" s="4">
-        <v>9.1999999999999993</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I590" s="4">
-        <v>-1.8564799999999999</v>
+        <v>0.3604541</v>
       </c>
       <c r="J590" s="4">
-        <v>-0.42953439999999998</v>
+        <v>1.7607090000000001</v>
       </c>
       <c r="K590" s="4">
-        <v>-0.76629369999999997</v>
+        <v>1.6915070000000001</v>
       </c>
       <c r="L590" s="4">
-        <v>1.7648E-3</v>
+        <v>1.295399</v>
       </c>
       <c r="M590" s="5">
-        <v>133.16895389999999</v>
+        <v>119.0555562</v>
       </c>
       <c r="N590" s="5">
-        <v>97.569316245320024</v>
+        <v>99.111422104132487</v>
       </c>
       <c r="O590" s="5">
-        <v>5.2377399020000004</v>
+        <v>6.0199344320000003</v>
       </c>
       <c r="P590" s="5">
-        <v>5.9751566337654198</v>
+        <v>24.373723005898299</v>
       </c>
       <c r="Q590" s="2">
-        <v>16.011929417612457</v>
+        <v>12.967447970116169</v>
       </c>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C591" s="2">
         <v>2017</v>
@@ -32166,51 +32167,51 @@
         <v>100</v>
       </c>
       <c r="E591" s="4">
-        <v>-0.78395749999999997</v>
+        <v>1.843364</v>
       </c>
       <c r="F591" s="4">
-        <v>-0.45758110000000002</v>
+        <v>1.4141330000000001</v>
       </c>
       <c r="G591" s="4">
-        <v>71.780975609756112</v>
+        <v>81.256097560975604</v>
       </c>
       <c r="H591" s="4">
-        <v>8.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I591" s="4">
-        <v>-1.870233</v>
+        <v>0.33154709999999998</v>
       </c>
       <c r="J591" s="4">
-        <v>-0.32130239999999999</v>
+        <v>1.7144779999999999</v>
       </c>
       <c r="K591" s="4">
-        <v>-0.71142910000000004</v>
+        <v>1.6794690000000001</v>
       </c>
       <c r="L591" s="4">
-        <v>1.45459E-2</v>
+        <v>1.333097</v>
       </c>
       <c r="M591" s="5">
-        <v>131.35651150000001</v>
+        <v>118.54040120000001</v>
       </c>
       <c r="N591" s="5">
-        <v>97.73344748626792</v>
+        <v>99.11029545035413</v>
       </c>
       <c r="O591" s="5">
-        <v>5.0178059480000003</v>
+        <v>5.8160620740000004</v>
       </c>
       <c r="P591" s="5">
-        <v>7.4058992940473498</v>
+        <v>29.1203917027218</v>
       </c>
       <c r="Q591" s="2">
-        <v>16.023527462513464</v>
+        <v>12.987972579122367</v>
       </c>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C592" s="2">
         <v>2018</v>
@@ -32219,51 +32220,51 @@
         <v>100</v>
       </c>
       <c r="E592" s="4">
-        <v>-0.87379289999999998</v>
+        <v>1.826838</v>
       </c>
       <c r="F592" s="4">
-        <v>-0.41521989999999998</v>
+        <v>1.3418840000000001</v>
       </c>
       <c r="G592" s="4">
-        <v>71.582682926829278</v>
+        <v>81.256097560975604</v>
       </c>
       <c r="H592" s="4">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="I592" s="4">
-        <v>-1.8587480000000001</v>
+        <v>4.2156199999999998E-2</v>
       </c>
       <c r="J592" s="4">
-        <v>-0.2965778</v>
+        <v>1.777938</v>
       </c>
       <c r="K592" s="4">
-        <v>-0.71774470000000001</v>
+        <v>1.637675</v>
       </c>
       <c r="L592" s="4">
-        <v>-1.24108E-2</v>
+        <v>1.3851169999999999</v>
       </c>
       <c r="M592" s="5">
-        <v>127.753861</v>
+        <v>118.3646213</v>
       </c>
       <c r="N592" s="5">
-        <v>97.740591607791202</v>
+        <v>99.109177576594732</v>
       </c>
       <c r="O592" s="5">
-        <v>5.236499684</v>
+        <v>5.6617103899999996</v>
       </c>
       <c r="P592" s="5">
-        <v>8.5986327338627895</v>
+        <v>32.942094804175497</v>
       </c>
       <c r="Q592" s="2">
-        <v>16.035125507414463</v>
+        <v>13.024916875333526</v>
       </c>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C593" s="2">
         <v>2019</v>
@@ -32272,1739 +32273,43 @@
         <v>100</v>
       </c>
       <c r="E593" s="4">
-        <v>-0.70959720000000004</v>
+        <v>1.7748120000000001</v>
       </c>
       <c r="F593" s="4">
-        <v>-0.29658250000000003</v>
+        <v>1.4359090000000001</v>
       </c>
       <c r="G593" s="4">
-        <v>71.827317073170747</v>
+        <v>81.2048780487805</v>
       </c>
       <c r="H593" s="4">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="I593" s="4">
-        <v>-1.5238700000000001</v>
+        <v>0.5191886</v>
       </c>
       <c r="J593" s="4">
-        <v>-0.25867010000000001</v>
+        <v>1.625853</v>
       </c>
       <c r="K593" s="4">
-        <v>-0.69835139999999996</v>
+        <v>1.600911</v>
       </c>
       <c r="L593" s="4">
-        <v>5.5237799999999997E-2</v>
+        <v>1.2636750000000001</v>
       </c>
       <c r="M593" s="5">
-        <v>130.62943630000001</v>
+        <v>119.8975178</v>
       </c>
       <c r="N593" s="5">
-        <v>97.74159540707403</v>
+        <v>99.108059793721367</v>
       </c>
       <c r="O593" s="5">
-        <v>5.0740872159999997</v>
+        <v>5.4772456089999997</v>
       </c>
       <c r="P593" s="5">
-        <v>7.30295851600909</v>
+        <v>36.722208462041301</v>
       </c>
       <c r="Q593" s="2">
-        <v>16.04506668875818</v>
-      </c>
-    </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A594" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B594" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C594" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D594" s="4">
-        <v>100</v>
-      </c>
-      <c r="E594" s="4">
-        <v>1.933308</v>
-      </c>
-      <c r="F594" s="4">
-        <v>1.889605</v>
-      </c>
-      <c r="G594" s="4">
-        <v>78.746341463414637</v>
-      </c>
-      <c r="H594" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="I594" s="4">
-        <v>0.1425719</v>
-      </c>
-      <c r="J594" s="4">
-        <v>1.736755</v>
-      </c>
-      <c r="K594" s="4">
-        <v>1.62652</v>
-      </c>
-      <c r="L594" s="4">
-        <v>1.5974459999999999</v>
-      </c>
-      <c r="M594" s="5">
-        <v>99.691281939999996</v>
-      </c>
-      <c r="N594" s="5">
-        <v>99.125701838251217</v>
-      </c>
-      <c r="O594" s="5">
-        <v>9.5738615899999999</v>
-      </c>
-      <c r="P594" s="5">
-        <v>3.6132310265816798</v>
-      </c>
-      <c r="Q594" s="2">
-        <v>12.298345716514101</v>
-      </c>
-    </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A595" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B595" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C595" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D595" s="4">
-        <v>100</v>
-      </c>
-      <c r="E595" s="4">
-        <v>1.901079</v>
-      </c>
-      <c r="F595" s="4">
-        <v>1.7665960000000001</v>
-      </c>
-      <c r="G595" s="4">
-        <v>79.048780487804891</v>
-      </c>
-      <c r="H595" s="4">
-        <v>6</v>
-      </c>
-      <c r="I595" s="4">
-        <v>0.1267411</v>
-      </c>
-      <c r="J595" s="4">
-        <v>1.614293</v>
-      </c>
-      <c r="K595" s="4">
-        <v>1.5694729999999999</v>
-      </c>
-      <c r="L595" s="4">
-        <v>1.443956</v>
-      </c>
-      <c r="M595" s="5">
-        <v>108.5982533</v>
-      </c>
-      <c r="N595" s="5">
-        <v>99.124444841654224</v>
-      </c>
-      <c r="O595" s="5">
-        <v>9.453414145</v>
-      </c>
-      <c r="P595" s="5">
-        <v>4.28316318081289</v>
-      </c>
-      <c r="Q595" s="2">
-        <v>12.341447395427117</v>
-      </c>
-    </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A596" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B596" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C596" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D596" s="4">
-        <v>100</v>
-      </c>
-      <c r="E596" s="4">
-        <v>1.792327</v>
-      </c>
-      <c r="F596" s="4">
-        <v>1.6709940000000001</v>
-      </c>
-      <c r="G596" s="4">
-        <v>79.248780487804893</v>
-      </c>
-      <c r="H596" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="I596" s="4">
-        <v>0.66918010000000006</v>
-      </c>
-      <c r="J596" s="4">
-        <v>1.839874</v>
-      </c>
-      <c r="K596" s="4">
-        <v>1.785749</v>
-      </c>
-      <c r="L596" s="4">
-        <v>1.3787739999999999</v>
-      </c>
-      <c r="M596" s="5">
-        <v>115.2192759</v>
-      </c>
-      <c r="N596" s="5">
-        <v>99.123196674071522</v>
-      </c>
-      <c r="O596" s="5">
-        <v>9.3311138919999994</v>
-      </c>
-      <c r="P596" s="5">
-        <v>4.6021740825776298</v>
-      </c>
-      <c r="Q596" s="2">
-        <v>12.384549074340134</v>
-      </c>
-    </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A597" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B597" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C597" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D597" s="4">
-        <v>100</v>
-      </c>
-      <c r="E597" s="4">
-        <v>1.742208</v>
-      </c>
-      <c r="F597" s="4">
-        <v>1.648174</v>
-      </c>
-      <c r="G597" s="4">
-        <v>79.448780487804882</v>
-      </c>
-      <c r="H597" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="I597" s="4">
-        <v>0.57539130000000005</v>
-      </c>
-      <c r="J597" s="4">
-        <v>1.866609</v>
-      </c>
-      <c r="K597" s="4">
-        <v>1.7374270000000001</v>
-      </c>
-      <c r="L597" s="4">
-        <v>1.335596</v>
-      </c>
-      <c r="M597" s="5">
-        <v>120.14647359999999</v>
-      </c>
-      <c r="N597" s="5">
-        <v>99.121970806122135</v>
-      </c>
-      <c r="O597" s="5">
-        <v>9.1001343099999996</v>
-      </c>
-      <c r="P597" s="5">
-        <v>5.0106815275172503</v>
-      </c>
-      <c r="Q597" s="2">
-        <v>12.42765075325315</v>
-      </c>
-    </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A598" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B598" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C598" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D598" s="4">
-        <v>100</v>
-      </c>
-      <c r="E598" s="4">
-        <v>1.6824870000000001</v>
-      </c>
-      <c r="F598" s="4">
-        <v>1.643775</v>
-      </c>
-      <c r="G598" s="4">
-        <v>79.600000000000009</v>
-      </c>
-      <c r="H598" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="I598" s="4">
-        <v>0.49469350000000001</v>
-      </c>
-      <c r="J598" s="4">
-        <v>1.7851710000000001</v>
-      </c>
-      <c r="K598" s="4">
-        <v>1.708199</v>
-      </c>
-      <c r="L598" s="4">
-        <v>1.3210230000000001</v>
-      </c>
-      <c r="M598" s="5">
-        <v>120.59026470000001</v>
-      </c>
-      <c r="N598" s="5">
-        <v>99.120753704241835</v>
-      </c>
-      <c r="O598" s="5">
-        <v>8.7667877710000006</v>
-      </c>
-      <c r="P598" s="5">
-        <v>5.6770153083749699</v>
-      </c>
-      <c r="Q598" s="2">
-        <v>12.470752432166167</v>
-      </c>
-    </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A599" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C599" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D599" s="4">
-        <v>100</v>
-      </c>
-      <c r="E599" s="4">
-        <v>1.632727</v>
-      </c>
-      <c r="F599" s="4">
-        <v>1.512003</v>
-      </c>
-      <c r="G599" s="4">
-        <v>80.051219512195118</v>
-      </c>
-      <c r="H599" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="I599" s="4">
-        <v>0.1215835</v>
-      </c>
-      <c r="J599" s="4">
-        <v>1.584341</v>
-      </c>
-      <c r="K599" s="4">
-        <v>1.738985</v>
-      </c>
-      <c r="L599" s="4">
-        <v>1.303301</v>
-      </c>
-      <c r="M599" s="5">
-        <v>121.7296478</v>
-      </c>
-      <c r="N599" s="5">
-        <v>99.119552541874839</v>
-      </c>
-      <c r="O599" s="5">
-        <v>7.8672940679999996</v>
-      </c>
-      <c r="P599" s="5">
-        <v>6.7667848723149699</v>
-      </c>
-      <c r="Q599" s="2">
-        <v>12.513854111079183</v>
-      </c>
-    </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A600" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B600" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C600" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D600" s="4">
-        <v>100</v>
-      </c>
-      <c r="E600" s="4">
-        <v>1.604827</v>
-      </c>
-      <c r="F600" s="4">
-        <v>1.568379</v>
-      </c>
-      <c r="G600" s="4">
-        <v>80.402439024390247</v>
-      </c>
-      <c r="H600" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="I600" s="4">
-        <v>0.41181820000000002</v>
-      </c>
-      <c r="J600" s="4">
-        <v>1.7329779999999999</v>
-      </c>
-      <c r="K600" s="4">
-        <v>1.764103</v>
-      </c>
-      <c r="L600" s="4">
-        <v>1.2899940000000001</v>
-      </c>
-      <c r="M600" s="5">
-        <v>120.91090320000001</v>
-      </c>
-      <c r="N600" s="5">
-        <v>99.118363018020887</v>
-      </c>
-      <c r="O600" s="5">
-        <v>8.0684478730000002</v>
-      </c>
-      <c r="P600" s="5">
-        <v>6.9094873186040804</v>
-      </c>
-      <c r="Q600" s="2">
-        <v>12.5569557899922</v>
-      </c>
-    </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A601" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B601" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C601" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D601" s="4">
-        <v>100</v>
-      </c>
-      <c r="E601" s="4">
-        <v>1.6160909999999999</v>
-      </c>
-      <c r="F601" s="4">
-        <v>1.5589010000000001</v>
-      </c>
-      <c r="G601" s="4">
-        <v>80.951219512195124</v>
-      </c>
-      <c r="H601" s="4">
-        <v>5</v>
-      </c>
-      <c r="I601" s="4">
-        <v>0.35170760000000001</v>
-      </c>
-      <c r="J601" s="4">
-        <v>1.6555059999999999</v>
-      </c>
-      <c r="K601" s="4">
-        <v>1.6506909999999999</v>
-      </c>
-      <c r="L601" s="4">
-        <v>1.297412</v>
-      </c>
-      <c r="M601" s="5">
-        <v>120.52481280000001</v>
-      </c>
-      <c r="N601" s="5">
-        <v>99.117186666722034</v>
-      </c>
-      <c r="O601" s="5">
-        <v>7.3381617260000001</v>
-      </c>
-      <c r="P601" s="5">
-        <v>9.6452969801726596</v>
-      </c>
-      <c r="Q601" s="2">
-        <v>12.635770288576001</v>
-      </c>
-    </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A602" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B602" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C602" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D602" s="4">
-        <v>100</v>
-      </c>
-      <c r="E602" s="4">
-        <v>1.674153</v>
-      </c>
-      <c r="F602" s="4">
-        <v>1.547542</v>
-      </c>
-      <c r="G602" s="4">
-        <v>80.904878048780489</v>
-      </c>
-      <c r="H602" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="I602" s="4">
-        <v>0.40227069999999998</v>
-      </c>
-      <c r="J602" s="4">
-        <v>1.645116</v>
-      </c>
-      <c r="K602" s="4">
-        <v>1.7186760000000001</v>
-      </c>
-      <c r="L602" s="4">
-        <v>1.3391329999999999</v>
-      </c>
-      <c r="M602" s="5">
-        <v>121.3932216</v>
-      </c>
-      <c r="N602" s="5">
-        <v>99.116020725638109</v>
-      </c>
-      <c r="O602" s="5">
-        <v>7.5597961260000002</v>
-      </c>
-      <c r="P602" s="5">
-        <v>11.429222215746</v>
-      </c>
-      <c r="Q602" s="2">
-        <v>12.714584787159804</v>
-      </c>
-    </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A603" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C603" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D603" s="4">
-        <v>100</v>
-      </c>
-      <c r="E603" s="4">
-        <v>1.6991350000000001</v>
-      </c>
-      <c r="F603" s="4">
-        <v>1.4954510000000001</v>
-      </c>
-      <c r="G603" s="4">
-        <v>81.004878048780498</v>
-      </c>
-      <c r="H603" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="I603" s="4">
-        <v>0.48620140000000001</v>
-      </c>
-      <c r="J603" s="4">
-        <v>1.7706200000000001</v>
-      </c>
-      <c r="K603" s="4">
-        <v>1.7050380000000001</v>
-      </c>
-      <c r="L603" s="4">
-        <v>1.329037</v>
-      </c>
-      <c r="M603" s="5">
-        <v>121.0666567</v>
-      </c>
-      <c r="N603" s="5">
-        <v>99.114856028831539</v>
-      </c>
-      <c r="O603" s="5">
-        <v>7.3541327870000002</v>
-      </c>
-      <c r="P603" s="5">
-        <v>14.973648779665499</v>
-      </c>
-      <c r="Q603" s="2">
-        <v>12.793399285743606</v>
-      </c>
-    </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A604" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B604" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C604" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D604" s="4">
-        <v>100</v>
-      </c>
-      <c r="E604" s="4">
-        <v>1.738478</v>
-      </c>
-      <c r="F604" s="4">
-        <v>1.62673</v>
-      </c>
-      <c r="G604" s="4">
-        <v>81.304878048780495</v>
-      </c>
-      <c r="H604" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I604" s="4">
-        <v>0.41534759999999998</v>
-      </c>
-      <c r="J604" s="4">
-        <v>1.8257859999999999</v>
-      </c>
-      <c r="K604" s="4">
-        <v>1.8895709999999999</v>
-      </c>
-      <c r="L604" s="4">
-        <v>1.27579</v>
-      </c>
-      <c r="M604" s="5">
-        <v>119.92820209999999</v>
-      </c>
-      <c r="N604" s="5">
-        <v>99.113703108504552</v>
-      </c>
-      <c r="O604" s="5">
-        <v>6.7110573799999997</v>
-      </c>
-      <c r="P604" s="5">
-        <v>19.248247061800299</v>
-      </c>
-      <c r="Q604" s="2">
-        <v>12.87221378432741</v>
-      </c>
-    </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A605" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B605" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C605" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D605" s="4">
-        <v>100</v>
-      </c>
-      <c r="E605" s="4">
-        <v>1.876371</v>
-      </c>
-      <c r="F605" s="4">
-        <v>1.7437450000000001</v>
-      </c>
-      <c r="G605" s="4">
-        <v>80.956097560975621</v>
-      </c>
-      <c r="H605" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I605" s="4">
-        <v>0.51774790000000004</v>
-      </c>
-      <c r="J605" s="4">
-        <v>1.845658</v>
-      </c>
-      <c r="K605" s="4">
-        <v>1.8130599999999999</v>
-      </c>
-      <c r="L605" s="4">
-        <v>1.2978369999999999</v>
-      </c>
-      <c r="M605" s="5">
-        <v>120.3319425</v>
-      </c>
-      <c r="N605" s="5">
-        <v>99.11256190019084</v>
-      </c>
-      <c r="O605" s="5">
-        <v>6.4149804279999998</v>
-      </c>
-      <c r="P605" s="5">
-        <v>24.6241382761634</v>
-      </c>
-      <c r="Q605" s="2">
-        <v>12.951028282911212</v>
-      </c>
-    </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A606" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C606" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D606" s="4">
-        <v>100</v>
-      </c>
-      <c r="E606" s="4">
-        <v>1.8989769999999999</v>
-      </c>
-      <c r="F606" s="4">
-        <v>1.601618</v>
-      </c>
-      <c r="G606" s="4">
-        <v>81.156097560975624</v>
-      </c>
-      <c r="H606" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I606" s="4">
-        <v>0.3604541</v>
-      </c>
-      <c r="J606" s="4">
-        <v>1.7607090000000001</v>
-      </c>
-      <c r="K606" s="4">
-        <v>1.6915070000000001</v>
-      </c>
-      <c r="L606" s="4">
-        <v>1.295399</v>
-      </c>
-      <c r="M606" s="5">
-        <v>119.0555562</v>
-      </c>
-      <c r="N606" s="5">
-        <v>99.111422104132487</v>
-      </c>
-      <c r="O606" s="5">
-        <v>6.0199344320000003</v>
-      </c>
-      <c r="P606" s="5">
-        <v>24.373723005898299</v>
-      </c>
-      <c r="Q606" s="2">
-        <v>12.967447970116169</v>
-      </c>
-    </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A607" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B607" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C607" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D607" s="4">
-        <v>100</v>
-      </c>
-      <c r="E607" s="4">
-        <v>1.843364</v>
-      </c>
-      <c r="F607" s="4">
-        <v>1.4141330000000001</v>
-      </c>
-      <c r="G607" s="4">
-        <v>81.256097560975604</v>
-      </c>
-      <c r="H607" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I607" s="4">
-        <v>0.33154709999999998</v>
-      </c>
-      <c r="J607" s="4">
-        <v>1.7144779999999999</v>
-      </c>
-      <c r="K607" s="4">
-        <v>1.6794690000000001</v>
-      </c>
-      <c r="L607" s="4">
-        <v>1.333097</v>
-      </c>
-      <c r="M607" s="5">
-        <v>118.54040120000001</v>
-      </c>
-      <c r="N607" s="5">
-        <v>99.11029545035413</v>
-      </c>
-      <c r="O607" s="5">
-        <v>5.8160620740000004</v>
-      </c>
-      <c r="P607" s="5">
-        <v>29.1203917027218</v>
-      </c>
-      <c r="Q607" s="2">
-        <v>12.987972579122367</v>
-      </c>
-    </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A608" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B608" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C608" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D608" s="4">
-        <v>100</v>
-      </c>
-      <c r="E608" s="4">
-        <v>1.826838</v>
-      </c>
-      <c r="F608" s="4">
-        <v>1.3418840000000001</v>
-      </c>
-      <c r="G608" s="4">
-        <v>81.256097560975604</v>
-      </c>
-      <c r="H608" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="I608" s="4">
-        <v>4.2156199999999998E-2</v>
-      </c>
-      <c r="J608" s="4">
-        <v>1.777938</v>
-      </c>
-      <c r="K608" s="4">
-        <v>1.637675</v>
-      </c>
-      <c r="L608" s="4">
-        <v>1.3851169999999999</v>
-      </c>
-      <c r="M608" s="5">
-        <v>118.3646213</v>
-      </c>
-      <c r="N608" s="5">
-        <v>99.109177576594732</v>
-      </c>
-      <c r="O608" s="5">
-        <v>5.6617103899999996</v>
-      </c>
-      <c r="P608" s="5">
-        <v>32.942094804175497</v>
-      </c>
-      <c r="Q608" s="2">
-        <v>13.024916875333526</v>
-      </c>
-    </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A609" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B609" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C609" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D609" s="4">
-        <v>100</v>
-      </c>
-      <c r="E609" s="4">
-        <v>1.7748120000000001</v>
-      </c>
-      <c r="F609" s="4">
-        <v>1.4359090000000001</v>
-      </c>
-      <c r="G609" s="4">
-        <v>81.2048780487805</v>
-      </c>
-      <c r="H609" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="I609" s="4">
-        <v>0.5191886</v>
-      </c>
-      <c r="J609" s="4">
-        <v>1.625853</v>
-      </c>
-      <c r="K609" s="4">
-        <v>1.600911</v>
-      </c>
-      <c r="L609" s="4">
-        <v>1.2636750000000001</v>
-      </c>
-      <c r="M609" s="5">
-        <v>119.8975178</v>
-      </c>
-      <c r="N609" s="5">
-        <v>99.108059793721367</v>
-      </c>
-      <c r="O609" s="5">
-        <v>5.4772456089999997</v>
-      </c>
-      <c r="P609" s="5">
-        <v>36.722208462041301</v>
-      </c>
-      <c r="Q609" s="2">
         <v>13.061861171544681</v>
-      </c>
-    </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A610" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B610" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C610" s="2">
-        <v>2004</v>
-      </c>
-      <c r="D610" s="4">
-        <v>98.094093322753906</v>
-      </c>
-      <c r="E610" s="4">
-        <v>0.8986151</v>
-      </c>
-      <c r="F610" s="4">
-        <v>0.3193935</v>
-      </c>
-      <c r="G610" s="4">
-        <v>75.599000000000004</v>
-      </c>
-      <c r="H610" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="I610" s="4">
-        <v>0.59104690000000004</v>
-      </c>
-      <c r="J610" s="4">
-        <v>0.26497290000000001</v>
-      </c>
-      <c r="K610" s="4">
-        <v>0.456652</v>
-      </c>
-      <c r="L610" s="4">
-        <v>0.84271050000000003</v>
-      </c>
-      <c r="M610" s="5">
-        <v>18.057273330000001</v>
-      </c>
-      <c r="N610" s="5">
-        <v>93.468877024708448</v>
-      </c>
-      <c r="O610" s="5">
-        <v>1.675337549</v>
-      </c>
-      <c r="P610" s="5">
-        <v>82.408847416623402</v>
-      </c>
-      <c r="Q610" s="2">
-        <v>8.5910793326523667</v>
-      </c>
-    </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A611" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C611" s="2">
-        <v>2005</v>
-      </c>
-      <c r="D611" s="4">
-        <v>98.203292846679702</v>
-      </c>
-      <c r="E611" s="4">
-        <v>1.0746720000000001</v>
-      </c>
-      <c r="F611" s="4">
-        <v>0.4956834</v>
-      </c>
-      <c r="G611" s="4">
-        <v>75.825999999999993</v>
-      </c>
-      <c r="H611" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="I611" s="4">
-        <v>0.77860879999999999</v>
-      </c>
-      <c r="J611" s="4">
-        <v>0.3975147</v>
-      </c>
-      <c r="K611" s="4">
-        <v>0.47114450000000002</v>
-      </c>
-      <c r="L611" s="4">
-        <v>0.88573769999999996</v>
-      </c>
-      <c r="M611" s="5">
-        <v>34.767955839999999</v>
-      </c>
-      <c r="N611" s="5">
-        <v>93.611630853433184</v>
-      </c>
-      <c r="O611" s="5">
-        <v>1.7236065620000001</v>
-      </c>
-      <c r="P611" s="5">
-        <v>88.032266596138498</v>
-      </c>
-      <c r="Q611" s="2">
-        <v>8.7966746112813539</v>
-      </c>
-    </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A612" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C612" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D612" s="4">
-        <v>98.505426</v>
-      </c>
-      <c r="E612" s="4">
-        <v>1.114514</v>
-      </c>
-      <c r="F612" s="4">
-        <v>0.39008369999999998</v>
-      </c>
-      <c r="G612" s="4">
-        <v>76.046000000000006</v>
-      </c>
-      <c r="H612" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="I612" s="4">
-        <v>0.89940410000000004</v>
-      </c>
-      <c r="J612" s="4">
-        <v>0.36616179999999998</v>
-      </c>
-      <c r="K612" s="4">
-        <v>0.56251079999999998</v>
-      </c>
-      <c r="L612" s="4">
-        <v>1.0307109999999999</v>
-      </c>
-      <c r="M612" s="5">
-        <v>70.067068599999999</v>
-      </c>
-      <c r="N612" s="5">
-        <v>93.923807269718608</v>
-      </c>
-      <c r="O612" s="5">
-        <v>1.9837855639999999</v>
-      </c>
-      <c r="P612" s="5">
-        <v>66.032558990305404</v>
-      </c>
-      <c r="Q612" s="2">
-        <v>9.0022698899103393</v>
-      </c>
-    </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A613" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B613" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C613" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D613" s="4">
-        <v>98.692635999999993</v>
-      </c>
-      <c r="E613" s="4">
-        <v>1.2439849999999999</v>
-      </c>
-      <c r="F613" s="4">
-        <v>0.53120650000000003</v>
-      </c>
-      <c r="G613" s="4">
-        <v>76.251000000000005</v>
-      </c>
-      <c r="H613" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="I613" s="4">
-        <v>0.83549770000000001</v>
-      </c>
-      <c r="J613" s="4">
-        <v>0.27564889999999997</v>
-      </c>
-      <c r="K613" s="4">
-        <v>0.60465939999999996</v>
-      </c>
-      <c r="L613" s="4">
-        <v>1.045523</v>
-      </c>
-      <c r="M613" s="5">
-        <v>90.172549009999997</v>
-      </c>
-      <c r="N613" s="5">
-        <v>94.233088295430491</v>
-      </c>
-      <c r="O613" s="5">
-        <v>1.7846671670000001</v>
-      </c>
-      <c r="P613" s="5">
-        <v>87.631312150822893</v>
-      </c>
-      <c r="Q613" s="2">
-        <v>9.2078651685393247</v>
-      </c>
-    </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A614" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B614" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C614" s="2">
-        <v>2008</v>
-      </c>
-      <c r="D614" s="4">
-        <v>98.784355000000005</v>
-      </c>
-      <c r="E614" s="4">
-        <v>1.3084009999999999</v>
-      </c>
-      <c r="F614" s="4">
-        <v>0.50096649999999998</v>
-      </c>
-      <c r="G614" s="4">
-        <v>76.436999999999998</v>
-      </c>
-      <c r="H614" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="I614" s="4">
-        <v>0.8462693</v>
-      </c>
-      <c r="J614" s="4">
-        <v>0.25579740000000001</v>
-      </c>
-      <c r="K614" s="4">
-        <v>0.59521849999999998</v>
-      </c>
-      <c r="L614" s="4">
-        <v>1.0621449999999999</v>
-      </c>
-      <c r="M614" s="5">
-        <v>105.01748240000001</v>
-      </c>
-      <c r="N614" s="5">
-        <v>94.53965857954006</v>
-      </c>
-      <c r="O614" s="5">
-        <v>2.4552886229999999</v>
-      </c>
-      <c r="P614" s="5">
-        <v>62.171883657810397</v>
-      </c>
-      <c r="Q614" s="2">
-        <v>9.4134604471683119</v>
-      </c>
-    </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A615" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B615" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C615" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D615" s="4">
-        <v>99.1</v>
-      </c>
-      <c r="E615" s="4">
-        <v>1.2384029999999999</v>
-      </c>
-      <c r="F615" s="4">
-        <v>0.59591229999999995</v>
-      </c>
-      <c r="G615" s="4">
-        <v>76.602999999999994</v>
-      </c>
-      <c r="H615" s="4">
-        <v>11.2</v>
-      </c>
-      <c r="I615" s="4">
-        <v>0.79031850000000003</v>
-      </c>
-      <c r="J615" s="4">
-        <v>0.37535030000000003</v>
-      </c>
-      <c r="K615" s="4">
-        <v>0.71807180000000004</v>
-      </c>
-      <c r="L615" s="4">
-        <v>1.1057950000000001</v>
-      </c>
-      <c r="M615" s="5">
-        <v>122.7450058</v>
-      </c>
-      <c r="N615" s="5">
-        <v>94.843589046839085</v>
-      </c>
-      <c r="O615" s="5">
-        <v>2.3723385069999998</v>
-      </c>
-      <c r="P615" s="5">
-        <v>69.868450266429804</v>
-      </c>
-      <c r="Q615" s="2">
-        <v>9.6190557257972991</v>
-      </c>
-    </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A616" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B616" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C616" s="2">
-        <v>2010</v>
-      </c>
-      <c r="D616" s="4">
-        <v>99.3</v>
-      </c>
-      <c r="E616" s="4">
-        <v>1.2793330000000001</v>
-      </c>
-      <c r="F616" s="4">
-        <v>0.62695659999999998</v>
-      </c>
-      <c r="G616" s="4">
-        <v>76.75</v>
-      </c>
-      <c r="H616" s="4">
-        <v>10.7</v>
-      </c>
-      <c r="I616" s="4">
-        <v>0.824986</v>
-      </c>
-      <c r="J616" s="4">
-        <v>0.39408100000000001</v>
-      </c>
-      <c r="K616" s="4">
-        <v>0.73859790000000003</v>
-      </c>
-      <c r="L616" s="4">
-        <v>1.1465449999999999</v>
-      </c>
-      <c r="M616" s="5">
-        <v>132.08677470000001</v>
-      </c>
-      <c r="N616" s="5">
-        <v>95.145096678572358</v>
-      </c>
-      <c r="O616" s="5">
-        <v>1.8745790410000001</v>
-      </c>
-      <c r="P616" s="5">
-        <v>88.397419270582901</v>
-      </c>
-      <c r="Q616" s="2">
-        <v>9.8246510044262845</v>
-      </c>
-    </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A617" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B617" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C617" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D617" s="4">
-        <v>99.17</v>
-      </c>
-      <c r="E617" s="4">
-        <v>1.27888</v>
-      </c>
-      <c r="F617" s="4">
-        <v>0.55374350000000006</v>
-      </c>
-      <c r="G617" s="4">
-        <v>76.882000000000005</v>
-      </c>
-      <c r="H617" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="I617" s="4">
-        <v>0.95709690000000003</v>
-      </c>
-      <c r="J617" s="4">
-        <v>0.43603130000000001</v>
-      </c>
-      <c r="K617" s="4">
-        <v>0.69901690000000005</v>
-      </c>
-      <c r="L617" s="4">
-        <v>1.1214310000000001</v>
-      </c>
-      <c r="M617" s="5">
-        <v>141.21455040000001</v>
-      </c>
-      <c r="N617" s="5">
-        <v>95.444242616926928</v>
-      </c>
-      <c r="O617" s="5">
-        <v>2.2718373399999998</v>
-      </c>
-      <c r="P617" s="5">
-        <v>73.793943787427807</v>
-      </c>
-      <c r="Q617" s="2">
-        <v>10.038815117466802</v>
-      </c>
-    </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A618" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B618" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C618" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D618" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="E618" s="4">
-        <v>1.355477</v>
-      </c>
-      <c r="F618" s="4">
-        <v>0.44189899999999999</v>
-      </c>
-      <c r="G618" s="4">
-        <v>77.004000000000005</v>
-      </c>
-      <c r="H618" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="I618" s="4">
-        <v>0.70916780000000001</v>
-      </c>
-      <c r="J618" s="4">
-        <v>0.43577290000000002</v>
-      </c>
-      <c r="K618" s="4">
-        <v>0.59317830000000005</v>
-      </c>
-      <c r="L618" s="4">
-        <v>1.060967</v>
-      </c>
-      <c r="M618" s="5">
-        <v>147.83947789999999</v>
-      </c>
-      <c r="N618" s="5">
-        <v>95.738608322793894</v>
-      </c>
-      <c r="O618" s="5">
-        <v>2.543086416</v>
-      </c>
-      <c r="P618" s="5">
-        <v>64.079119520094693</v>
-      </c>
-      <c r="Q618" s="2">
-        <v>10.25297923050732</v>
-      </c>
-    </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A619" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B619" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C619" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D619" s="4">
-        <v>99.611807999999996</v>
-      </c>
-      <c r="E619" s="4">
-        <v>1.3751249999999999</v>
-      </c>
-      <c r="F619" s="4">
-        <v>0.4476831</v>
-      </c>
-      <c r="G619" s="4">
-        <v>77.123999999999995</v>
-      </c>
-      <c r="H619" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="I619" s="4">
-        <v>0.80473819999999996</v>
-      </c>
-      <c r="J619" s="4">
-        <v>0.54235199999999995</v>
-      </c>
-      <c r="K619" s="4">
-        <v>0.5642819</v>
-      </c>
-      <c r="L619" s="4">
-        <v>1.0852630000000001</v>
-      </c>
-      <c r="M619" s="5">
-        <v>155.42220359999999</v>
-      </c>
-      <c r="N619" s="5">
-        <v>96.031079744884096</v>
-      </c>
-      <c r="O619" s="5">
-        <v>2.2111265859999998</v>
-      </c>
-      <c r="P619" s="5">
-        <v>84.806935198713902</v>
-      </c>
-      <c r="Q619" s="2">
-        <v>10.467143343547839</v>
-      </c>
-    </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A620" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B620" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C620" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D620" s="4">
-        <v>99.657084999999995</v>
-      </c>
-      <c r="E620" s="4">
-        <v>1.3787929999999999</v>
-      </c>
-      <c r="F620" s="4">
-        <v>0.4827862</v>
-      </c>
-      <c r="G620" s="4">
-        <v>77.244</v>
-      </c>
-      <c r="H620" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I620" s="4">
-        <v>0.99187959999999997</v>
-      </c>
-      <c r="J620" s="4">
-        <v>0.53017510000000001</v>
-      </c>
-      <c r="K620" s="4">
-        <v>0.71057530000000002</v>
-      </c>
-      <c r="L620" s="4">
-        <v>1.107863</v>
-      </c>
-      <c r="M620" s="5">
-        <v>161.65850499999999</v>
-      </c>
-      <c r="N620" s="5">
-        <v>96.322639394840394</v>
-      </c>
-      <c r="O620" s="5">
-        <v>1.957730588</v>
-      </c>
-      <c r="P620" s="5">
-        <v>94.984849710371194</v>
-      </c>
-      <c r="Q620" s="2">
-        <v>10.681307456588355</v>
-      </c>
-    </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A621" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B621" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C621" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D621" s="4">
-        <v>99.709479999999999</v>
-      </c>
-      <c r="E621" s="4">
-        <v>1.3168530000000001</v>
-      </c>
-      <c r="F621" s="4">
-        <v>0.52886080000000002</v>
-      </c>
-      <c r="G621" s="4">
-        <v>77.369</v>
-      </c>
-      <c r="H621" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I621" s="4">
-        <v>1.004238</v>
-      </c>
-      <c r="J621" s="4">
-        <v>0.4245313</v>
-      </c>
-      <c r="K621" s="4">
-        <v>0.712418</v>
-      </c>
-      <c r="L621" s="4">
-        <v>1.1434040000000001</v>
-      </c>
-      <c r="M621" s="5">
-        <v>151.390984</v>
-      </c>
-      <c r="N621" s="5">
-        <v>96.613315130313183</v>
-      </c>
-      <c r="O621" s="5">
-        <v>1.9505293079999999</v>
-      </c>
-      <c r="P621" s="5">
-        <v>93.4970119815125</v>
-      </c>
-      <c r="Q621" s="2">
-        <v>10.895471569628873</v>
-      </c>
-    </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A622" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B622" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C622" s="2">
-        <v>2016</v>
-      </c>
-      <c r="D622" s="4">
-        <v>99.7</v>
-      </c>
-      <c r="E622" s="4">
-        <v>1.2674989999999999</v>
-      </c>
-      <c r="F622" s="4">
-        <v>0.57418049999999998</v>
-      </c>
-      <c r="G622" s="4">
-        <v>77.498000000000005</v>
-      </c>
-      <c r="H622" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="I622" s="4">
-        <v>1.0625800000000001</v>
-      </c>
-      <c r="J622" s="4">
-        <v>0.48945559999999999</v>
-      </c>
-      <c r="K622" s="4">
-        <v>0.63039420000000002</v>
-      </c>
-      <c r="L622" s="4">
-        <v>1.163035</v>
-      </c>
-      <c r="M622" s="5">
-        <v>149.4317533</v>
-      </c>
-      <c r="N622" s="5">
-        <v>96.903149588532756</v>
-      </c>
-      <c r="O622" s="5">
-        <v>1.9057508759999999</v>
-      </c>
-      <c r="P622" s="5">
-        <v>96.977737650615893</v>
-      </c>
-      <c r="Q622" s="2">
-        <v>11.04868913857678</v>
-      </c>
-    </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A623" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B623" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C623" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D623" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="E623" s="4">
-        <v>1.292724</v>
-      </c>
-      <c r="F623" s="4">
-        <v>0.43178309999999998</v>
-      </c>
-      <c r="G623" s="4">
-        <v>77.632000000000005</v>
-      </c>
-      <c r="H623" s="4">
-        <v>8</v>
-      </c>
-      <c r="I623" s="4">
-        <v>1.050551</v>
-      </c>
-      <c r="J623" s="4">
-        <v>0.65730980000000006</v>
-      </c>
-      <c r="K623" s="4">
-        <v>0.58572270000000004</v>
-      </c>
-      <c r="L623" s="4">
-        <v>1.1662669999999999</v>
-      </c>
-      <c r="M623" s="5">
-        <v>148.32998269999999</v>
-      </c>
-      <c r="N623" s="5">
-        <v>97.1921480151629</v>
-      </c>
-      <c r="O623" s="5">
-        <v>1.7962010470000001</v>
-      </c>
-      <c r="P623" s="5">
-        <v>98.504420573363802</v>
-      </c>
-      <c r="Q623" s="2">
-        <v>11.167858358869594</v>
-      </c>
-    </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A624" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C624" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D624" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="E624" s="4">
-        <v>1.2599469999999999</v>
-      </c>
-      <c r="F624" s="4">
-        <v>0.55821480000000001</v>
-      </c>
-      <c r="G624" s="4">
-        <v>77.77</v>
-      </c>
-      <c r="H624" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="I624" s="4">
-        <v>1.041839</v>
-      </c>
-      <c r="J624" s="4">
-        <v>0.51275530000000002</v>
-      </c>
-      <c r="K624" s="4">
-        <v>0.59451940000000003</v>
-      </c>
-      <c r="L624" s="4">
-        <v>1.2142250000000001</v>
-      </c>
-      <c r="M624" s="5">
-        <v>149.90422649999999</v>
-      </c>
-      <c r="N624" s="5">
-        <v>97.480355908120472</v>
-      </c>
-      <c r="O624" s="5">
-        <v>1.812652653</v>
-      </c>
-      <c r="P624" s="5">
-        <v>97.645983945137104</v>
-      </c>
-      <c r="Q624" s="2">
-        <v>11.287027579162411</v>
-      </c>
-    </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A625" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B625" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C625" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D625" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="E625" s="4">
-        <v>1.2465109999999999</v>
-      </c>
-      <c r="F625" s="4">
-        <v>0.69573879999999999</v>
-      </c>
-      <c r="G625" s="4">
-        <v>77.911000000000001</v>
-      </c>
-      <c r="H625" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="I625" s="4">
-        <v>1.0455030000000001</v>
-      </c>
-      <c r="J625" s="4">
-        <v>0.50940839999999998</v>
-      </c>
-      <c r="K625" s="4">
-        <v>0.62126309999999996</v>
-      </c>
-      <c r="L625" s="4">
-        <v>1.2569399999999999</v>
-      </c>
-      <c r="M625" s="5">
-        <v>138.07493590000001</v>
-      </c>
-      <c r="N625" s="5">
-        <v>97.767801133889549</v>
-      </c>
-      <c r="O625" s="5">
-        <v>1.842320913</v>
-      </c>
-      <c r="P625" s="5">
-        <v>98.301018538323007</v>
-      </c>
-      <c r="Q625" s="2">
-        <v>11.406196799455227</v>
       </c>
     </row>
   </sheetData>
@@ -34013,6 +32318,1717 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D43C8BB-DAAA-475C-A0D7-4AD15A3FC278}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D1" s="4">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4">
+        <v>-0.93339079999999996</v>
+      </c>
+      <c r="F1" s="4">
+        <v>-0.60282579999999997</v>
+      </c>
+      <c r="G1" s="4">
+        <v>68.185365853658539</v>
+      </c>
+      <c r="H1" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="I1" s="4">
+        <v>-0.47191959999999999</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-0.40020699999999998</v>
+      </c>
+      <c r="K1" s="4">
+        <v>-0.75717679999999998</v>
+      </c>
+      <c r="L1" s="4">
+        <v>-0.67105139999999996</v>
+      </c>
+      <c r="M1" s="5">
+        <v>29.089736299999998</v>
+      </c>
+      <c r="N1" s="5">
+        <v>94.931084023776336</v>
+      </c>
+      <c r="O1" s="5">
+        <v>6.5731145140000002</v>
+      </c>
+      <c r="P1" s="5">
+        <v>6.76056990885861</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15.781956755861156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D2" s="4">
+        <v>99.885561701316007</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-0.72189820000000005</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-0.63971409999999995</v>
+      </c>
+      <c r="G2" s="4">
+        <v>67.95682926829268</v>
+      </c>
+      <c r="H2" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-0.28602650000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-0.53540639999999995</v>
+      </c>
+      <c r="K2" s="4">
+        <v>-0.77888480000000004</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-0.28532479999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>64.005364819999997</v>
+      </c>
+      <c r="N2" s="5">
+        <v>95.168734663128461</v>
+      </c>
+      <c r="O2" s="5">
+        <v>6.6775732659999996</v>
+      </c>
+      <c r="P2" s="5">
+        <v>7.0014257199885899</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15.788252837378842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-0.75081779999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-0.49100559999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>68.077560975609771</v>
+      </c>
+      <c r="H3" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-3.5826700000000003E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-0.52309649999999996</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-0.79570689999999999</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4.9641299999999999E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>105.2767922</v>
+      </c>
+      <c r="N3" s="5">
+        <v>95.404037892058909</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7.1377762349999996</v>
+      </c>
+      <c r="P3" s="5">
+        <v>7.01385005099187</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15.794548918896528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-0.79742159999999995</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-0.66667560000000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>68.222195121951231</v>
+      </c>
+      <c r="H4" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.17313210000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-0.43219229999999997</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-0.72696349999999998</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6.4118400000000006E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>119.08760669999999</v>
+      </c>
+      <c r="N4" s="5">
+        <v>95.637923878190065</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7.2545402670000003</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5.4491375892979903</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15.800845000414215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-0.83849620000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-0.7180725</v>
+      </c>
+      <c r="G5" s="4">
+        <v>68.251463414634159</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.2411400000000002E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-0.53354089999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-0.68134260000000002</v>
+      </c>
+      <c r="L5" s="4">
+        <v>9.0666099999999999E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>120.558086</v>
+      </c>
+      <c r="N5" s="5">
+        <v>95.870444681268168</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7.0524212610000001</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6.4355455864889803</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>15.807141081931903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.0393939999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-0.83384130000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>69.19</v>
+      </c>
+      <c r="H6" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-0.3018807</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-0.57034899999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-0.75878080000000003</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5.9044800000000001E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>119.4564211</v>
+      </c>
+      <c r="N6" s="5">
+        <v>96.101549358831264</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.0319223209999997</v>
+      </c>
+      <c r="P6" s="5">
+        <v>7.3249496367743498</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15.813437163449592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-1.0270539999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-0.78470899999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>70.265365853658551</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.31317E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-0.51590539999999996</v>
+      </c>
+      <c r="K7" s="4">
+        <v>-0.80763949999999995</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-8.4004200000000001E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>117.7678197</v>
+      </c>
+      <c r="N7" s="5">
+        <v>96.327999294196786</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6.4220458159999998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>7.4363660733463899</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>15.819733244967276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1.049992</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-0.82412799999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.80926829268293</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-7.0431499999999994E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-0.60298960000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-0.81879570000000002</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-0.13244059999999999</v>
+      </c>
+      <c r="M8" s="5">
+        <v>121.9416066</v>
+      </c>
+      <c r="N8" s="5">
+        <v>96.553898469748248</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6.7503910779999998</v>
+      </c>
+      <c r="P8" s="5">
+        <v>6.0318150917743001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>15.855852870516113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D9" s="4">
+        <v>99.867491166077698</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-1.077377</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-0.58306250000000004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>70.944146341463423</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-9.2274900000000007E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-0.59547360000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-0.78289710000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-0.27954299999999999</v>
+      </c>
+      <c r="M9" s="5">
+        <v>130.85902060000001</v>
+      </c>
+      <c r="N9" s="5">
+        <v>96.779287393158739</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6.6870375759999998</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5.94386885066542</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15.891972496064948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-1.131518</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-0.64575050000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>71.159512195121962</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-0.777285</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-0.62402150000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-0.80447570000000002</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-0.31539660000000003</v>
+      </c>
+      <c r="M10" s="5">
+        <v>138.44112430000001</v>
+      </c>
+      <c r="N10" s="5">
+        <v>97.004161981499891</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6.5646709430000003</v>
+      </c>
+      <c r="P10" s="5">
+        <v>8.1987839912254294</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>15.928092121613785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-0.99419769999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-0.41341860000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>71.186585365853674</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-2.0208330000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-0.62881790000000004</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-0.7909716</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-0.14223169999999999</v>
+      </c>
+      <c r="M11" s="5">
+        <v>144.27884739999999</v>
+      </c>
+      <c r="N11" s="5">
+        <v>97.228518198962135</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5.7098929109999998</v>
+      </c>
+      <c r="P11" s="5">
+        <v>5.8751941645914396</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15.96421174716262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-0.97991600000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-0.52358340000000003</v>
+      </c>
+      <c r="G12" s="4">
+        <v>71.189512195121964</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1.9618</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-0.59470109999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>-0.81355049999999995</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-8.6799200000000007E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>142.00303790000001</v>
+      </c>
+      <c r="N12" s="5">
+        <v>97.39925365830247</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4.98445904</v>
+      </c>
+      <c r="P12" s="5">
+        <v>4.6262382801525899</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16.000331372711457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-0.81410020000000005</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-0.57227859999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <v>71.476341463414641</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1.8564799999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-0.42953439999999998</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-0.76629369999999997</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.7648E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>133.16895389999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>97.569316245320024</v>
+      </c>
+      <c r="O13" s="5">
+        <v>5.2377399020000004</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5.9751566337654198</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16.011929417612457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.78395749999999997</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.45758110000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>71.780975609756112</v>
+      </c>
+      <c r="H14" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1.870233</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-0.32130239999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-0.71142910000000004</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.45459E-2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>131.35651150000001</v>
+      </c>
+      <c r="N14" s="5">
+        <v>97.73344748626792</v>
+      </c>
+      <c r="O14" s="5">
+        <v>5.0178059480000003</v>
+      </c>
+      <c r="P14" s="5">
+        <v>7.4058992940473498</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>16.023527462513464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-0.87379289999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-0.41521989999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>71.582682926829278</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-1.8587480000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-0.2965778</v>
+      </c>
+      <c r="K15" s="4">
+        <v>-0.71774470000000001</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-1.24108E-2</v>
+      </c>
+      <c r="M15" s="5">
+        <v>127.753861</v>
+      </c>
+      <c r="N15" s="5">
+        <v>97.740591607791202</v>
+      </c>
+      <c r="O15" s="5">
+        <v>5.236499684</v>
+      </c>
+      <c r="P15" s="5">
+        <v>8.5986327338627895</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>16.035125507414463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-0.70959720000000004</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-0.29658250000000003</v>
+      </c>
+      <c r="G16" s="4">
+        <v>71.827317073170747</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-1.5238700000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-0.25867010000000001</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-0.69835139999999996</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.5237799999999997E-2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>130.62943630000001</v>
+      </c>
+      <c r="N16" s="5">
+        <v>97.74159540707403</v>
+      </c>
+      <c r="O16" s="5">
+        <v>5.0740872159999997</v>
+      </c>
+      <c r="P16" s="5">
+        <v>7.30295851600909</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>16.04506668875818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="4">
+        <v>98.094093322753906</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.8986151</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.3193935</v>
+      </c>
+      <c r="G17" s="4">
+        <v>75.599000000000004</v>
+      </c>
+      <c r="H17" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.59104690000000004</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.26497290000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.456652</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.84271050000000003</v>
+      </c>
+      <c r="M17" s="5">
+        <v>18.057273330000001</v>
+      </c>
+      <c r="N17" s="5">
+        <v>93.468877024708448</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1.675337549</v>
+      </c>
+      <c r="P17" s="5">
+        <v>82.408847416623402</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>8.5910793326523667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>98.203292846679702</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.0746720000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.4956834</v>
+      </c>
+      <c r="G18" s="4">
+        <v>75.825999999999993</v>
+      </c>
+      <c r="H18" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.77860879999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.3975147</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.47114450000000002</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.88573769999999996</v>
+      </c>
+      <c r="M18" s="5">
+        <v>34.767955839999999</v>
+      </c>
+      <c r="N18" s="5">
+        <v>93.611630853433184</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1.7236065620000001</v>
+      </c>
+      <c r="P18" s="5">
+        <v>88.032266596138498</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>8.7966746112813539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D19" s="4">
+        <v>98.505426</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.114514</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.39008369999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>76.046000000000006</v>
+      </c>
+      <c r="H19" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.89940410000000004</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.36616179999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.56251079999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1.0307109999999999</v>
+      </c>
+      <c r="M19" s="5">
+        <v>70.067068599999999</v>
+      </c>
+      <c r="N19" s="5">
+        <v>93.923807269718608</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1.9837855639999999</v>
+      </c>
+      <c r="P19" s="5">
+        <v>66.032558990305404</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>9.0022698899103393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="4">
+        <v>98.692635999999993</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.2439849999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.53120650000000003</v>
+      </c>
+      <c r="G20" s="4">
+        <v>76.251000000000005</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.83549770000000001</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.27564889999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.60465939999999996</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.045523</v>
+      </c>
+      <c r="M20" s="5">
+        <v>90.172549009999997</v>
+      </c>
+      <c r="N20" s="5">
+        <v>94.233088295430491</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1.7846671670000001</v>
+      </c>
+      <c r="P20" s="5">
+        <v>87.631312150822893</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>9.2078651685393247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D21" s="4">
+        <v>98.784355000000005</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.3084009999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.50096649999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>76.436999999999998</v>
+      </c>
+      <c r="H21" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.8462693</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.25579740000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.59521849999999998</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1.0621449999999999</v>
+      </c>
+      <c r="M21" s="5">
+        <v>105.01748240000001</v>
+      </c>
+      <c r="N21" s="5">
+        <v>94.53965857954006</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2.4552886229999999</v>
+      </c>
+      <c r="P21" s="5">
+        <v>62.171883657810397</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>9.4134604471683119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D22" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.2384029999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.59591229999999995</v>
+      </c>
+      <c r="G22" s="4">
+        <v>76.602999999999994</v>
+      </c>
+      <c r="H22" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.79031850000000003</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.37535030000000003</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.71807180000000004</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1.1057950000000001</v>
+      </c>
+      <c r="M22" s="5">
+        <v>122.7450058</v>
+      </c>
+      <c r="N22" s="5">
+        <v>94.843589046839085</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2.3723385069999998</v>
+      </c>
+      <c r="P22" s="5">
+        <v>69.868450266429804</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>9.6190557257972991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D23" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.2793330000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.62695659999999998</v>
+      </c>
+      <c r="G23" s="4">
+        <v>76.75</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.824986</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.39408100000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.73859790000000003</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.1465449999999999</v>
+      </c>
+      <c r="M23" s="5">
+        <v>132.08677470000001</v>
+      </c>
+      <c r="N23" s="5">
+        <v>95.145096678572358</v>
+      </c>
+      <c r="O23" s="5">
+        <v>1.8745790410000001</v>
+      </c>
+      <c r="P23" s="5">
+        <v>88.397419270582901</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9.8246510044262845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D24" s="4">
+        <v>99.17</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.27888</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.55374350000000006</v>
+      </c>
+      <c r="G24" s="4">
+        <v>76.882000000000005</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.95709690000000003</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.43603130000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.69901690000000005</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.1214310000000001</v>
+      </c>
+      <c r="M24" s="5">
+        <v>141.21455040000001</v>
+      </c>
+      <c r="N24" s="5">
+        <v>95.444242616926928</v>
+      </c>
+      <c r="O24" s="5">
+        <v>2.2718373399999998</v>
+      </c>
+      <c r="P24" s="5">
+        <v>73.793943787427807</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>10.038815117466802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D25" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.355477</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.44189899999999999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>77.004000000000005</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.70916780000000001</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.43577290000000002</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.59317830000000005</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.060967</v>
+      </c>
+      <c r="M25" s="5">
+        <v>147.83947789999999</v>
+      </c>
+      <c r="N25" s="5">
+        <v>95.738608322793894</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2.543086416</v>
+      </c>
+      <c r="P25" s="5">
+        <v>64.079119520094693</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>10.25297923050732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="4">
+        <v>99.611807999999996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.3751249999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.4476831</v>
+      </c>
+      <c r="G26" s="4">
+        <v>77.123999999999995</v>
+      </c>
+      <c r="H26" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.80473819999999996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.54235199999999995</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.5642819</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1.0852630000000001</v>
+      </c>
+      <c r="M26" s="5">
+        <v>155.42220359999999</v>
+      </c>
+      <c r="N26" s="5">
+        <v>96.031079744884096</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2.2111265859999998</v>
+      </c>
+      <c r="P26" s="5">
+        <v>84.806935198713902</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>10.467143343547839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="4">
+        <v>99.657084999999995</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.3787929999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.4827862</v>
+      </c>
+      <c r="G27" s="4">
+        <v>77.244</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.99187959999999997</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.53017510000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.71057530000000002</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1.107863</v>
+      </c>
+      <c r="M27" s="5">
+        <v>161.65850499999999</v>
+      </c>
+      <c r="N27" s="5">
+        <v>96.322639394840394</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1.957730588</v>
+      </c>
+      <c r="P27" s="5">
+        <v>94.984849710371194</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>10.681307456588355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D28" s="4">
+        <v>99.709479999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.3168530000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.52886080000000002</v>
+      </c>
+      <c r="G28" s="4">
+        <v>77.369</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.004238</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.4245313</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.712418</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1.1434040000000001</v>
+      </c>
+      <c r="M28" s="5">
+        <v>151.390984</v>
+      </c>
+      <c r="N28" s="5">
+        <v>96.613315130313183</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1.9505293079999999</v>
+      </c>
+      <c r="P28" s="5">
+        <v>93.4970119815125</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>10.895471569628873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D29" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.2674989999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.57418049999999998</v>
+      </c>
+      <c r="G29" s="4">
+        <v>77.498000000000005</v>
+      </c>
+      <c r="H29" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.0625800000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.48945559999999999</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.63039420000000002</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.163035</v>
+      </c>
+      <c r="M29" s="5">
+        <v>149.4317533</v>
+      </c>
+      <c r="N29" s="5">
+        <v>96.903149588532756</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1.9057508759999999</v>
+      </c>
+      <c r="P29" s="5">
+        <v>96.977737650615893</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>11.04868913857678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.292724</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.43178309999999998</v>
+      </c>
+      <c r="G30" s="4">
+        <v>77.632000000000005</v>
+      </c>
+      <c r="H30" s="4">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.050551</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.65730980000000006</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.58572270000000004</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1.1662669999999999</v>
+      </c>
+      <c r="M30" s="5">
+        <v>148.32998269999999</v>
+      </c>
+      <c r="N30" s="5">
+        <v>97.1921480151629</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1.7962010470000001</v>
+      </c>
+      <c r="P30" s="5">
+        <v>98.504420573363802</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>11.167858358869594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.2599469999999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.55821480000000001</v>
+      </c>
+      <c r="G31" s="4">
+        <v>77.77</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.041839</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.51275530000000002</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.59451940000000003</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1.2142250000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>149.90422649999999</v>
+      </c>
+      <c r="N31" s="5">
+        <v>97.480355908120472</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1.812652653</v>
+      </c>
+      <c r="P31" s="5">
+        <v>97.645983945137104</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>11.287027579162411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.2465109999999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.69573879999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>77.911000000000001</v>
+      </c>
+      <c r="H32" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.0455030000000001</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.50940839999999998</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.62126309999999996</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1.2569399999999999</v>
+      </c>
+      <c r="M32" s="5">
+        <v>138.07493590000001</v>
+      </c>
+      <c r="N32" s="5">
+        <v>97.767801133889549</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1.842320913</v>
+      </c>
+      <c r="P32" s="5">
+        <v>98.301018538323007</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>11.406196799455227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0C2FE-0C17-4019-8766-41B046E61A5D}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L16"/>
